--- a/QuantLibXL/Data2/XLS/EUR_MxContributorOIS.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_MxContributorOIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="-15" windowWidth="15330" windowHeight="8190"/>
+    <workbookView xWindow="15270" yWindow="-15" windowWidth="15330" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Triggers" sheetId="4" r:id="rId1"/>
@@ -792,6 +792,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,7 +802,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ContentsHyperlink" xfId="1"/>
@@ -825,229 +825,229 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.16600000000000001</v>
+        <v>0.153</v>
         <stp/>
         <stp>_x000C_EUROISDDS15M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M25" s="3"/>
       </tp>
       <tp>
-        <v>0.16500000000000001</v>
+        <v>0.153</v>
         <stp/>
         <stp>_x000C_EUROISDDS14M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M24" s="3"/>
       </tp>
       <tp>
-        <v>0.17599999999999999</v>
+        <v>0.159</v>
         <stp/>
         <stp>_x000C_EUROISDDS17M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M27" s="3"/>
       </tp>
       <tp>
-        <v>0.17199999999999999</v>
+        <v>0.157</v>
         <stp/>
         <stp>_x000C_EUROISDDS16M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M26" s="3"/>
       </tp>
       <tp>
-        <v>0.158</v>
+        <v>0.15</v>
         <stp/>
         <stp>_x000C_EUROISDDS11M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M21" s="3"/>
       </tp>
       <tp>
-        <v>0.158</v>
+        <v>0.151</v>
         <stp/>
         <stp>_x000C_EUROISDDS10M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M20" s="3"/>
       </tp>
       <tp>
-        <v>0.16200000000000001</v>
+        <v>0.152</v>
         <stp/>
         <stp>_x000C_EUROISDDS13M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M23" s="3"/>
       </tp>
       <tp>
-        <v>0.184</v>
+        <v>0.16500000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS19M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M29" s="3"/>
       </tp>
       <tp>
-        <v>0.17699999999999999</v>
+        <v>0.16</v>
         <stp/>
         <stp>_x000C_EUROISDDS18M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M28" s="3"/>
       </tp>
       <tp>
-        <v>0.192</v>
+        <v>0.17100000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS21M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M31" s="3"/>
       </tp>
       <tp>
-        <v>0.188</v>
+        <v>0.16800000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS20M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M30" s="3"/>
       </tp>
       <tp>
-        <v>0.20499999999999999</v>
+        <v>0.18</v>
         <stp/>
         <stp>_x000C_EUROISDDS23M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M33" s="3"/>
       </tp>
       <tp>
-        <v>0.19900000000000001</v>
+        <v>0.17499999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS22M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M32" s="3"/>
       </tp>
       <tp>
-        <v>2.323</v>
+        <v>2.3279999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS40Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M64" s="3"/>
       </tp>
       <tp>
-        <v>2.351</v>
+        <v>2.3580000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS50Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M65" s="3"/>
       </tp>
       <tp>
-        <v>2.3740000000000001</v>
+        <v>2.3809999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS60Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M66" s="3"/>
       </tp>
       <tp>
-        <v>1.978</v>
+        <v>1.9410000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS15Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M47" s="3"/>
       </tp>
       <tp>
-        <v>1.907</v>
+        <v>1.867</v>
         <stp/>
         <stp>_x000C_EUROISDDS14Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M46" s="3"/>
       </tp>
       <tp>
-        <v>2.0840000000000001</v>
+        <v>2.0529999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS17Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M49" s="3"/>
       </tp>
       <tp>
-        <v>2.0369999999999999</v>
+        <v>2.0019999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS16Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M48" s="3"/>
       </tp>
       <tp>
-        <v>1.613</v>
+        <v>1.5669999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS11Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M43" s="3"/>
       </tp>
       <tp>
-        <v>1.4850000000000001</v>
+        <v>1.4379999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS10Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M42" s="3"/>
       </tp>
       <tp>
-        <v>1.823</v>
+        <v>1.7809999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS13Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M45" s="3"/>
       </tp>
       <tp>
-        <v>1.7250000000000001</v>
+        <v>1.681</v>
         <stp/>
         <stp>_x000C_EUROISDDS12Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M44" s="3"/>
       </tp>
       <tp>
-        <v>2.1539999999999999</v>
+        <v>2.1280000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS19Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M51" s="3"/>
       </tp>
       <tp>
-        <v>2.1230000000000002</v>
+        <v>2.0939999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS18Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M50" s="3"/>
       </tp>
       <tp>
-        <v>2.2509999999999999</v>
+        <v>2.2389999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS25Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M57" s="3"/>
       </tp>
       <tp>
-        <v>2.242</v>
+        <v>2.2280000000000002</v>
         <stp/>
         <stp>_x000C_EUROISDDS24Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M56" s="3"/>
       </tp>
       <tp>
-        <v>2.2629999999999999</v>
+        <v>2.2549999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS27Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M59" s="3"/>
       </tp>
       <tp>
-        <v>2.258</v>
+        <v>2.2480000000000002</v>
         <stp/>
         <stp>_x000C_EUROISDDS26Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M58" s="3"/>
       </tp>
       <tp>
-        <v>2.2000000000000002</v>
+        <v>2.1789999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS21Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M53" s="3"/>
       </tp>
       <tp>
-        <v>2.1789999999999998</v>
+        <v>2.1560000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS20Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M52" s="3"/>
       </tp>
       <tp>
-        <v>2.2309999999999999</v>
+        <v>2.2149999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS23Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M55" s="3"/>
       </tp>
       <tp>
-        <v>2.2170000000000001</v>
+        <v>2.1989999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS22Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M54" s="3"/>
       </tp>
       <tp>
-        <v>2.2709999999999999</v>
+        <v>2.2669999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS29Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M61" s="3"/>
       </tp>
       <tp>
-        <v>2.2669999999999999</v>
+        <v>2.262</v>
         <stp/>
         <stp>_x000C_EUROISDDS28Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M60" s="3"/>
       </tp>
       <tp>
-        <v>2.2989999999999999</v>
+        <v>2.302</v>
         <stp/>
         <stp>_x000C_EUROISDDS35Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M63" s="3"/>
       </tp>
       <tp>
-        <v>2.2749999999999999</v>
+        <v>2.2730000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS30Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M62" s="3"/>
@@ -1055,151 +1055,151 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.1230000000000002</v>
+        <v>2.0939999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS18Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N50" s="3"/>
       </tp>
       <tp>
-        <v>2.1539999999999999</v>
+        <v>2.1280000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS19Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N51" s="3"/>
       </tp>
       <tp>
-        <v>1.907</v>
+        <v>1.867</v>
         <stp/>
         <stp>_x000C_EUROISDDS14Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N46" s="3"/>
       </tp>
       <tp>
-        <v>1.978</v>
+        <v>1.9410000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS15Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N47" s="3"/>
       </tp>
       <tp>
-        <v>2.0369999999999999</v>
+        <v>2.0019999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS16Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N48" s="3"/>
       </tp>
       <tp>
-        <v>2.0840000000000001</v>
+        <v>2.0529999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS17Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N49" s="3"/>
       </tp>
       <tp>
-        <v>1.4850000000000001</v>
+        <v>1.4379999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS10Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N42" s="3"/>
       </tp>
       <tp>
-        <v>1.613</v>
+        <v>1.5669999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS11Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N43" s="3"/>
       </tp>
       <tp>
-        <v>1.7250000000000001</v>
+        <v>1.681</v>
         <stp/>
         <stp>_x000C_EUROISDDS12Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N44" s="3"/>
       </tp>
       <tp>
-        <v>1.823</v>
+        <v>1.7809999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS13Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N45" s="3"/>
       </tp>
       <tp>
-        <v>2.2989999999999999</v>
+        <v>2.302</v>
         <stp/>
         <stp>_x000C_EUROISDDS35Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N63" s="3"/>
       </tp>
       <tp>
-        <v>2.2749999999999999</v>
+        <v>2.2730000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS30Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N62" s="3"/>
       </tp>
       <tp>
-        <v>2.2669999999999999</v>
+        <v>2.262</v>
         <stp/>
         <stp>_x000C_EUROISDDS28Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N60" s="3"/>
       </tp>
       <tp>
-        <v>2.2709999999999999</v>
+        <v>2.2669999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS29Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N61" s="3"/>
       </tp>
       <tp>
-        <v>2.242</v>
+        <v>2.2280000000000002</v>
         <stp/>
         <stp>_x000C_EUROISDDS24Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N56" s="3"/>
       </tp>
       <tp>
-        <v>2.2509999999999999</v>
+        <v>2.2389999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS25Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N57" s="3"/>
       </tp>
       <tp>
-        <v>2.258</v>
+        <v>2.2480000000000002</v>
         <stp/>
         <stp>_x000C_EUROISDDS26Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N58" s="3"/>
       </tp>
       <tp>
-        <v>2.2629999999999999</v>
+        <v>2.2549999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS27Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N59" s="3"/>
       </tp>
       <tp>
-        <v>2.1789999999999998</v>
+        <v>2.1560000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS20Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N52" s="3"/>
       </tp>
       <tp>
-        <v>2.2000000000000002</v>
+        <v>2.1789999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS21Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N53" s="3"/>
       </tp>
       <tp>
-        <v>2.2170000000000001</v>
+        <v>2.1989999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS22Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N54" s="3"/>
       </tp>
       <tp>
-        <v>2.2309999999999999</v>
+        <v>2.2149999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS23Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N55" s="3"/>
       </tp>
       <tp>
-        <v>2.351</v>
+        <v>2.3580000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS50Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N65" s="3"/>
       </tp>
       <tp>
-        <v>2.323</v>
+        <v>2.3279999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS40Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N64" s="3"/>
       </tp>
       <tp>
-        <v>2.3740000000000001</v>
+        <v>2.3809999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS60Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N66" s="3"/>
@@ -1207,79 +1207,79 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.17699999999999999</v>
+        <v>0.16</v>
         <stp/>
         <stp>_x000C_EUROISDDS18M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N28" s="3"/>
       </tp>
       <tp>
-        <v>0.184</v>
+        <v>0.16500000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS19M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N29" s="3"/>
       </tp>
       <tp>
-        <v>0.16500000000000001</v>
+        <v>0.153</v>
         <stp/>
         <stp>_x000C_EUROISDDS14M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N24" s="3"/>
       </tp>
       <tp>
-        <v>0.16600000000000001</v>
+        <v>0.153</v>
         <stp/>
         <stp>_x000C_EUROISDDS15M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N25" s="3"/>
       </tp>
       <tp>
-        <v>0.17199999999999999</v>
+        <v>0.157</v>
         <stp/>
         <stp>_x000C_EUROISDDS16M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N26" s="3"/>
       </tp>
       <tp>
-        <v>0.17599999999999999</v>
+        <v>0.159</v>
         <stp/>
         <stp>_x000C_EUROISDDS17M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N27" s="3"/>
       </tp>
       <tp>
-        <v>0.158</v>
+        <v>0.151</v>
         <stp/>
         <stp>_x000C_EUROISDDS10M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N20" s="3"/>
       </tp>
       <tp>
-        <v>0.158</v>
+        <v>0.15</v>
         <stp/>
         <stp>_x000C_EUROISDDS11M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N21" s="3"/>
       </tp>
       <tp>
-        <v>0.16200000000000001</v>
+        <v>0.152</v>
         <stp/>
         <stp>_x000C_EUROISDDS13M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N23" s="3"/>
       </tp>
       <tp>
-        <v>0.188</v>
+        <v>0.16800000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS20M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N30" s="3"/>
       </tp>
       <tp>
-        <v>0.192</v>
+        <v>0.17100000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS21M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N31" s="3"/>
       </tp>
       <tp>
-        <v>0.19900000000000001</v>
+        <v>0.17499999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS22M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N32" s="3"/>
       </tp>
       <tp>
-        <v>0.20499999999999999</v>
+        <v>0.18</v>
         <stp/>
         <stp>_x000C_EUROISDDS23M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N33" s="3"/>
@@ -1287,127 +1287,127 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.1919999999999999</v>
+        <v>1.1379999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS8Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N40" s="3"/>
       </tp>
       <tp>
-        <v>0.159</v>
+        <v>0.155</v>
         <stp/>
         <stp>_x000B_EUROISDDS8M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N18" s="3"/>
       </tp>
       <tp>
-        <v>1.345</v>
+        <v>1.2949999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS9Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N41" s="3"/>
       </tp>
       <tp>
-        <v>0.16</v>
+        <v>0.153</v>
         <stp/>
         <stp>_x000B_EUROISDDS9M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N19" s="3"/>
       </tp>
       <tp>
-        <v>0.2</v>
+        <v>0.221</v>
         <stp/>
         <stp>_x000B_EUROISDDS2W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N9" s="3"/>
       </tp>
       <tp>
-        <v>0.21099999999999999</v>
+        <v>0.185</v>
         <stp/>
         <stp>_x000B_EUROISDDS2Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N34" s="3"/>
       </tp>
       <tp>
-        <v>0.17699999999999999</v>
+        <v>0.19600000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS2M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N12" s="3"/>
       </tp>
       <tp>
-        <v>0.19700000000000001</v>
+        <v>0.221</v>
         <stp/>
         <stp>_x000B_EUROISDDS3W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N10" s="3"/>
       </tp>
       <tp>
-        <v>0.32800000000000001</v>
+        <v>0.28699999999999998</v>
         <stp/>
         <stp>_x000B_EUROISDDS3Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N35" s="3"/>
       </tp>
       <tp>
-        <v>0.17199999999999999</v>
+        <v>0.186</v>
         <stp/>
         <stp>_x000B_EUROISDDS3M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N13" s="3"/>
       </tp>
       <tp>
-        <v>0.20899999999999999</v>
+        <v>0.20699999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS1W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N8" s="3"/>
       </tp>
       <tp>
-        <v>0.159</v>
+        <v>0.15</v>
         <stp/>
         <stp>_x000B_EUROISDDS1Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N22" s="3"/>
       </tp>
       <tp>
-        <v>0.192</v>
+        <v>0.21</v>
         <stp/>
         <stp>_x000B_EUROISDDS1M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N11" s="3"/>
       </tp>
       <tp>
-        <v>0.84799999999999998</v>
+        <v>0.78900000000000003</v>
         <stp/>
         <stp>_x000B_EUROISDDS6Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N38" s="3"/>
       </tp>
       <tp>
-        <v>0.16400000000000001</v>
+        <v>0.16500000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS6M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N16" s="3"/>
       </tp>
       <tp>
-        <v>1.024</v>
+        <v>0.96799999999999997</v>
         <stp/>
         <stp>_x000B_EUROISDDS7Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N39" s="3"/>
       </tp>
       <tp>
-        <v>0.161</v>
+        <v>0.159</v>
         <stp/>
         <stp>_x000B_EUROISDDS7M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N17" s="3"/>
       </tp>
       <tp>
-        <v>0.48899999999999999</v>
+        <v>0.435</v>
         <stp/>
         <stp>_x000B_EUROISDDS4Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N36" s="3"/>
       </tp>
       <tp>
-        <v>0.16900000000000001</v>
+        <v>0.17599999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS4M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N14" s="3"/>
       </tp>
       <tp>
-        <v>0.66500000000000004</v>
+        <v>0.60699999999999998</v>
         <stp/>
         <stp>_x000B_EUROISDDS5Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N37" s="3"/>
       </tp>
       <tp>
-        <v>0.16600000000000001</v>
+        <v>0.17</v>
         <stp/>
         <stp>_x000B_EUROISDDS5M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N15" s="3"/>
@@ -1449,127 +1449,127 @@
         <tr r="M6" s="3"/>
       </tp>
       <tp>
-        <v>0.17199999999999999</v>
+        <v>0.186</v>
         <stp/>
         <stp>_x000B_EUROISDDS3M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M13" s="3"/>
       </tp>
       <tp>
-        <v>0.19700000000000001</v>
+        <v>0.221</v>
         <stp/>
         <stp>_x000B_EUROISDDS3W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M10" s="3"/>
       </tp>
       <tp>
-        <v>0.32800000000000001</v>
+        <v>0.28699999999999998</v>
         <stp/>
         <stp>_x000B_EUROISDDS3Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M35" s="3"/>
       </tp>
       <tp>
-        <v>0.17699999999999999</v>
+        <v>0.19600000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS2M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M12" s="3"/>
       </tp>
       <tp>
-        <v>0.2</v>
+        <v>0.221</v>
         <stp/>
         <stp>_x000B_EUROISDDS2W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M9" s="3"/>
       </tp>
       <tp>
-        <v>0.21099999999999999</v>
+        <v>0.185</v>
         <stp/>
         <stp>_x000B_EUROISDDS2Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M34" s="3"/>
       </tp>
       <tp>
-        <v>0.192</v>
+        <v>0.21</v>
         <stp/>
         <stp>_x000B_EUROISDDS1M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M11" s="3"/>
       </tp>
       <tp>
-        <v>0.20899999999999999</v>
+        <v>0.20699999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS1W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M8" s="3"/>
       </tp>
       <tp>
-        <v>0.159</v>
+        <v>0.15</v>
         <stp/>
         <stp>_x000B_EUROISDDS1Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M22" s="3"/>
       </tp>
       <tp>
-        <v>0.161</v>
+        <v>0.159</v>
         <stp/>
         <stp>_x000B_EUROISDDS7M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M17" s="3"/>
       </tp>
       <tp>
-        <v>1.024</v>
+        <v>0.96799999999999997</v>
         <stp/>
         <stp>_x000B_EUROISDDS7Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M39" s="3"/>
       </tp>
       <tp>
-        <v>0.16400000000000001</v>
+        <v>0.16500000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS6M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M16" s="3"/>
       </tp>
       <tp>
-        <v>0.84799999999999998</v>
+        <v>0.78900000000000003</v>
         <stp/>
         <stp>_x000B_EUROISDDS6Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M38" s="3"/>
       </tp>
       <tp>
-        <v>0.16600000000000001</v>
+        <v>0.17</v>
         <stp/>
         <stp>_x000B_EUROISDDS5M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M15" s="3"/>
       </tp>
       <tp>
-        <v>0.66500000000000004</v>
+        <v>0.60699999999999998</v>
         <stp/>
         <stp>_x000B_EUROISDDS5Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M37" s="3"/>
       </tp>
       <tp>
-        <v>0.16900000000000001</v>
+        <v>0.17599999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS4M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M14" s="3"/>
       </tp>
       <tp>
-        <v>0.48899999999999999</v>
+        <v>0.435</v>
         <stp/>
         <stp>_x000B_EUROISDDS4Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M36" s="3"/>
       </tp>
       <tp>
-        <v>0.16</v>
+        <v>0.153</v>
         <stp/>
         <stp>_x000B_EUROISDDS9M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M19" s="3"/>
       </tp>
       <tp>
-        <v>1.345</v>
+        <v>1.2949999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS9Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M41" s="3"/>
       </tp>
       <tp>
-        <v>0.159</v>
+        <v>0.155</v>
         <stp/>
         <stp>_x000B_EUROISDDS8M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M18" s="3"/>
       </tp>
       <tp>
-        <v>1.1919999999999999</v>
+        <v>1.1379999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS8Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M40" s="3"/>
@@ -1708,61 +1708,61 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.6500000000000004E-3</c:v>
+                  <c:v>2.65E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8900000000000002E-3</c:v>
+                  <c:v>2.8699999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1300000000000004E-3</c:v>
+                  <c:v>3.0699999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3399999999999992E-3</c:v>
+                  <c:v>3.2600000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.47E-3</c:v>
+                  <c:v>3.360000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4999999999999996E-3</c:v>
+                  <c:v>3.4200000000000012E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4999999999999996E-3</c:v>
+                  <c:v>3.4300000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4499999999999982E-3</c:v>
+                  <c:v>3.4000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4000000000000002E-3</c:v>
+                  <c:v>3.3600000000000019E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3399999999999992E-3</c:v>
+                  <c:v>3.2999999999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2499999999999994E-3</c:v>
+                  <c:v>3.2299999999999968E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1599999999999961E-3</c:v>
+                  <c:v>3.1499999999999966E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.870000000000001E-3</c:v>
+                  <c:v>2.8800000000000041E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4899999999999957E-3</c:v>
+                  <c:v>2.5200000000000049E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2599999999999981E-3</c:v>
+                  <c:v>2.2900000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0899999999999981E-3</c:v>
+                  <c:v>2.1200000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8699999999999967E-3</c:v>
+                  <c:v>1.8999999999999954E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7299999999999989E-3</c:v>
+                  <c:v>1.7600000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.630000000000003E-3</c:v>
+                  <c:v>1.6600000000000018E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,61 +1868,61 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.5654624210207384E-3</c:v>
+                  <c:v>2.5728923175569384E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9578546996302212E-3</c:v>
+                  <c:v>2.9176292390170151E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.216478567673574E-3</c:v>
+                  <c:v>3.1501662411382225E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3723947072217004E-3</c:v>
+                  <c:v>3.2949606685246328E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4521886519349246E-3</c:v>
+                  <c:v>3.3734204454046787E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4769337666921648E-3</c:v>
+                  <c:v>3.402871182037906E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4628217427794591E-3</c:v>
+                  <c:v>3.3968872126858619E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4220646221268395E-3</c:v>
+                  <c:v>3.3659060597652475E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3637379228199059E-3</c:v>
+                  <c:v>3.3178406808242115E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2944910053361105E-3</c:v>
+                  <c:v>3.2586134584527008E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2191214255236668E-3</c:v>
+                  <c:v>3.1925987331510733E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1410294546051994E-3</c:v>
+                  <c:v>3.1229802692106811E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9103595473705789E-3</c:v>
+                  <c:v>2.9120352263416085E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.582904779949487E-3</c:v>
+                  <c:v>2.602492259022985E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.333082202496894E-3</c:v>
+                  <c:v>2.3605735760224953E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1415674990589669E-3</c:v>
+                  <c:v>2.1729073361477845E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8687832065027396E-3</c:v>
+                  <c:v>1.9039845691810262E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6824634795535799E-3</c:v>
+                  <c:v>1.7201736154480178E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5456200061952717E-3</c:v>
+                  <c:v>1.5854904599366599E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,11 +1937,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308334592"/>
-        <c:axId val="308336128"/>
+        <c:axId val="876044672"/>
+        <c:axId val="876046592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308334592"/>
+        <c:axId val="876044672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1977,12 +1977,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308336128"/>
+        <c:crossAx val="876046592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308336128"/>
+        <c:axId val="876046592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.01"/>
@@ -2029,7 +2029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308334592"/>
+        <c:crossAx val="876044672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2155,7 +2155,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>382</v>
+            <v>14</v>
           </cell>
         </row>
       </sheetData>
@@ -2582,8 +2582,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2604,12 +2604,12 @@
       </c>
     </row>
     <row r="2" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="V2" s="7" t="s">
         <v>29</v>
       </c>
@@ -2660,12 +2660,12 @@
     </row>
     <row r="8" spans="2:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
       <c r="V9" s="7" t="s">
         <v>29</v>
       </c>
@@ -2677,13 +2677,11 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="17">
-        <v>41731.631689814814</v>
-      </c>
+      <c r="D11" s="17"/>
       <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
@@ -2693,7 +2691,7 @@
       </c>
       <c r="D12" s="17">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41731</v>
+        <v>41737</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -2704,7 +2702,7 @@
       </c>
       <c r="D13" s="18">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1d","following",FALSE)</f>
-        <v>41732</v>
+        <v>41738</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -2725,7 +2723,7 @@
       </c>
       <c r="D15" s="18">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41733</v>
+        <v>41739</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -2735,8 +2733,8 @@
         <v>39</v>
       </c>
       <c r="D16" s="38">
-        <f ca="1">[1]!TriggerCounter</f>
-        <v>382</v>
+        <f>[1]!TriggerCounter</f>
+        <v>14</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -2769,9 +2767,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2812,8 +2808,8 @@
         <v>136</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f ca="1">_xll.qlCubicInterpolation(,F11:F29,E11:E29,F1,F2)</f>
-        <v>obj_0080f#0343</v>
+        <f>_xll.qlCubicInterpolation(,F11:F29,E11:E29,F1,F2)</f>
+        <v>obj_0080d#0013</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2822,8 +2818,8 @@
         <v>138</v>
       </c>
       <c r="F4" t="str">
-        <f ca="1">_xll.qlAbcdInterpolation(,$F11:$F29,$G11:$G29,G33,G34,G35,G36,,,,FALSE)</f>
-        <v>obj_00810#0343</v>
+        <f>_xll.qlAbcdInterpolation(,$F11:$F29,$G11:$G29,G33,G34,G35,G36,,,,FALSE)</f>
+        <v>obj_0080e#0013</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2844,7 +2840,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="I7" s="1">
-        <f ca="1">(H26-G26)*0</f>
+        <f>(H26-G26)*0</f>
         <v>0</v>
       </c>
     </row>
@@ -2894,30 +2890,30 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <f ca="1">_xll.qlQuoteValue(B11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
-        <v>4.2400000000000007E-3</v>
+        <f>_xll.qlQuoteValue(B11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
+        <v>4.15E-3</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f ca="1">_xll.qlQuoteValue(D11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.5900000000000001E-3</v>
+        <f>_xll.qlQuoteValue(D11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="F11" s="21">
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <f ca="1">C11-E11</f>
-        <v>2.6500000000000004E-3</v>
+        <f>C11-E11</f>
+        <v>2.65E-3</v>
       </c>
       <c r="H11" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F11,TRUE)</f>
-        <v>2.5654624210207384E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F11,TRUE)</f>
+        <v>2.5728923175569384E-3</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" ref="I11:I29" ca="1" si="0">H11-$I$7</f>
-        <v>2.5654624210207384E-3</v>
+        <f t="shared" ref="I11:I29" si="0">H11-$I$7</f>
+        <v>2.5728923175569384E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2928,30 +2924,30 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <f ca="1">_xll.qlQuoteValue(B12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
-        <v>5.0000000000000001E-3</v>
+        <f>_xll.qlQuoteValue(B12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
+        <v>4.7199999999999994E-3</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <f ca="1">_xll.qlQuoteValue(D12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.1099999999999999E-3</v>
+        <f>_xll.qlQuoteValue(D12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="F12" s="21">
         <v>2</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" ref="G12:G21" ca="1" si="1">C12-E12</f>
-        <v>2.8900000000000002E-3</v>
+        <f t="shared" ref="G12:G21" si="1">C12-E12</f>
+        <v>2.8699999999999993E-3</v>
       </c>
       <c r="H12" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F12,TRUE)</f>
-        <v>2.9578546996302212E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F12,TRUE)</f>
+        <v>2.9176292390170151E-3</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9578546996302212E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.9176292390170151E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2962,30 +2958,30 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <f ca="1">_xll.qlQuoteValue(B13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
-        <v>6.4099999999999999E-3</v>
+        <f>_xll.qlQuoteValue(B13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
+        <v>5.94E-3</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <f ca="1">_xll.qlQuoteValue(D13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
-        <v>3.2799999999999995E-3</v>
+        <f>_xll.qlQuoteValue(D13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.8700000000000002E-3</v>
       </c>
       <c r="F13" s="21">
         <v>3</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1300000000000004E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="H13" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F13,TRUE)</f>
-        <v>3.216478567673574E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F13,TRUE)</f>
+        <v>3.1501662411382225E-3</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.216478567673574E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.1501662411382225E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2996,30 +2992,30 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <f ca="1">_xll.qlQuoteValue(B14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
-        <v>8.2299999999999995E-3</v>
+        <f>_xll.qlQuoteValue(B14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
+        <v>7.6100000000000004E-3</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <f ca="1">_xll.qlQuoteValue(D14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
-        <v>4.8900000000000002E-3</v>
+        <f>_xll.qlQuoteValue(D14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="F14" s="21">
         <v>4</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3399999999999992E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.2600000000000007E-3</v>
       </c>
       <c r="H14" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F14,TRUE)</f>
-        <v>3.3723947072217004E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F14,TRUE)</f>
+        <v>3.2949606685246328E-3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3723947072217004E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.2949606685246328E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3030,30 +3026,30 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <f ca="1">_xll.qlQuoteValue(B15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.0120000000000001E-2</v>
+        <f>_xll.qlQuoteValue(B15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
+        <v>9.4300000000000009E-3</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f ca="1">_xll.qlQuoteValue(D15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
-        <v>6.6500000000000005E-3</v>
+        <f>_xll.qlQuoteValue(D15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
+        <v>6.0699999999999999E-3</v>
       </c>
       <c r="F15" s="21">
         <v>5</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.47E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.360000000000001E-3</v>
       </c>
       <c r="H15" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F15,TRUE)</f>
-        <v>3.4521886519349246E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F15,TRUE)</f>
+        <v>3.3734204454046787E-3</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4521886519349246E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3734204454046787E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3064,30 +3060,30 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <f ca="1">_xll.qlQuoteValue(B16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.1979999999999999E-2</v>
+        <f>_xll.qlQuoteValue(B16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.1310000000000001E-2</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <f ca="1">_xll.qlQuoteValue(D16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
-        <v>8.4799999999999997E-3</v>
+        <f>_xll.qlQuoteValue(D16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
+        <v>7.8899999999999994E-3</v>
       </c>
       <c r="F16" s="21">
         <v>6</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4999999999999996E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.4200000000000012E-3</v>
       </c>
       <c r="H16" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F16,TRUE)</f>
-        <v>3.4769337666921648E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F16,TRUE)</f>
+        <v>3.402871182037906E-3</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4769337666921648E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.402871182037906E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3098,30 +3094,30 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <f ca="1">_xll.qlQuoteValue(B17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.374E-2</v>
+        <f>_xll.qlQuoteValue(B17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.311E-2</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <f ca="1">_xll.qlQuoteValue(D17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.0240000000000001E-2</v>
+        <f>_xll.qlQuoteValue(D17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
+        <v>9.6799999999999994E-3</v>
       </c>
       <c r="F17" s="21">
         <v>7</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4999999999999996E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.4300000000000008E-3</v>
       </c>
       <c r="H17" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F17,TRUE)</f>
-        <v>3.4628217427794591E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F17,TRUE)</f>
+        <v>3.3968872126858619E-3</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4628217427794591E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3968872126858619E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3132,30 +3128,30 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <f ca="1">_xll.qlQuoteValue(B18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.537E-2</v>
+        <f>_xll.qlQuoteValue(B18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.478E-2</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <f ca="1">_xll.qlQuoteValue(D18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.1920000000000002E-2</v>
+        <f>_xll.qlQuoteValue(D18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="F18" s="21">
         <v>8</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4499999999999982E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="H18" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F18,TRUE)</f>
-        <v>3.4220646221268395E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F18,TRUE)</f>
+        <v>3.3659060597652475E-3</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4220646221268395E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3659060597652475E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3166,30 +3162,30 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <f ca="1">_xll.qlQuoteValue(B19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.685E-2</v>
+        <f>_xll.qlQuoteValue(B19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.6310000000000002E-2</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <f ca="1">_xll.qlQuoteValue(D19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.345E-2</v>
+        <f>_xll.qlQuoteValue(D19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.295E-2</v>
       </c>
       <c r="F19" s="21">
         <v>9</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4000000000000002E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.3600000000000019E-3</v>
       </c>
       <c r="H19" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F19,TRUE)</f>
-        <v>3.3637379228199059E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F19,TRUE)</f>
+        <v>3.3178406808242115E-3</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3637379228199059E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3178406808242115E-3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3200,30 +3196,30 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <f ca="1">_xll.qlQuoteValue(B20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.8189999999999998E-2</v>
+        <f>_xll.qlQuoteValue(B20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.7680000000000001E-2</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <f ca="1">_xll.qlQuoteValue(D20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.4849999999999999E-2</v>
+        <f>_xll.qlQuoteValue(D20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.4380000000000002E-2</v>
       </c>
       <c r="F20" s="21">
         <v>10</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3399999999999992E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.2999999999999991E-3</v>
       </c>
       <c r="H20" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F20,TRUE)</f>
-        <v>3.2944910053361105E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F20,TRUE)</f>
+        <v>3.2586134584527008E-3</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2944910053361105E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.2586134584527008E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3234,30 +3230,30 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <f ca="1">_xll.qlQuoteValue(B21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.9379999999999998E-2</v>
+        <f>_xll.qlQuoteValue(B21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.89E-2</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <f ca="1">_xll.qlQuoteValue(D21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.6129999999999999E-2</v>
+        <f>_xll.qlQuoteValue(D21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.5670000000000003E-2</v>
       </c>
       <c r="F21" s="21">
         <v>11</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2499999999999994E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.2299999999999968E-3</v>
       </c>
       <c r="H21" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F21,TRUE)</f>
-        <v>3.2191214255236668E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F21,TRUE)</f>
+        <v>3.1925987331510733E-3</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.2191214255236668E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.1925987331510733E-3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3268,30 +3264,30 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <f ca="1">_xll.qlQuoteValue(B22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.0409999999999998E-2</v>
+        <f>_xll.qlQuoteValue(B22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.9959999999999999E-2</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <f ca="1">_xll.qlQuoteValue(D22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.7250000000000001E-2</v>
+        <f>_xll.qlQuoteValue(D22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.6810000000000002E-2</v>
       </c>
       <c r="F22" s="21">
         <v>12</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" ref="G22:G29" ca="1" si="2">C22-E22</f>
-        <v>3.1599999999999961E-3</v>
+        <f t="shared" ref="G22:G29" si="2">C22-E22</f>
+        <v>3.1499999999999966E-3</v>
       </c>
       <c r="H22" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F22,TRUE)</f>
-        <v>3.1410294546051994E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F22,TRUE)</f>
+        <v>3.1229802692106811E-3</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1410294546051994E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.1229802692106811E-3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3302,30 +3298,30 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <f ca="1">_xll.qlQuoteValue(B23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.265E-2</v>
+        <f>_xll.qlQuoteValue(B23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.2290000000000001E-2</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <f ca="1">_xll.qlQuoteValue(D23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.9779999999999999E-2</v>
+        <f>_xll.qlQuoteValue(D23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.9409999999999997E-2</v>
       </c>
       <c r="F23" s="21">
         <v>15</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.870000000000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.8800000000000041E-3</v>
       </c>
       <c r="H23" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F23,TRUE)</f>
-        <v>2.9103595473705789E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F23,TRUE)</f>
+        <v>2.9120352263416085E-3</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9103595473705789E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.9120352263416085E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3336,30 +3332,30 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <f ca="1">_xll.qlQuoteValue(B24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.4279999999999999E-2</v>
+        <f>_xll.qlQuoteValue(B24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.4080000000000001E-2</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f ca="1">_xll.qlQuoteValue(D24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.1790000000000004E-2</v>
+        <f>_xll.qlQuoteValue(D24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.1559999999999996E-2</v>
       </c>
       <c r="F24" s="21">
         <v>20</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4899999999999957E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.5200000000000049E-3</v>
       </c>
       <c r="H24" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F24,TRUE)</f>
-        <v>2.582904779949487E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F24,TRUE)</f>
+        <v>2.602492259022985E-3</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.582904779949487E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.602492259022985E-3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3370,30 +3366,30 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <f ca="1">_xll.qlQuoteValue(B25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.477E-2</v>
+        <f>_xll.qlQuoteValue(B25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.4680000000000001E-2</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <f ca="1">_xll.qlQuoteValue(D25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.2510000000000002E-2</v>
+        <f>_xll.qlQuoteValue(D25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.239E-2</v>
       </c>
       <c r="F25" s="21">
         <v>25</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2599999999999981E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.2900000000000004E-3</v>
       </c>
       <c r="H25" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F25,TRUE)</f>
-        <v>2.333082202496894E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F25,TRUE)</f>
+        <v>2.3605735760224953E-3</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.333082202496894E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.3605735760224953E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3404,30 +3400,30 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <f ca="1">_xll.qlQuoteValue(B26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.4840000000000001E-2</v>
+        <f>_xll.qlQuoteValue(B26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.4849999999999997E-2</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <f ca="1">_xll.qlQuoteValue(D26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.2750000000000003E-2</v>
+        <f>_xll.qlQuoteValue(D26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.2729999999999997E-2</v>
       </c>
       <c r="F26" s="21">
         <v>30</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0899999999999981E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.1200000000000004E-3</v>
       </c>
       <c r="H26" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F26,TRUE)</f>
-        <v>2.1415674990589669E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F26,TRUE)</f>
+        <v>2.1729073361477845E-3</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1415674990589669E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.1729073361477845E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3439,30 +3435,30 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <f ca="1">_xll.qlQuoteValue(B27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.5099999999999997E-2</v>
+        <f>_xll.qlQuoteValue(B27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.5179999999999998E-2</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <f ca="1">_xll.qlQuoteValue(D27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.3230000000000001E-2</v>
+        <f>_xll.qlQuoteValue(D27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.3280000000000002E-2</v>
       </c>
       <c r="F27" s="21">
         <v>40</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8699999999999967E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.8999999999999954E-3</v>
       </c>
       <c r="H27" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F27,TRUE)</f>
-        <v>1.8687832065027396E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F27,TRUE)</f>
+        <v>1.9039845691810262E-3</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8687832065027396E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.9039845691810262E-3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3474,30 +3470,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="1">
-        <f ca="1">_xll.qlQuoteValue(B28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.5239999999999999E-2</v>
+        <f>_xll.qlQuoteValue(B28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.5339999999999998E-2</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <f ca="1">_xll.qlQuoteValue(D28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.351E-2</v>
+        <f>_xll.qlQuoteValue(D28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.3579999999999997E-2</v>
       </c>
       <c r="F28" s="21">
         <v>50</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7299999999999989E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.7600000000000011E-3</v>
       </c>
       <c r="H28" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F28,TRUE)</f>
-        <v>1.6824634795535799E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F28,TRUE)</f>
+        <v>1.7201736154480178E-3</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6824634795535799E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.7201736154480178E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3509,30 +3505,30 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <f ca="1">_xll.qlQuoteValue(B29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.537E-2</v>
+        <f>_xll.qlQuoteValue(B29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.5470000000000003E-2</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <f ca="1">_xll.qlQuoteValue(D29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.3739999999999997E-2</v>
+        <f>_xll.qlQuoteValue(D29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="F29" s="21">
         <v>60</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.630000000000003E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.6600000000000018E-3</v>
       </c>
       <c r="H29" s="4">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F29,TRUE)</f>
-        <v>1.5456200061952717E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F29,TRUE)</f>
+        <v>1.5854904599366599E-3</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5456200061952717E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.5854904599366599E-3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3548,8 +3544,8 @@
         <v>125</v>
       </c>
       <c r="F33" s="2">
-        <f ca="1">_xll.qlAbcdInterpolationA(BasisExtrapolator)</f>
-        <v>1.5897551247778484E-3</v>
+        <f>_xll.qlAbcdInterpolationA(BasisExtrapolator)</f>
+        <v>1.5604451708381519E-3</v>
       </c>
       <c r="G33" s="27">
         <v>-1.1556684301587655E-3</v>
@@ -3560,8 +3556,8 @@
         <v>126</v>
       </c>
       <c r="F34" s="2">
-        <f ca="1">_xll.qlAbcdInterpolationB(BasisExtrapolator)</f>
-        <v>1.6057380635869786E-3</v>
+        <f>_xll.qlAbcdInterpolationB(BasisExtrapolator)</f>
+        <v>1.4081193309768126E-3</v>
       </c>
       <c r="G34" s="27">
         <v>2.5355454308524164E-3</v>
@@ -3572,8 +3568,8 @@
         <v>127</v>
       </c>
       <c r="F35" s="2">
-        <f ca="1">_xll.qlAbcdInterpolationC(BasisExtrapolator)</f>
-        <v>0.21601349050889829</v>
+        <f>_xll.qlAbcdInterpolationC(BasisExtrapolator)</f>
+        <v>0.20499551880607947</v>
       </c>
       <c r="G35" s="27">
         <v>0.35804596119753157</v>
@@ -3584,8 +3580,8 @@
         <v>128</v>
       </c>
       <c r="F36" s="2">
-        <f ca="1">_xll.qlAbcdInterpolationD(BasisExtrapolator)</f>
-        <v>4.2380716292136905E-4</v>
+        <f>_xll.qlAbcdInterpolationD(BasisExtrapolator)</f>
+        <v>5.3521679207399258E-4</v>
       </c>
       <c r="G36" s="27">
         <v>1.155670694872052E-3</v>
@@ -3613,9 +3609,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3697,8 +3693,8 @@
         <v>#N/A</v>
       </c>
       <c r="C5" s="1">
-        <f ca="1">_xll.qlQuoteValue(D5,Model!$E$11:$E$29)</f>
-        <v>2.7000000000000001E-3</v>
+        <f>_xll.qlQuoteValue(D5,Model!$E$11:$E$29)</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D5" s="24" t="str">
         <f>Currency&amp;E5&amp;"D"&amp;D$3</f>
@@ -3708,7 +3704,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="1" t="b">
-        <f t="shared" ref="F5:F44" ca="1" si="0">NOT(ISERROR(C5))</f>
+        <f t="shared" ref="F5:F44" si="0">NOT(ISERROR(C5))</f>
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3719,12 +3715,12 @@
         <v>EUROISDDSON</v>
       </c>
       <c r="I5" s="5">
-        <f ca="1">ROUND(IF($F5,$C5,$B5),5)*100</f>
-        <v>0.27</v>
+        <f>ROUND(IF($F5,$C5,$B5),5)*100</f>
+        <v>0.25</v>
       </c>
       <c r="J5" s="5">
-        <f ca="1">ROUND(IF($F5,$C5,$B5),5)*100</f>
-        <v>0.27</v>
+        <f>ROUND(IF($F5,$C5,$B5),5)*100</f>
+        <v>0.25</v>
       </c>
       <c r="K5" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H5,$I$4:$J$4,$I5:$J5,"SCOPE:SERVER"),"--")</f>
@@ -3743,7 +3739,7 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O5" s="5" t="e">
-        <f ca="1">M5-I5</f>
+        <f>M5-I5</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3753,8 +3749,8 @@
         <v>#N/A</v>
       </c>
       <c r="C6" s="1">
-        <f ca="1">_xll.qlQuoteValue(D6,Model!$E$11:$E$29)</f>
-        <v>2.7000000000000001E-3</v>
+        <f>_xll.qlQuoteValue(D6,Model!$E$11:$E$29)</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D6" s="24" t="str">
         <f>Currency&amp;E6&amp;"D"&amp;D$3</f>
@@ -3764,7 +3760,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3775,12 +3771,12 @@
         <v>EUROISDDSTN</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6:J37" ca="1" si="2">ROUND(IF($F6,$C6,$B6),5)*100</f>
-        <v>0.27</v>
+        <f t="shared" ref="I6:J37" si="2">ROUND(IF($F6,$C6,$B6),5)*100</f>
+        <v>0.25</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="K6" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H6,$I$4:$J$4,$I6:$J6,"SCOPE:SERVER"),"--")</f>
@@ -3799,7 +3795,7 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O6" s="5" t="e">
-        <f t="shared" ref="O6:O66" ca="1" si="3">M6-I6</f>
+        <f t="shared" ref="O6:O66" si="3">M6-I6</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3809,7 +3805,7 @@
         <v>#N/A</v>
       </c>
       <c r="C7" s="1">
-        <f ca="1">_xll.qlQuoteValue(D7,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D7,Model!$E$11:$E$29)</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D7" s="24" t="str">
@@ -3820,7 +3816,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3831,11 +3827,11 @@
         <v>EUROISDDSSN</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="K7" t="str">
@@ -3855,15 +3851,15 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O7" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <f ca="1">_xll.qlQuoteValue(D8,Model!$E$11:$E$29)</f>
-        <v>2.0900000000000003E-3</v>
+        <f>_xll.qlQuoteValue(D8,Model!$E$11:$E$29)</f>
+        <v>2.0700000000000002E-3</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8:D47" si="4">Currency&amp;D$4&amp;$E8&amp;D$3</f>
@@ -3873,7 +3869,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3884,12 +3880,12 @@
         <v>EUROISDDS1W</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20899999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.20699999999999999</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20899999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.20699999999999999</v>
       </c>
       <c r="K8" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H8,$I$4:$J$4,$I8:$J8,"SCOPE:SERVER"),"--")</f>
@@ -3901,22 +3897,22 @@
       </c>
       <c r="M8" s="5">
         <f>_xll.RtGet(K$4,$H8,$I$4)</f>
-        <v>0.20899999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="N8" s="5">
         <f>_xll.RtGet(L$4,$H8,$I$4)</f>
-        <v>0.20899999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <f ca="1">_xll.qlQuoteValue(D9,Model!$E$11:$E$29)</f>
-        <v>2E-3</v>
+        <f>_xll.qlQuoteValue(D9,Model!$E$11:$E$29)</f>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="4"/>
@@ -3926,7 +3922,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -3937,12 +3933,12 @@
         <v>EUROISDDS2W</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.22100000000000003</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.22100000000000003</v>
       </c>
       <c r="K9" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H9,$I$4:$J$4,$I9:$J9,"SCOPE:SERVER"),"--")</f>
@@ -3954,22 +3950,22 @@
       </c>
       <c r="M9" s="5">
         <f>_xll.RtGet(K$4,$H9,$I$4)</f>
-        <v>0.2</v>
+        <v>0.221</v>
       </c>
       <c r="N9" s="5">
         <f>_xll.RtGet(L$4,$H9,$I$4)</f>
-        <v>0.2</v>
+        <v>0.221</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <f ca="1">_xll.qlQuoteValue(D10,Model!$E$11:$E$29)</f>
-        <v>1.97E-3</v>
+        <f>_xll.qlQuoteValue(D10,Model!$E$11:$E$29)</f>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="4"/>
@@ -3979,7 +3975,7 @@
         <v>48</v>
       </c>
       <c r="F10" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -3990,12 +3986,12 @@
         <v>EUROISDDS3W</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19700000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.22100000000000003</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19700000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.22100000000000003</v>
       </c>
       <c r="K10" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H10,$I$4:$J$4,$I10:$J10,"SCOPE:SERVER"),"--")</f>
@@ -4007,22 +4003,22 @@
       </c>
       <c r="M10" s="5">
         <f>_xll.RtGet(K$4,$H10,$I$4)</f>
-        <v>0.19700000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="N10" s="5">
         <f>_xll.RtGet(L$4,$H10,$I$4)</f>
-        <v>0.19700000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <f ca="1">_xll.qlQuoteValue(D11,Model!$E$11:$E$29)</f>
-        <v>1.92E-3</v>
+        <f>_xll.qlQuoteValue(D11,Model!$E$11:$E$29)</f>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="4"/>
@@ -4032,7 +4028,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -4043,12 +4039,12 @@
         <v>EUROISDDS1M</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.192</v>
+        <f t="shared" si="2"/>
+        <v>0.21</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.192</v>
+        <f t="shared" si="2"/>
+        <v>0.21</v>
       </c>
       <c r="K11" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H11,$I$4:$J$4,$I11:$J11,"SCOPE:SERVER"),"--")</f>
@@ -4060,22 +4056,22 @@
       </c>
       <c r="M11" s="5">
         <f>_xll.RtGet(K$4,$H11,$I$4)</f>
-        <v>0.192</v>
+        <v>0.21</v>
       </c>
       <c r="N11" s="5">
         <f>_xll.RtGet(L$4,$H11,$I$4)</f>
-        <v>0.192</v>
+        <v>0.21</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <f ca="1">_xll.qlQuoteValue(D12,Model!$E$11:$E$29)</f>
-        <v>1.7699999999999999E-3</v>
+        <f>_xll.qlQuoteValue(D12,Model!$E$11:$E$29)</f>
+        <v>1.9599999999999999E-3</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="4"/>
@@ -4085,7 +4081,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -4096,12 +4092,12 @@
         <v>EUROISDDS2M</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17700000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.19600000000000001</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17700000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.19600000000000001</v>
       </c>
       <c r="K12" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H12,$I$4:$J$4,$I12:$J12,"SCOPE:SERVER"),"--")</f>
@@ -4113,22 +4109,22 @@
       </c>
       <c r="M12" s="5">
         <f>_xll.RtGet(K$4,$H12,$I$4)</f>
-        <v>0.17699999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="N12" s="5">
         <f>_xll.RtGet(L$4,$H12,$I$4)</f>
-        <v>0.17699999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <f ca="1">_xll.qlQuoteValue(D13,Model!$E$11:$E$29)</f>
-        <v>1.72E-3</v>
+        <f>_xll.qlQuoteValue(D13,Model!$E$11:$E$29)</f>
+        <v>1.8599999999999999E-3</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="4"/>
@@ -4138,7 +4134,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -4149,12 +4145,12 @@
         <v>EUROISDDS3M</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.186</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.186</v>
       </c>
       <c r="K13" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H13,$I$4:$J$4,$I13:$J13,"SCOPE:SERVER"),"--")</f>
@@ -4166,22 +4162,22 @@
       </c>
       <c r="M13" s="5">
         <f>_xll.RtGet(K$4,$H13,$I$4)</f>
-        <v>0.17199999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="N13" s="5">
         <f>_xll.RtGet(L$4,$H13,$I$4)</f>
-        <v>0.17199999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <f ca="1">_xll.qlQuoteValue(D14,Model!$E$11:$E$29)</f>
-        <v>1.6899999999999999E-3</v>
+        <f>_xll.qlQuoteValue(D14,Model!$E$11:$E$29)</f>
+        <v>1.7599999999999998E-3</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="4"/>
@@ -4191,7 +4187,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -4202,12 +4198,12 @@
         <v>EUROISDDS4M</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16900000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.17600000000000002</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16900000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.17600000000000002</v>
       </c>
       <c r="K14" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H14,$I$4:$J$4,$I14:$J14,"SCOPE:SERVER"),"--")</f>
@@ -4219,22 +4215,22 @@
       </c>
       <c r="M14" s="5">
         <f>_xll.RtGet(K$4,$H14,$I$4)</f>
-        <v>0.16900000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="N14" s="5">
         <f>_xll.RtGet(L$4,$H14,$I$4)</f>
-        <v>0.16900000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <f ca="1">_xll.qlQuoteValue(D15,Model!$E$11:$E$29)</f>
-        <v>1.6599999999999998E-3</v>
+        <f>_xll.qlQuoteValue(D15,Model!$E$11:$E$29)</f>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="4"/>
@@ -4244,7 +4240,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -4255,12 +4251,12 @@
         <v>EUROISDDS5M</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16600000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16600000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="K15" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H15,$I$4:$J$4,$I15:$J15,"SCOPE:SERVER"),"--")</f>
@@ -4272,22 +4268,22 @@
       </c>
       <c r="M15" s="5">
         <f>_xll.RtGet(K$4,$H15,$I$4)</f>
-        <v>0.16600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="N15" s="5">
         <f>_xll.RtGet(L$4,$H15,$I$4)</f>
-        <v>0.16600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <f ca="1">_xll.qlQuoteValue(D16,Model!$E$11:$E$29)</f>
-        <v>1.64E-3</v>
+        <f>_xll.qlQuoteValue(D16,Model!$E$11:$E$29)</f>
+        <v>1.65E-3</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="4"/>
@@ -4297,7 +4293,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -4308,12 +4304,12 @@
         <v>EUROISDDS6M</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16400000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16400000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K16" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H16,$I$4:$J$4,$I16:$J16,"SCOPE:SERVER"),"--")</f>
@@ -4325,22 +4321,22 @@
       </c>
       <c r="M16" s="5">
         <f>_xll.RtGet(K$4,$H16,$I$4)</f>
-        <v>0.16400000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="N16" s="5">
         <f>_xll.RtGet(L$4,$H16,$I$4)</f>
-        <v>0.16400000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <f ca="1">_xll.qlQuoteValue(D17,Model!$E$11:$E$29)</f>
-        <v>1.6100000000000001E-3</v>
+        <f>_xll.qlQuoteValue(D17,Model!$E$11:$E$29)</f>
+        <v>1.5900000000000001E-3</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="4"/>
@@ -4350,7 +4346,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -4361,12 +4357,12 @@
         <v>EUROISDDS7M</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.161</v>
+        <f t="shared" si="2"/>
+        <v>0.159</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.161</v>
+        <f t="shared" si="2"/>
+        <v>0.159</v>
       </c>
       <c r="K17" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H17,$I$4:$J$4,$I17:$J17,"SCOPE:SERVER"),"--")</f>
@@ -4378,22 +4374,22 @@
       </c>
       <c r="M17" s="5">
         <f>_xll.RtGet(K$4,$H17,$I$4)</f>
-        <v>0.161</v>
+        <v>0.159</v>
       </c>
       <c r="N17" s="5">
         <f>_xll.RtGet(L$4,$H17,$I$4)</f>
-        <v>0.161</v>
+        <v>0.159</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <f ca="1">_xll.qlQuoteValue(D18,Model!$E$11:$E$29)</f>
-        <v>1.5900000000000001E-3</v>
+        <f>_xll.qlQuoteValue(D18,Model!$E$11:$E$29)</f>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="4"/>
@@ -4403,7 +4399,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -4414,12 +4410,12 @@
         <v>EUROISDDS8M</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.159</v>
+        <f t="shared" si="2"/>
+        <v>0.155</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.159</v>
+        <f t="shared" si="2"/>
+        <v>0.155</v>
       </c>
       <c r="K18" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H18,$I$4:$J$4,$I18:$J18,"SCOPE:SERVER"),"--")</f>
@@ -4431,22 +4427,22 @@
       </c>
       <c r="M18" s="5">
         <f>_xll.RtGet(K$4,$H18,$I$4)</f>
-        <v>0.159</v>
+        <v>0.155</v>
       </c>
       <c r="N18" s="5">
         <f>_xll.RtGet(L$4,$H18,$I$4)</f>
-        <v>0.159</v>
+        <v>0.155</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <f ca="1">_xll.qlQuoteValue(D19,Model!$E$11:$E$29)</f>
-        <v>1.6000000000000001E-3</v>
+        <f>_xll.qlQuoteValue(D19,Model!$E$11:$E$29)</f>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="4"/>
@@ -4456,7 +4452,7 @@
         <v>57</v>
       </c>
       <c r="F19" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -4467,12 +4463,12 @@
         <v>EUROISDDS9M</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16</v>
+        <f t="shared" si="2"/>
+        <v>0.153</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16</v>
+        <f t="shared" si="2"/>
+        <v>0.153</v>
       </c>
       <c r="K19" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H19,$I$4:$J$4,$I19:$J19,"SCOPE:SERVER"),"--")</f>
@@ -4484,22 +4480,22 @@
       </c>
       <c r="M19" s="5">
         <f>_xll.RtGet(K$4,$H19,$I$4)</f>
-        <v>0.16</v>
+        <v>0.153</v>
       </c>
       <c r="N19" s="5">
         <f>_xll.RtGet(L$4,$H19,$I$4)</f>
-        <v>0.16</v>
+        <v>0.153</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <f ca="1">_xll.qlQuoteValue(D20,Model!$E$11:$E$29)</f>
-        <v>1.58E-3</v>
+        <f>_xll.qlQuoteValue(D20,Model!$E$11:$E$29)</f>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="4"/>
@@ -4509,7 +4505,7 @@
         <v>58</v>
       </c>
       <c r="F20" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -4520,12 +4516,12 @@
         <v>EUROISDDS10M</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.158</v>
+        <f t="shared" si="2"/>
+        <v>0.151</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.158</v>
+        <f t="shared" si="2"/>
+        <v>0.151</v>
       </c>
       <c r="K20" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H20,$I$4:$J$4,$I20:$J20,"SCOPE:SERVER"),"--")</f>
@@ -4537,22 +4533,22 @@
       </c>
       <c r="M20" s="5">
         <f>_xll.RtGet(K$4,$H20,$I$4)</f>
-        <v>0.158</v>
+        <v>0.151</v>
       </c>
       <c r="N20" s="5">
         <f>_xll.RtGet(L$4,$H20,$I$4)</f>
-        <v>0.158</v>
+        <v>0.151</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <f ca="1">_xll.qlQuoteValue(D21,Model!$E$11:$E$29)</f>
-        <v>1.58E-3</v>
+        <f>_xll.qlQuoteValue(D21,Model!$E$11:$E$29)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="4"/>
@@ -4562,7 +4558,7 @@
         <v>59</v>
       </c>
       <c r="F21" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4573,12 +4569,12 @@
         <v>EUROISDDS11M</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.158</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.158</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="K21" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H21,$I$4:$J$4,$I21:$J21,"SCOPE:SERVER"),"--")</f>
@@ -4590,14 +4586,14 @@
       </c>
       <c r="M21" s="5">
         <f>_xll.RtGet(K$4,$H21,$I$4)</f>
-        <v>0.158</v>
+        <v>0.15</v>
       </c>
       <c r="N21" s="5">
         <f>_xll.RtGet(L$4,$H21,$I$4)</f>
-        <v>0.158</v>
+        <v>0.15</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +4602,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A22)</f>
-        <v>1.5900000000000001E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A22)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="C22" s="1">
-        <f ca="1">_xll.qlQuoteValue(D22,Model!$E$11:$E$29)</f>
-        <v>1.5900000000000001E-3</v>
+        <f>_xll.qlQuoteValue(D22,Model!$E$11:$E$29)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="4"/>
@@ -4621,7 +4617,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -4632,12 +4628,12 @@
         <v>EUROISDDS1Y</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.159</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.159</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="K22" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H22,$I$4:$J$4,$I22:$J22,"SCOPE:SERVER"),"--")</f>
@@ -4649,35 +4645,35 @@
       </c>
       <c r="M22" s="5">
         <f>_xll.RtGet(K$4,$H22,$I$4)</f>
-        <v>0.159</v>
+        <v>0.15</v>
       </c>
       <c r="N22" s="5">
         <f>_xll.RtGet(L$4,$H22,$I$4)</f>
-        <v>0.159</v>
+        <v>0.15</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P22" t="str">
         <f>_xll.qlMakeOIS(,E22,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082a#0000</v>
+        <v>obj_00837#0001</v>
       </c>
       <c r="Q22" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P22,InterestRatesTrigger)</f>
-        <v>1.5900000000000334E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P22,InterestRatesTrigger)</f>
+        <v>1.4999999999670119E-3</v>
       </c>
       <c r="R22" s="31">
-        <f ca="1">Q22-C22</f>
-        <v>3.3393426912553537E-17</v>
+        <f>Q22-C22</f>
+        <v>-3.2988152140478455E-14</v>
       </c>
       <c r="S22" s="31">
-        <f ca="1">Q22-B22</f>
-        <v>3.3393426912553537E-17</v>
+        <f>Q22-B22</f>
+        <v>-3.2988152140478455E-14</v>
       </c>
       <c r="T22" s="31">
-        <f ca="1">Q22-I22/100</f>
-        <v>3.3393426912553537E-17</v>
+        <f>Q22-I22/100</f>
+        <v>-3.2988152140478455E-14</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -4685,11 +4681,11 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="B23" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A23)</f>
-        <v>1.6213320799642317E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A23)</f>
+        <v>1.5167052269070933E-3</v>
       </c>
       <c r="C23" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D23,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D23,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D23" t="str">
@@ -4700,7 +4696,7 @@
         <v>117</v>
       </c>
       <c r="F23" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4711,12 +4707,12 @@
         <v>EUROISDDS13M</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16199999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.152</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16199999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.152</v>
       </c>
       <c r="K23" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H23,$I$4:$J$4,$I23:$J23,"SCOPE:SERVER"),"--")</f>
@@ -4728,35 +4724,35 @@
       </c>
       <c r="M23" s="5">
         <f>_xll.RtGet(K$4,$H23,$I$4)</f>
-        <v>0.16200000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="N23" s="5">
         <f>_xll.RtGet(L$4,$H23,$I$4)</f>
-        <v>0.16200000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" t="str">
         <f>_xll.qlMakeOIS(,E23,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00813#0000</v>
+        <v>obj_00826#0001</v>
       </c>
       <c r="Q23" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P23,InterestRatesTrigger)</f>
-        <v>1.6049769055254302E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P23,InterestRatesTrigger)</f>
+        <v>1.5059740315085176E-3</v>
       </c>
       <c r="R23" s="31" t="e">
-        <f t="shared" ref="R23:R66" ca="1" si="5">Q23-C23</f>
+        <f t="shared" ref="R23:R66" si="5">Q23-C23</f>
         <v>#NUM!</v>
       </c>
       <c r="S23" s="31">
-        <f t="shared" ref="S23:S66" ca="1" si="6">Q23-B23</f>
-        <v>-1.6355174438801526E-5</v>
+        <f t="shared" ref="S23:S66" si="6">Q23-B23</f>
+        <v>-1.0731195398575727E-5</v>
       </c>
       <c r="T23" s="31">
-        <f t="shared" ref="T23:T66" ca="1" si="7">Q23-I23/100</f>
-        <v>-1.502309447456952E-5</v>
+        <f t="shared" ref="T23:T66" si="7">Q23-I23/100</f>
+        <v>-1.4025968491482299E-5</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -4764,11 +4760,11 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="B24" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A24)</f>
-        <v>1.6531677090208734E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A24)</f>
+        <v>1.5339333114264763E-3</v>
       </c>
       <c r="C24" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D24,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D24,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D24" t="str">
@@ -4779,7 +4775,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -4790,12 +4786,12 @@
         <v>EUROISDDS14M</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16500000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.153</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16500000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.153</v>
       </c>
       <c r="K24" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H24,$I$4:$J$4,$I24:$J24,"SCOPE:SERVER"),"--")</f>
@@ -4807,35 +4803,35 @@
       </c>
       <c r="M24" s="5">
         <f>_xll.RtGet(K$4,$H24,$I$4)</f>
-        <v>0.16500000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="N24" s="5">
         <f>_xll.RtGet(L$4,$H24,$I$4)</f>
-        <v>0.16500000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" t="str">
         <f>_xll.qlMakeOIS(,E24,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00814#0000</v>
+        <v>obj_0082f#0001</v>
       </c>
       <c r="Q24" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P24,InterestRatesTrigger)</f>
-        <v>1.6293540352573346E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P24,InterestRatesTrigger)</f>
+        <v>1.5160926063219262E-3</v>
       </c>
       <c r="R24" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S24" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.38136737635388E-5</v>
+        <f t="shared" si="6"/>
+        <v>-1.7840705104550138E-5</v>
       </c>
       <c r="T24" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-2.0645964742665437E-5</v>
+        <f t="shared" si="7"/>
+        <v>-1.3907393678073716E-5</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -4843,12 +4839,12 @@
         <v>1.25</v>
       </c>
       <c r="B25" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A25)</f>
-        <v>1.6860104362623346E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A25)</f>
+        <v>1.5522071111704391E-3</v>
       </c>
       <c r="C25" s="33">
-        <f ca="1">_xll.qlQuoteValue(D25,Model!$E$11:$E$29)</f>
-        <v>1.6599999999999998E-3</v>
+        <f>_xll.qlQuoteValue(D25,Model!$E$11:$E$29)</f>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="D25" s="34" t="str">
         <f t="shared" si="4"/>
@@ -4858,7 +4854,7 @@
         <v>113</v>
       </c>
       <c r="F25" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G25" s="33" t="s">
@@ -4869,12 +4865,12 @@
         <v>EUROISDDS15M</v>
       </c>
       <c r="I25" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16600000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.153</v>
       </c>
       <c r="J25" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16600000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.153</v>
       </c>
       <c r="K25" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H25,$I$4:$J$4,$I25:$J25,"SCOPE:SERVER"),"--")</f>
@@ -4886,35 +4882,35 @@
       </c>
       <c r="M25" s="35">
         <f>_xll.RtGet(K$4,$H25,$I$4)</f>
-        <v>0.16600000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="N25" s="35">
         <f>_xll.RtGet(L$4,$H25,$I$4)</f>
-        <v>0.16600000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="O25" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" t="str">
         <f>_xll.qlMakeOIS(,E25,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00830#0000</v>
+        <v>obj_0081b#0001</v>
       </c>
       <c r="Q25" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P25,InterestRatesTrigger)</f>
-        <v>1.6599999999999955E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P25,InterestRatesTrigger)</f>
+        <v>1.5299999999998867E-3</v>
       </c>
       <c r="R25" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-4.3368086899420177E-18</v>
+        <f t="shared" si="5"/>
+        <v>-1.1319070680748666E-16</v>
       </c>
       <c r="S25" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.601043626233911E-5</v>
+        <f t="shared" si="6"/>
+        <v>-2.2207111170552364E-5</v>
       </c>
       <c r="T25" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-4.5536491244391186E-18</v>
+        <f t="shared" si="7"/>
+        <v>-1.1319070680748666E-16</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -4922,11 +4918,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="B26" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A26)</f>
-        <v>1.7203638107810256E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A26)</f>
+        <v>1.5720494837512711E-3</v>
       </c>
       <c r="C26" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D26,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D26,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D26" t="str">
@@ -4937,7 +4933,7 @@
         <v>119</v>
       </c>
       <c r="F26" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4948,12 +4944,12 @@
         <v>EUROISDDS16M</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.157</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.157</v>
       </c>
       <c r="K26" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H26,$I$4:$J$4,$I26:$J26,"SCOPE:SERVER"),"--")</f>
@@ -4965,35 +4961,35 @@
       </c>
       <c r="M26" s="5">
         <f>_xll.RtGet(K$4,$H26,$I$4)</f>
-        <v>0.17199999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="N26" s="5">
         <f>_xll.RtGet(L$4,$H26,$I$4)</f>
-        <v>0.17199999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P26" t="str">
         <f>_xll.qlMakeOIS(,E26,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00816#0000</v>
+        <v>obj_0081e#0001</v>
       </c>
       <c r="Q26" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P26,InterestRatesTrigger)</f>
-        <v>1.691162312689097E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P26,InterestRatesTrigger)</f>
+        <v>1.5481927495271948E-3</v>
       </c>
       <c r="R26" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S26" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.9201498091928563E-5</v>
+        <f t="shared" si="6"/>
+        <v>-2.3856734224076337E-5</v>
       </c>
       <c r="T26" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-2.8837687310902943E-5</v>
+        <f t="shared" si="7"/>
+        <v>-2.1807250472805247E-5</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -5001,11 +4997,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="B27" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A27)</f>
-        <v>1.7567313816693559E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A27)</f>
+        <v>1.5939832867812624E-3</v>
       </c>
       <c r="C27" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D27,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D27,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D27" t="str">
@@ -5016,7 +5012,7 @@
         <v>120</v>
       </c>
       <c r="F27" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -5027,12 +5023,12 @@
         <v>EUROISDDS17M</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17600000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.159</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17600000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.159</v>
       </c>
       <c r="K27" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H27,$I$4:$J$4,$I27:$J27,"SCOPE:SERVER"),"--")</f>
@@ -5044,35 +5040,35 @@
       </c>
       <c r="M27" s="5">
         <f>_xll.RtGet(K$4,$H27,$I$4)</f>
-        <v>0.17599999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="N27" s="5">
         <f>_xll.RtGet(L$4,$H27,$I$4)</f>
-        <v>0.17599999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P27" t="str">
         <f>_xll.qlMakeOIS(,E27,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00819#0000</v>
+        <v>obj_00834#0001</v>
       </c>
       <c r="Q27" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P27,InterestRatesTrigger)</f>
-        <v>1.7283074214651621E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P27,InterestRatesTrigger)</f>
+        <v>1.5709525184370826E-3</v>
       </c>
       <c r="R27" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S27" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.8423960204193794E-5</v>
+        <f t="shared" si="6"/>
+        <v>-2.3030768344179785E-5</v>
       </c>
       <c r="T27" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-3.169257853483814E-5</v>
+        <f t="shared" si="7"/>
+        <v>-1.9047481562917482E-5</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -5080,12 +5076,12 @@
         <v>1.5</v>
       </c>
       <c r="B28" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A28)</f>
-        <v>1.7956166980197354E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A28)</f>
+        <v>1.6185313778727024E-3</v>
       </c>
       <c r="C28" s="33">
-        <f ca="1">_xll.qlQuoteValue(D28,Model!$E$11:$E$29)</f>
-        <v>1.7699999999999999E-3</v>
+        <f>_xll.qlQuoteValue(D28,Model!$E$11:$E$29)</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D28" s="34" t="str">
         <f t="shared" si="4"/>
@@ -5095,7 +5091,7 @@
         <v>114</v>
       </c>
       <c r="F28" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G28" s="33" t="s">
@@ -5106,12 +5102,12 @@
         <v>EUROISDDS18M</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17700000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.16</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17700000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.16</v>
       </c>
       <c r="K28" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H28,$I$4:$J$4,$I28:$J28,"SCOPE:SERVER"),"--")</f>
@@ -5123,35 +5119,35 @@
       </c>
       <c r="M28" s="35">
         <f>_xll.RtGet(K$4,$H28,$I$4)</f>
-        <v>0.17699999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="N28" s="35">
         <f>_xll.RtGet(L$4,$H28,$I$4)</f>
-        <v>0.17699999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="O28" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P28" t="str">
         <f>_xll.qlMakeOIS(,E28,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0083c#0000</v>
+        <v>obj_0083a#0001</v>
       </c>
       <c r="Q28" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P28,InterestRatesTrigger)</f>
-        <v>1.7699999999999888E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P28,InterestRatesTrigger)</f>
+        <v>1.5999999999999296E-3</v>
       </c>
       <c r="R28" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-1.1058862159352145E-17</v>
+        <f t="shared" si="5"/>
+        <v>-7.0473141211557788E-17</v>
       </c>
       <c r="S28" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.5616698019746611E-5</v>
+        <f t="shared" si="6"/>
+        <v>-1.8531377872772802E-5</v>
       </c>
       <c r="T28" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.1275702593849246E-17</v>
+        <f t="shared" si="7"/>
+        <v>-7.0473141211557788E-17</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -5159,11 +5155,11 @@
         <v>1.5833333333333335</v>
       </c>
       <c r="B29" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A29)</f>
-        <v>1.8375233089245743E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A29)</f>
+        <v>1.6462166146378814E-3</v>
       </c>
       <c r="C29" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D29,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D29,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D29" t="str">
@@ -5174,7 +5170,7 @@
         <v>121</v>
       </c>
       <c r="F29" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -5185,12 +5181,12 @@
         <v>EUROISDDS19M</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.184</v>
+        <f t="shared" si="2"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.184</v>
+        <f t="shared" si="2"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K29" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H29,$I$4:$J$4,$I29:$J29,"SCOPE:SERVER"),"--")</f>
@@ -5202,35 +5198,35 @@
       </c>
       <c r="M29" s="5">
         <f>_xll.RtGet(K$4,$H29,$I$4)</f>
-        <v>0.184</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="N29" s="5">
         <f>_xll.RtGet(L$4,$H29,$I$4)</f>
-        <v>0.184</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" t="str">
         <f>_xll.qlMakeOIS(,E29,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00823#0000</v>
+        <v>obj_0082e#0001</v>
       </c>
       <c r="Q29" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P29,InterestRatesTrigger)</f>
-        <v>1.8150158996942008E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P29,InterestRatesTrigger)</f>
+        <v>1.6314137737194025E-3</v>
       </c>
       <c r="R29" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S29" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.2507409230373499E-5</v>
+        <f t="shared" si="6"/>
+        <v>-1.4802840918478905E-5</v>
       </c>
       <c r="T29" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-2.4984100305799287E-5</v>
+        <f t="shared" si="7"/>
+        <v>-1.8586226280597464E-5</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -5238,11 +5234,11 @@
         <v>1.6666666666666665</v>
       </c>
       <c r="B30" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A30)</f>
-        <v>1.8829547634762818E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A30)</f>
+        <v>1.6775618546890888E-3</v>
       </c>
       <c r="C30" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D30,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D30,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D30" t="str">
@@ -5253,7 +5249,7 @@
         <v>122</v>
       </c>
       <c r="F30" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -5264,12 +5260,12 @@
         <v>EUROISDDS20M</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.188</v>
+        <f t="shared" si="2"/>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.188</v>
+        <f t="shared" si="2"/>
+        <v>0.16800000000000001</v>
       </c>
       <c r="K30" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H30,$I$4:$J$4,$I30:$J30,"SCOPE:SERVER"),"--")</f>
@@ -5281,35 +5277,35 @@
       </c>
       <c r="M30" s="5">
         <f>_xll.RtGet(K$4,$H30,$I$4)</f>
-        <v>0.188</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="N30" s="5">
         <f>_xll.RtGet(L$4,$H30,$I$4)</f>
-        <v>0.188</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" t="str">
         <f>_xll.qlMakeOIS(,E30,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081a#0000</v>
+        <v>obj_00815#0001</v>
       </c>
       <c r="Q30" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P30,InterestRatesTrigger)</f>
-        <v>1.8644707627992882E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P30,InterestRatesTrigger)</f>
+        <v>1.667919406365487E-3</v>
       </c>
       <c r="R30" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S30" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.8484000676993653E-5</v>
+        <f t="shared" si="6"/>
+        <v>-9.6424483236017943E-6</v>
       </c>
       <c r="T30" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.5529237200711784E-5</v>
+        <f t="shared" si="7"/>
+        <v>-1.2080593634513108E-5</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -5317,12 +5313,12 @@
         <v>1.75</v>
       </c>
       <c r="B31" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A31)</f>
-        <v>1.9324146107672685E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A31)</f>
+        <v>1.7130899556386146E-3</v>
       </c>
       <c r="C31" s="33">
-        <f ca="1">_xll.qlQuoteValue(D31,Model!$E$11:$E$29)</f>
-        <v>1.92E-3</v>
+        <f>_xll.qlQuoteValue(D31,Model!$E$11:$E$29)</f>
+        <v>1.7099999999999999E-3</v>
       </c>
       <c r="D31" s="34" t="str">
         <f t="shared" si="4"/>
@@ -5332,7 +5328,7 @@
         <v>115</v>
       </c>
       <c r="F31" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G31" s="33" t="s">
@@ -5343,12 +5339,12 @@
         <v>EUROISDDS21M</v>
       </c>
       <c r="I31" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.192</v>
+        <f t="shared" si="2"/>
+        <v>0.17099999999999999</v>
       </c>
       <c r="J31" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.192</v>
+        <f t="shared" si="2"/>
+        <v>0.17099999999999999</v>
       </c>
       <c r="K31" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H31,$I$4:$J$4,$I31:$J31,"SCOPE:SERVER"),"--")</f>
@@ -5360,35 +5356,35 @@
       </c>
       <c r="M31" s="35">
         <f>_xll.RtGet(K$4,$H31,$I$4)</f>
-        <v>0.192</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="N31" s="35">
         <f>_xll.RtGet(L$4,$H31,$I$4)</f>
-        <v>0.192</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="O31" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P31" t="str">
         <f>_xll.qlMakeOIS(,E31,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082c#0000</v>
+        <v>obj_00816#0001</v>
       </c>
       <c r="Q31" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P31,InterestRatesTrigger)</f>
-        <v>1.9199999999983978E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P31,InterestRatesTrigger)</f>
+        <v>1.7099999999993735E-3</v>
       </c>
       <c r="R31" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-1.6022339704990785E-15</v>
+        <f t="shared" si="5"/>
+        <v>-6.2645201526212446E-16</v>
       </c>
       <c r="S31" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.241461076887068E-5</v>
+        <f t="shared" si="6"/>
+        <v>-3.0899556392410907E-6</v>
       </c>
       <c r="T31" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.6022339704990785E-15</v>
+        <f t="shared" si="7"/>
+        <v>-6.2645201526212446E-16</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -5396,11 +5392,11 @@
         <v>1.8333333333333335</v>
       </c>
       <c r="B32" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A32)</f>
-        <v>1.9864063998899437E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A32)</f>
+        <v>1.7533237750987486E-3</v>
       </c>
       <c r="C32" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D32,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D32,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D32" t="str">
@@ -5411,7 +5407,7 @@
         <v>123</v>
       </c>
       <c r="F32" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -5422,12 +5418,12 @@
         <v>EUROISDDS22M</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19900000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.17500000000000002</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19900000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.17500000000000002</v>
       </c>
       <c r="K32" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H32,$I$4:$J$4,$I32:$J32,"SCOPE:SERVER"),"--")</f>
@@ -5439,35 +5435,35 @@
       </c>
       <c r="M32" s="5">
         <f>_xll.RtGet(K$4,$H32,$I$4)</f>
-        <v>0.19900000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N32" s="5">
         <f>_xll.RtGet(L$4,$H32,$I$4)</f>
-        <v>0.19900000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P32" t="str">
         <f>_xll.qlMakeOIS(,E32,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082f#0000</v>
+        <v>obj_00818#0001</v>
       </c>
       <c r="Q32" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P32,InterestRatesTrigger)</f>
-        <v>1.9799470782672778E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P32,InterestRatesTrigger)</f>
+        <v>1.7518237328568837E-3</v>
       </c>
       <c r="R32" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S32" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-6.4593216226658916E-6</v>
+        <f t="shared" si="6"/>
+        <v>-1.5000422418649361E-6</v>
       </c>
       <c r="T32" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.0052921732722243E-5</v>
+        <f t="shared" si="7"/>
+        <v>1.8237328568834407E-6</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -5475,11 +5471,11 @@
         <v>1.9166666666666665</v>
       </c>
       <c r="B33" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A33)</f>
-        <v>2.0454336799367173E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A33)</f>
+        <v>1.7987861706817805E-3</v>
       </c>
       <c r="C33" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D33,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D33,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D33" t="str">
@@ -5490,7 +5486,7 @@
         <v>124</v>
       </c>
       <c r="F33" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -5501,12 +5497,12 @@
         <v>EUROISDDS23M</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20500000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.18</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20500000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.18</v>
       </c>
       <c r="K33" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H33,$I$4:$J$4,$I33:$J33,"SCOPE:SERVER"),"--")</f>
@@ -5518,35 +5514,35 @@
       </c>
       <c r="M33" s="5">
         <f>_xll.RtGet(K$4,$H33,$I$4)</f>
-        <v>0.20499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="N33" s="5">
         <f>_xll.RtGet(L$4,$H33,$I$4)</f>
-        <v>0.20499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P33" t="str">
         <f>_xll.qlMakeOIS(,E33,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00825#0000</v>
+        <v>obj_0081d#0001</v>
       </c>
       <c r="Q33" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P33,InterestRatesTrigger)</f>
-        <v>2.0403661771989613E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P33,InterestRatesTrigger)</f>
+        <v>1.7957544447085743E-3</v>
       </c>
       <c r="R33" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S33" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-5.0675027377560314E-6</v>
+        <f t="shared" si="6"/>
+        <v>-3.031725973206157E-6</v>
       </c>
       <c r="T33" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-9.6338228010388847E-6</v>
+        <f t="shared" si="7"/>
+        <v>-4.2455552914256317E-6</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -5554,12 +5550,12 @@
         <v>2</v>
       </c>
       <c r="B34" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A34)</f>
-        <v>2.1099999999999999E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A34)</f>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="C34" s="33">
-        <f ca="1">_xll.qlQuoteValue(D34,Model!$E$11:$E$29)</f>
-        <v>2.1099999999999999E-3</v>
+        <f>_xll.qlQuoteValue(D34,Model!$E$11:$E$29)</f>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="D34" s="34" t="str">
         <f t="shared" si="4"/>
@@ -5569,7 +5565,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G34" s="33" t="s">
@@ -5580,12 +5576,12 @@
         <v>EUROISDDS2Y</v>
       </c>
       <c r="I34" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21099999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.185</v>
       </c>
       <c r="J34" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21099999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.185</v>
       </c>
       <c r="K34" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H34,$I$4:$J$4,$I34:$J34,"SCOPE:SERVER"),"--")</f>
@@ -5597,35 +5593,35 @@
       </c>
       <c r="M34" s="35">
         <f>_xll.RtGet(K$4,$H34,$I$4)</f>
-        <v>0.21099999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="N34" s="35">
         <f>_xll.RtGet(L$4,$H34,$I$4)</f>
-        <v>0.21099999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P34" t="str">
         <f>_xll.qlMakeOIS(,E34,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081c#0000</v>
+        <v>obj_00822#0001</v>
       </c>
       <c r="Q34" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P34,InterestRatesTrigger)</f>
-        <v>2.109999999991011E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P34,InterestRatesTrigger)</f>
+        <v>1.8499999999962698E-3</v>
       </c>
       <c r="R34" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-8.9889033716428202E-15</v>
+        <f t="shared" si="5"/>
+        <v>-3.7303059946536266E-15</v>
       </c>
       <c r="S34" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-8.9889033716428202E-15</v>
+        <f t="shared" si="6"/>
+        <v>-3.7303059946536266E-15</v>
       </c>
       <c r="T34" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-8.9889033716428202E-15</v>
+        <f t="shared" si="7"/>
+        <v>-3.7303059946536266E-15</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -5633,12 +5629,12 @@
         <v>3</v>
       </c>
       <c r="B35" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A35)</f>
-        <v>3.2799999999999995E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A35)</f>
+        <v>2.8700000000000002E-3</v>
       </c>
       <c r="C35" s="33">
-        <f ca="1">_xll.qlQuoteValue(D35,Model!$E$11:$E$29)</f>
-        <v>3.2799999999999995E-3</v>
+        <f>_xll.qlQuoteValue(D35,Model!$E$11:$E$29)</f>
+        <v>2.8700000000000002E-3</v>
       </c>
       <c r="D35" s="34" t="str">
         <f t="shared" si="4"/>
@@ -5648,7 +5644,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G35" s="33" t="s">
@@ -5659,12 +5655,12 @@
         <v>EUROISDDS3Y</v>
       </c>
       <c r="I35" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32800000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.28700000000000003</v>
       </c>
       <c r="J35" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32800000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.28700000000000003</v>
       </c>
       <c r="K35" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H35,$I$4:$J$4,$I35:$J35,"SCOPE:SERVER"),"--")</f>
@@ -5676,35 +5672,35 @@
       </c>
       <c r="M35" s="35">
         <f>_xll.RtGet(K$4,$H35,$I$4)</f>
-        <v>0.32800000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="N35" s="35">
         <f>_xll.RtGet(L$4,$H35,$I$4)</f>
-        <v>0.32800000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="O35" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P35" t="str">
         <f>_xll.qlMakeOIS(,E35,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081e#0000</v>
+        <v>obj_00817#0001</v>
       </c>
       <c r="Q35" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P35,InterestRatesTrigger)</f>
-        <v>3.2800000000000381E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P35,InterestRatesTrigger)</f>
+        <v>2.8700000000001255E-3</v>
       </c>
       <c r="R35" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.8597597340483958E-17</v>
+        <f t="shared" si="5"/>
+        <v>1.2533377113932431E-16</v>
       </c>
       <c r="S35" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.8597597340483958E-17</v>
+        <f t="shared" si="6"/>
+        <v>1.2533377113932431E-16</v>
       </c>
       <c r="T35" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.8163916471489756E-17</v>
+        <f t="shared" si="7"/>
+        <v>1.2533377113932431E-16</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -5712,12 +5708,12 @@
         <v>4</v>
       </c>
       <c r="B36" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A36)</f>
-        <v>4.8900000000000002E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A36)</f>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="C36" s="33">
-        <f ca="1">_xll.qlQuoteValue(D36,Model!$E$11:$E$29)</f>
-        <v>4.8900000000000002E-3</v>
+        <f>_xll.qlQuoteValue(D36,Model!$E$11:$E$29)</f>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="D36" s="34" t="str">
         <f t="shared" si="4"/>
@@ -5727,7 +5723,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G36" s="33" t="s">
@@ -5738,12 +5734,12 @@
         <v>EUROISDDS4Y</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.48900000000000005</v>
+        <f t="shared" si="2"/>
+        <v>0.43499999999999994</v>
       </c>
       <c r="J36" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.48900000000000005</v>
+        <f t="shared" si="2"/>
+        <v>0.43499999999999994</v>
       </c>
       <c r="K36" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H36,$I$4:$J$4,$I36:$J36,"SCOPE:SERVER"),"--")</f>
@@ -5755,35 +5751,35 @@
       </c>
       <c r="M36" s="35">
         <f>_xll.RtGet(K$4,$H36,$I$4)</f>
-        <v>0.48899999999999999</v>
+        <v>0.435</v>
       </c>
       <c r="N36" s="35">
         <f>_xll.RtGet(L$4,$H36,$I$4)</f>
-        <v>0.48899999999999999</v>
+        <v>0.435</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P36" t="str">
         <f>_xll.qlMakeOIS(,E36,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00828#0000</v>
+        <v>obj_00832#0001</v>
       </c>
       <c r="Q36" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P36,InterestRatesTrigger)</f>
-        <v>4.8900000000000532E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P36,InterestRatesTrigger)</f>
+        <v>4.3499999999999693E-3</v>
       </c>
       <c r="R36" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.2909066017292616E-17</v>
+        <f t="shared" si="5"/>
+        <v>-3.0357660829594124E-17</v>
       </c>
       <c r="S36" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2909066017292616E-17</v>
+        <f t="shared" si="6"/>
+        <v>-3.0357660829594124E-17</v>
       </c>
       <c r="T36" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2909066017292616E-17</v>
+        <f t="shared" si="7"/>
+        <v>-3.0357660829594124E-17</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -5791,12 +5787,12 @@
         <v>5</v>
       </c>
       <c r="B37" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A37)</f>
-        <v>6.6500000000000005E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A37)</f>
+        <v>6.0699999999999999E-3</v>
       </c>
       <c r="C37" s="33">
-        <f ca="1">_xll.qlQuoteValue(D37,Model!$E$11:$E$29)</f>
-        <v>6.6500000000000005E-3</v>
+        <f>_xll.qlQuoteValue(D37,Model!$E$11:$E$29)</f>
+        <v>6.0699999999999999E-3</v>
       </c>
       <c r="D37" s="34" t="str">
         <f t="shared" si="4"/>
@@ -5806,7 +5802,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G37" s="33" t="s">
@@ -5817,12 +5813,12 @@
         <v>EUROISDDS5Y</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.66499999999999992</v>
+        <f t="shared" si="2"/>
+        <v>0.60699999999999998</v>
       </c>
       <c r="J37" s="35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.66499999999999992</v>
+        <f t="shared" si="2"/>
+        <v>0.60699999999999998</v>
       </c>
       <c r="K37" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H37,$I$4:$J$4,$I37:$J37,"SCOPE:SERVER"),"--")</f>
@@ -5834,35 +5830,35 @@
       </c>
       <c r="M37" s="35">
         <f>_xll.RtGet(K$4,$H37,$I$4)</f>
-        <v>0.66500000000000004</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="N37" s="35">
         <f>_xll.RtGet(L$4,$H37,$I$4)</f>
-        <v>0.66500000000000004</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="O37" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P37" t="str">
         <f>_xll.qlMakeOIS(,E37,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00815#0000</v>
+        <v>obj_00830#0001</v>
       </c>
       <c r="Q37" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P37,InterestRatesTrigger)</f>
-        <v>6.6499999999999043E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P37,InterestRatesTrigger)</f>
+        <v>6.0699999999998091E-3</v>
       </c>
       <c r="R37" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-9.6277152916712794E-17</v>
+        <f t="shared" si="5"/>
+        <v>-1.9081958235744878E-16</v>
       </c>
       <c r="S37" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-9.6277152916712794E-17</v>
+        <f t="shared" si="6"/>
+        <v>-1.9081958235744878E-16</v>
       </c>
       <c r="T37" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-9.540979117872439E-17</v>
+        <f t="shared" si="7"/>
+        <v>-1.9081958235744878E-16</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -5870,12 +5866,12 @@
         <v>6</v>
       </c>
       <c r="B38" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A38)</f>
-        <v>8.4799999999999997E-3</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A38)</f>
+        <v>7.8899999999999994E-3</v>
       </c>
       <c r="C38" s="33">
-        <f ca="1">_xll.qlQuoteValue(D38,Model!$E$11:$E$29)</f>
-        <v>8.4799999999999997E-3</v>
+        <f>_xll.qlQuoteValue(D38,Model!$E$11:$E$29)</f>
+        <v>7.8899999999999994E-3</v>
       </c>
       <c r="D38" s="34" t="str">
         <f t="shared" si="4"/>
@@ -5885,7 +5881,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G38" s="33" t="s">
@@ -5896,12 +5892,12 @@
         <v>EUROISDDS6Y</v>
       </c>
       <c r="I38" s="35">
-        <f t="shared" ref="I38:J66" ca="1" si="8">ROUND(IF($F38,$C38,$B38),5)*100</f>
-        <v>0.84799999999999998</v>
+        <f t="shared" ref="I38:J66" si="8">ROUND(IF($F38,$C38,$B38),5)*100</f>
+        <v>0.78899999999999992</v>
       </c>
       <c r="J38" s="35">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.84799999999999998</v>
+        <f t="shared" si="8"/>
+        <v>0.78899999999999992</v>
       </c>
       <c r="K38" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H38,$I$4:$J$4,$I38:$J38,"SCOPE:SERVER"),"--")</f>
@@ -5913,35 +5909,35 @@
       </c>
       <c r="M38" s="35">
         <f>_xll.RtGet(K$4,$H38,$I$4)</f>
-        <v>0.84799999999999998</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="N38" s="35">
         <f>_xll.RtGet(L$4,$H38,$I$4)</f>
-        <v>0.84799999999999998</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="O38" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P38" t="str">
         <f>_xll.qlMakeOIS(,E38,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0083b#0000</v>
+        <v>obj_0082b#0001</v>
       </c>
       <c r="Q38" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P38,InterestRatesTrigger)</f>
-        <v>8.4799999999999424E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P38,InterestRatesTrigger)</f>
+        <v>7.8899999999998607E-3</v>
       </c>
       <c r="R38" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-5.7245874707234634E-17</v>
+        <f t="shared" si="5"/>
+        <v>-1.3877787807814457E-16</v>
       </c>
       <c r="S38" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-5.7245874707234634E-17</v>
+        <f t="shared" si="6"/>
+        <v>-1.3877787807814457E-16</v>
       </c>
       <c r="T38" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-5.7245874707234634E-17</v>
+        <f t="shared" si="7"/>
+        <v>-1.3877787807814457E-16</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -5949,12 +5945,12 @@
         <v>7</v>
       </c>
       <c r="B39" s="33">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A39)</f>
-        <v>1.0240000000000001E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A39)</f>
+        <v>9.6799999999999994E-3</v>
       </c>
       <c r="C39" s="33">
-        <f ca="1">_xll.qlQuoteValue(D39,Model!$E$11:$E$29)</f>
-        <v>1.0240000000000001E-2</v>
+        <f>_xll.qlQuoteValue(D39,Model!$E$11:$E$29)</f>
+        <v>9.6799999999999994E-3</v>
       </c>
       <c r="D39" s="34" t="str">
         <f t="shared" si="4"/>
@@ -5964,7 +5960,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G39" s="33" t="s">
@@ -5975,12 +5971,12 @@
         <v>EUROISDDS7Y</v>
       </c>
       <c r="I39" s="35">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.024</v>
+        <f t="shared" si="8"/>
+        <v>0.96799999999999997</v>
       </c>
       <c r="J39" s="35">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.024</v>
+        <f t="shared" si="8"/>
+        <v>0.96799999999999997</v>
       </c>
       <c r="K39" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H39,$I$4:$J$4,$I39:$J39,"SCOPE:SERVER"),"--")</f>
@@ -5992,35 +5988,35 @@
       </c>
       <c r="M39" s="35">
         <f>_xll.RtGet(K$4,$H39,$I$4)</f>
-        <v>1.024</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="N39" s="35">
         <f>_xll.RtGet(L$4,$H39,$I$4)</f>
-        <v>1.024</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="O39" s="35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P39" t="str">
         <f>_xll.qlMakeOIS(,E39,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00817#0000</v>
+        <v>obj_00814#0001</v>
       </c>
       <c r="Q39" s="36">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P39,InterestRatesTrigger)</f>
-        <v>1.0240000000003229E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P39,InterestRatesTrigger)</f>
+        <v>9.6799999999998797E-3</v>
       </c>
       <c r="R39" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.228320388792838E-15</v>
+        <f t="shared" si="5"/>
+        <v>-1.1969591984239969E-16</v>
       </c>
       <c r="S39" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.228320388792838E-15</v>
+        <f t="shared" si="6"/>
+        <v>-1.1969591984239969E-16</v>
       </c>
       <c r="T39" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.228320388792838E-15</v>
+        <f t="shared" si="7"/>
+        <v>-1.1969591984239969E-16</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -6028,12 +6024,12 @@
         <v>8</v>
       </c>
       <c r="B40" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A40)</f>
-        <v>1.1920000000000002E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A40)</f>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="C40" s="1">
-        <f ca="1">_xll.qlQuoteValue(D40,Model!$E$11:$E$29)</f>
-        <v>1.1920000000000002E-2</v>
+        <f>_xll.qlQuoteValue(D40,Model!$E$11:$E$29)</f>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="4"/>
@@ -6043,7 +6039,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -6054,12 +6050,12 @@
         <v>EUROISDDS8Y</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.1919999999999999</v>
+        <f t="shared" si="8"/>
+        <v>1.1379999999999999</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.1919999999999999</v>
+        <f t="shared" si="8"/>
+        <v>1.1379999999999999</v>
       </c>
       <c r="K40" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H40,$I$4:$J$4,$I40:$J40,"SCOPE:SERVER"),"--")</f>
@@ -6071,35 +6067,35 @@
       </c>
       <c r="M40" s="5">
         <f>_xll.RtGet(K$4,$H40,$I$4)</f>
-        <v>1.1919999999999999</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="N40" s="5">
         <f>_xll.RtGet(L$4,$H40,$I$4)</f>
-        <v>1.1919999999999999</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P40" t="str">
         <f>_xll.qlMakeOIS(,E40,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00837#0000</v>
+        <v>obj_00833#0001</v>
       </c>
       <c r="Q40" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P40,InterestRatesTrigger)</f>
-        <v>1.1920000000002805E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P40,InterestRatesTrigger)</f>
+        <v>1.1379999999999875E-2</v>
       </c>
       <c r="R40" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8033131371785203E-15</v>
+        <f t="shared" si="5"/>
+        <v>-1.2490009027033011E-16</v>
       </c>
       <c r="S40" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8033131371785203E-15</v>
+        <f t="shared" si="6"/>
+        <v>-1.2490009027033011E-16</v>
       </c>
       <c r="T40" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.8050478606544971E-15</v>
+        <f t="shared" si="7"/>
+        <v>-1.2490009027033011E-16</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -6107,12 +6103,12 @@
         <v>9</v>
       </c>
       <c r="B41" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A41)</f>
-        <v>1.345E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A41)</f>
+        <v>1.295E-2</v>
       </c>
       <c r="C41" s="1">
-        <f ca="1">_xll.qlQuoteValue(D41,Model!$E$11:$E$29)</f>
-        <v>1.345E-2</v>
+        <f>_xll.qlQuoteValue(D41,Model!$E$11:$E$29)</f>
+        <v>1.295E-2</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="4"/>
@@ -6122,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -6133,12 +6129,12 @@
         <v>EUROISDDS9Y</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.345</v>
+        <f t="shared" si="8"/>
+        <v>1.2949999999999999</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.345</v>
+        <f t="shared" si="8"/>
+        <v>1.2949999999999999</v>
       </c>
       <c r="K41" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H41,$I$4:$J$4,$I41:$J41,"SCOPE:SERVER"),"--")</f>
@@ -6150,35 +6146,35 @@
       </c>
       <c r="M41" s="5">
         <f>_xll.RtGet(K$4,$H41,$I$4)</f>
-        <v>1.345</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="N41" s="5">
         <f>_xll.RtGet(L$4,$H41,$I$4)</f>
-        <v>1.345</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P41" t="str">
         <f>_xll.qlMakeOIS(,E41,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081b#0000</v>
+        <v>obj_0082a#0001</v>
       </c>
       <c r="Q41" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P41,InterestRatesTrigger)</f>
-        <v>1.3449999999999993E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P41,InterestRatesTrigger)</f>
+        <v>1.2950000000000015E-2</v>
       </c>
       <c r="R41" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.5612511283791264E-17</v>
       </c>
       <c r="S41" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.5612511283791264E-17</v>
       </c>
       <c r="T41" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.5612511283791264E-17</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -6186,12 +6182,12 @@
         <v>10</v>
       </c>
       <c r="B42" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A42)</f>
-        <v>1.4849999999999999E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A42)</f>
+        <v>1.4380000000000002E-2</v>
       </c>
       <c r="C42" s="1">
-        <f ca="1">_xll.qlQuoteValue(D42,Model!$E$11:$E$29)</f>
-        <v>1.4849999999999999E-2</v>
+        <f>_xll.qlQuoteValue(D42,Model!$E$11:$E$29)</f>
+        <v>1.4380000000000002E-2</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="4"/>
@@ -6201,7 +6197,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6212,12 +6208,12 @@
         <v>EUROISDDS10Y</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.4850000000000001</v>
+        <f t="shared" si="8"/>
+        <v>1.4379999999999999</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.4850000000000001</v>
+        <f t="shared" si="8"/>
+        <v>1.4379999999999999</v>
       </c>
       <c r="K42" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H42,$I$4:$J$4,$I42:$J42,"SCOPE:SERVER"),"--")</f>
@@ -6229,35 +6225,35 @@
       </c>
       <c r="M42" s="5">
         <f>_xll.RtGet(K$4,$H42,$I$4)</f>
-        <v>1.4850000000000001</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="N42" s="5">
         <f>_xll.RtGet(L$4,$H42,$I$4)</f>
-        <v>1.4850000000000001</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P42" t="str">
         <f>_xll.qlMakeOIS(,E42,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00826#0000</v>
+        <v>obj_00813#0001</v>
       </c>
       <c r="Q42" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P42,InterestRatesTrigger)</f>
-        <v>1.4850000000000052E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P42,InterestRatesTrigger)</f>
+        <v>1.4380000000000025E-2</v>
       </c>
       <c r="R42" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.377642775528102E-17</v>
+        <f t="shared" si="5"/>
+        <v>2.2551405187698492E-17</v>
       </c>
       <c r="S42" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.377642775528102E-17</v>
+        <f t="shared" si="6"/>
+        <v>2.2551405187698492E-17</v>
       </c>
       <c r="T42" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2041704279304213E-17</v>
+        <f t="shared" si="7"/>
+        <v>2.6020852139652106E-17</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -6265,12 +6261,12 @@
         <v>11</v>
       </c>
       <c r="B43" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A43)</f>
-        <v>1.6129999999999999E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A43)</f>
+        <v>1.5670000000000003E-2</v>
       </c>
       <c r="C43" s="1">
-        <f ca="1">_xll.qlQuoteValue(D43,Model!$E$11:$E$29)</f>
-        <v>1.6129999999999999E-2</v>
+        <f>_xll.qlQuoteValue(D43,Model!$E$11:$E$29)</f>
+        <v>1.5670000000000003E-2</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="4"/>
@@ -6280,7 +6276,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -6291,12 +6287,12 @@
         <v>EUROISDDS11Y</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.6129999999999998</v>
+        <f t="shared" si="8"/>
+        <v>1.5669999999999999</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.6129999999999998</v>
+        <f t="shared" si="8"/>
+        <v>1.5669999999999999</v>
       </c>
       <c r="K43" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H43,$I$4:$J$4,$I43:$J43,"SCOPE:SERVER"),"--")</f>
@@ -6308,35 +6304,35 @@
       </c>
       <c r="M43" s="5">
         <f>_xll.RtGet(K$4,$H43,$I$4)</f>
-        <v>1.613</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="N43" s="5">
         <f>_xll.RtGet(L$4,$H43,$I$4)</f>
-        <v>1.613</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P43" t="str">
         <f>_xll.qlMakeOIS(,E43,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00839#0000</v>
+        <v>obj_00820#0001</v>
       </c>
       <c r="Q43" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P43,InterestRatesTrigger)</f>
-        <v>1.6129999999999978E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P43,InterestRatesTrigger)</f>
+        <v>1.5669999999999972E-2</v>
       </c>
       <c r="R43" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-3.1225022567582528E-17</v>
       </c>
       <c r="S43" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-3.1225022567582528E-17</v>
       </c>
       <c r="T43" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-2.7755575615628914E-17</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -6344,12 +6340,12 @@
         <v>12</v>
       </c>
       <c r="B44" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A44)</f>
-        <v>1.7250000000000001E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A44)</f>
+        <v>1.6810000000000002E-2</v>
       </c>
       <c r="C44" s="1">
-        <f ca="1">_xll.qlQuoteValue(D44,Model!$E$11:$E$29)</f>
-        <v>1.7250000000000001E-2</v>
+        <f>_xll.qlQuoteValue(D44,Model!$E$11:$E$29)</f>
+        <v>1.6810000000000002E-2</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="4"/>
@@ -6359,7 +6355,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -6370,12 +6366,12 @@
         <v>EUROISDDS12Y</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.7250000000000001</v>
+        <f t="shared" si="8"/>
+        <v>1.6809999999999998</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.7250000000000001</v>
+        <f t="shared" si="8"/>
+        <v>1.6809999999999998</v>
       </c>
       <c r="K44" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H44,$I$4:$J$4,$I44:$J44,"SCOPE:SERVER"),"--")</f>
@@ -6387,35 +6383,35 @@
       </c>
       <c r="M44" s="5">
         <f>_xll.RtGet(K$4,$H44,$I$4)</f>
-        <v>1.7250000000000001</v>
+        <v>1.681</v>
       </c>
       <c r="N44" s="5">
         <f>_xll.RtGet(L$4,$H44,$I$4)</f>
-        <v>1.7250000000000001</v>
+        <v>1.681</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P44" t="str">
         <f>_xll.qlMakeOIS(,E44,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082e#0000</v>
+        <v>obj_0082d#0001</v>
       </c>
       <c r="Q44" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P44,InterestRatesTrigger)</f>
-        <v>1.725000000000006E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P44,InterestRatesTrigger)</f>
+        <v>1.6810000000000071E-2</v>
       </c>
       <c r="R44" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.8980598183211441E-17</v>
+        <f t="shared" si="5"/>
+        <v>6.9388939039072284E-17</v>
       </c>
       <c r="S44" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.8980598183211441E-17</v>
+        <f t="shared" si="6"/>
+        <v>6.9388939039072284E-17</v>
       </c>
       <c r="T44" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.8980598183211441E-17</v>
+        <f t="shared" si="7"/>
+        <v>7.2858385991025898E-17</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -6423,11 +6419,11 @@
         <v>13</v>
       </c>
       <c r="B45" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A45)</f>
-        <v>1.8226131614356402E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A45)</f>
+        <v>1.7809005353901071E-2</v>
       </c>
       <c r="C45" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D45,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D45,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D45" t="str">
@@ -6438,7 +6434,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="1" t="b">
-        <f t="shared" ref="F45:F66" ca="1" si="9">NOT(ISERROR(C45))</f>
+        <f t="shared" ref="F45:F66" si="9">NOT(ISERROR(C45))</f>
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6449,12 +6445,12 @@
         <v>EUROISDDS13Y</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.823</v>
+        <f t="shared" si="8"/>
+        <v>1.7809999999999999</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.823</v>
+        <f t="shared" si="8"/>
+        <v>1.7809999999999999</v>
       </c>
       <c r="K45" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H45,$I$4:$J$4,$I45:$J45,"SCOPE:SERVER"),"--")</f>
@@ -6466,35 +6462,35 @@
       </c>
       <c r="M45" s="5">
         <f>_xll.RtGet(K$4,$H45,$I$4)</f>
-        <v>1.823</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="N45" s="5">
         <f>_xll.RtGet(L$4,$H45,$I$4)</f>
-        <v>1.823</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P45" t="str">
         <f>_xll.qlMakeOIS(,E45,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00822#0000</v>
+        <v>obj_00824#0001</v>
       </c>
       <c r="Q45" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P45,InterestRatesTrigger)</f>
-        <v>1.8220644578181851E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P45,InterestRatesTrigger)</f>
+        <v>1.7815729158945769E-2</v>
       </c>
       <c r="R45" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S45" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-5.4870361745514018E-6</v>
+        <f t="shared" si="6"/>
+        <v>6.7238050446977171E-6</v>
       </c>
       <c r="T45" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-9.3554218181489401E-6</v>
+        <f t="shared" si="7"/>
+        <v>5.7291589457691972E-6</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -6502,11 +6498,11 @@
         <v>14</v>
       </c>
       <c r="B46" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A46)</f>
-        <v>1.9068308490209539E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A46)</f>
+        <v>1.8674033113873671E-2</v>
       </c>
       <c r="C46" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D46,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D46,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D46" t="str">
@@ -6517,7 +6513,7 @@
         <v>61</v>
       </c>
       <c r="F46" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -6528,12 +6524,12 @@
         <v>EUROISDDS14Y</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.907</v>
+        <f t="shared" si="8"/>
+        <v>1.867</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.907</v>
+        <f t="shared" si="8"/>
+        <v>1.867</v>
       </c>
       <c r="K46" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H46,$I$4:$J$4,$I46:$J46,"SCOPE:SERVER"),"--")</f>
@@ -6545,35 +6541,35 @@
       </c>
       <c r="M46" s="5">
         <f>_xll.RtGet(K$4,$H46,$I$4)</f>
-        <v>1.907</v>
+        <v>1.867</v>
       </c>
       <c r="N46" s="5">
         <f>_xll.RtGet(L$4,$H46,$I$4)</f>
-        <v>1.907</v>
+        <v>1.867</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P46" t="str">
         <f>_xll.qlMakeOIS(,E46,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00835#0000</v>
+        <v>obj_00828#0001</v>
       </c>
       <c r="Q46" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P46,InterestRatesTrigger)</f>
-        <v>1.9067597082447492E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P46,InterestRatesTrigger)</f>
+        <v>1.8678075216833387E-2</v>
       </c>
       <c r="R46" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S46" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-7.1140776204681178E-7</v>
+        <f t="shared" si="6"/>
+        <v>4.0421029597163816E-6</v>
       </c>
       <c r="T46" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-2.402917552508238E-6</v>
+        <f t="shared" si="7"/>
+        <v>8.0752168333877994E-6</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -6581,12 +6577,12 @@
         <v>15</v>
       </c>
       <c r="B47" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A47)</f>
-        <v>1.9779999999999999E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A47)</f>
+        <v>1.9409999999999997E-2</v>
       </c>
       <c r="C47" s="1">
-        <f ca="1">_xll.qlQuoteValue(D47,Model!$E$11:$E$29)</f>
-        <v>1.9779999999999999E-2</v>
+        <f>_xll.qlQuoteValue(D47,Model!$E$11:$E$29)</f>
+        <v>1.9409999999999997E-2</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="4"/>
@@ -6596,7 +6592,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -6607,12 +6603,12 @@
         <v>EUROISDDS15Y</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.978</v>
+        <f t="shared" si="8"/>
+        <v>1.9410000000000001</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.978</v>
+        <f t="shared" si="8"/>
+        <v>1.9410000000000001</v>
       </c>
       <c r="K47" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H47,$I$4:$J$4,$I47:$J47,"SCOPE:SERVER"),"--")</f>
@@ -6624,35 +6620,35 @@
       </c>
       <c r="M47" s="5">
         <f>_xll.RtGet(K$4,$H47,$I$4)</f>
-        <v>1.978</v>
+        <v>1.9410000000000001</v>
       </c>
       <c r="N47" s="5">
         <f>_xll.RtGet(L$4,$H47,$I$4)</f>
-        <v>1.978</v>
+        <v>1.9410000000000001</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P47" t="str">
         <f>_xll.qlMakeOIS(,E47,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00821#0000</v>
+        <v>obj_0081a#0001</v>
       </c>
       <c r="Q47" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P47,InterestRatesTrigger)</f>
-        <v>1.9779999999997477E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P47,InterestRatesTrigger)</f>
+        <v>1.9409999999997523E-2</v>
       </c>
       <c r="R47" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-2.5222879340702775E-15</v>
+        <f t="shared" si="5"/>
+        <v>-2.4737156767429269E-15</v>
       </c>
       <c r="S47" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.5222879340702775E-15</v>
+        <f t="shared" si="6"/>
+        <v>-2.4737156767429269E-15</v>
       </c>
       <c r="T47" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-2.5222879340702775E-15</v>
+        <f t="shared" si="7"/>
+        <v>-2.4771851236948805E-15</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -6660,11 +6656,11 @@
         <v>16</v>
       </c>
       <c r="B48" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A48)</f>
-        <v>2.0366974675420899E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A48)</f>
+        <v>2.0023694680155742E-2</v>
       </c>
       <c r="C48" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D48,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D48,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D48" t="str">
@@ -6675,7 +6671,7 @@
         <v>62</v>
       </c>
       <c r="F48" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -6686,12 +6682,12 @@
         <v>EUROISDDS16Y</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.0369999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.0019999999999998</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.0369999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.0019999999999998</v>
       </c>
       <c r="K48" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H48,$I$4:$J$4,$I48:$J48,"SCOPE:SERVER"),"--")</f>
@@ -6703,35 +6699,35 @@
       </c>
       <c r="M48" s="5">
         <f>_xll.RtGet(K$4,$H48,$I$4)</f>
-        <v>2.0369999999999999</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="N48" s="5">
         <f>_xll.RtGet(L$4,$H48,$I$4)</f>
-        <v>2.0369999999999999</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P48" t="str">
         <f>_xll.qlMakeOIS(,E48,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0083d#0000</v>
+        <v>obj_00810#0001</v>
       </c>
       <c r="Q48" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P48,InterestRatesTrigger)</f>
-        <v>2.0360730439691378E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P48,InterestRatesTrigger)</f>
+        <v>2.0015653973576984E-2</v>
       </c>
       <c r="R48" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S48" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-6.2442357295217077E-6</v>
+        <f t="shared" si="6"/>
+        <v>-8.0407065787581333E-6</v>
       </c>
       <c r="T48" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-9.269560308621666E-6</v>
+        <f t="shared" si="7"/>
+        <v>-4.3460264230119061E-6</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -6739,11 +6735,11 @@
         <v>17</v>
       </c>
       <c r="B49" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A49)</f>
-        <v>2.0844197685175529E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A49)</f>
+        <v>2.0529393613390519E-2</v>
       </c>
       <c r="C49" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D49,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D49,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D49" t="str">
@@ -6754,7 +6750,7 @@
         <v>63</v>
       </c>
       <c r="F49" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -6765,12 +6761,12 @@
         <v>EUROISDDS17Y</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.0840000000000001</v>
+        <f t="shared" si="8"/>
+        <v>2.0529999999999999</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.0840000000000001</v>
+        <f t="shared" si="8"/>
+        <v>2.0529999999999999</v>
       </c>
       <c r="K49" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H49,$I$4:$J$4,$I49:$J49,"SCOPE:SERVER"),"--")</f>
@@ -6782,35 +6778,35 @@
       </c>
       <c r="M49" s="5">
         <f>_xll.RtGet(K$4,$H49,$I$4)</f>
-        <v>2.0840000000000001</v>
+        <v>2.0529999999999999</v>
       </c>
       <c r="N49" s="5">
         <f>_xll.RtGet(L$4,$H49,$I$4)</f>
-        <v>2.0840000000000001</v>
+        <v>2.0529999999999999</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P49" t="str">
         <f>_xll.qlMakeOIS(,E49,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082b#0000</v>
+        <v>obj_00838#0001</v>
       </c>
       <c r="Q49" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P49,InterestRatesTrigger)</f>
-        <v>2.0832395476547066E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P49,InterestRatesTrigger)</f>
+        <v>2.0515833374660356E-2</v>
       </c>
       <c r="R49" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S49" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.1802208628463456E-5</v>
+        <f t="shared" si="6"/>
+        <v>-1.3560238730163376E-5</v>
       </c>
       <c r="T49" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-7.604523452935108E-6</v>
+        <f t="shared" si="7"/>
+        <v>-1.4166625339644134E-5</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -6818,11 +6814,11 @@
         <v>18</v>
       </c>
       <c r="B50" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A50)</f>
-        <v>2.1228933357219704E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A50)</f>
+        <v>2.0943245206547424E-2</v>
       </c>
       <c r="C50" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D50,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D50,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D50" t="str">
@@ -6833,7 +6829,7 @@
         <v>64</v>
       </c>
       <c r="F50" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -6844,12 +6840,12 @@
         <v>EUROISDDS18Y</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1229999999999998</v>
+        <f t="shared" si="8"/>
+        <v>2.0939999999999999</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1229999999999998</v>
+        <f t="shared" si="8"/>
+        <v>2.0939999999999999</v>
       </c>
       <c r="K50" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H50,$I$4:$J$4,$I50:$J50,"SCOPE:SERVER"),"--")</f>
@@ -6861,35 +6857,35 @@
       </c>
       <c r="M50" s="5">
         <f>_xll.RtGet(K$4,$H50,$I$4)</f>
-        <v>2.1230000000000002</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="N50" s="5">
         <f>_xll.RtGet(L$4,$H50,$I$4)</f>
-        <v>2.1230000000000002</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P50" t="str">
         <f>_xll.qlMakeOIS(,E50,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00818#0000</v>
+        <v>obj_00831#0001</v>
       </c>
       <c r="Q50" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P50,InterestRatesTrigger)</f>
-        <v>2.1218931685337249E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P50,InterestRatesTrigger)</f>
+        <v>2.0933289908350486E-2</v>
       </c>
       <c r="R50" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S50" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.0001671882454988E-5</v>
+        <f t="shared" si="6"/>
+        <v>-9.9552981969383558E-6</v>
       </c>
       <c r="T50" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.1068314662750212E-5</v>
+        <f t="shared" si="7"/>
+        <v>-6.7100916495144158E-6</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
@@ -6897,11 +6893,11 @@
         <v>19</v>
       </c>
       <c r="B51" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A51)</f>
-        <v>2.1538446019509255E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A51)</f>
+        <v>2.1281397866469553E-2</v>
       </c>
       <c r="C51" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D51,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D51,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D51" t="str">
@@ -6912,7 +6908,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -6923,12 +6919,12 @@
         <v>EUROISDDS19Y</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1539999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.1280000000000001</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1539999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.1280000000000001</v>
       </c>
       <c r="K51" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H51,$I$4:$J$4,$I51:$J51,"SCOPE:SERVER"),"--")</f>
@@ -6940,35 +6936,35 @@
       </c>
       <c r="M51" s="5">
         <f>_xll.RtGet(K$4,$H51,$I$4)</f>
-        <v>2.1539999999999999</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="N51" s="5">
         <f>_xll.RtGet(L$4,$H51,$I$4)</f>
-        <v>2.1539999999999999</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P51" t="str">
         <f>_xll.qlMakeOIS(,E51,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00820#0000</v>
+        <v>obj_0080f#0001</v>
       </c>
       <c r="Q51" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P51,InterestRatesTrigger)</f>
-        <v>2.1532276359219268E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P51,InterestRatesTrigger)</f>
+        <v>2.1275418697936085E-2</v>
       </c>
       <c r="R51" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S51" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-6.1696602899861952E-6</v>
+        <f t="shared" si="6"/>
+        <v>-5.9791685334681377E-6</v>
       </c>
       <c r="T51" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-7.7236407807317053E-6</v>
+        <f t="shared" si="7"/>
+        <v>-4.5813020639155766E-6</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -6976,12 +6972,12 @@
         <v>20</v>
       </c>
       <c r="B52" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A52)</f>
-        <v>2.1790000000000004E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A52)</f>
+        <v>2.1559999999999996E-2</v>
       </c>
       <c r="C52" s="1">
-        <f ca="1">_xll.qlQuoteValue(D52,Model!$E$11:$E$29)</f>
-        <v>2.1790000000000004E-2</v>
+        <f>_xll.qlQuoteValue(D52,Model!$E$11:$E$29)</f>
+        <v>2.1559999999999996E-2</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="11"/>
@@ -6991,7 +6987,7 @@
         <v>16</v>
       </c>
       <c r="F52" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -7002,12 +6998,12 @@
         <v>EUROISDDS20Y</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1789999999999998</v>
+        <f t="shared" si="8"/>
+        <v>2.1560000000000001</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1789999999999998</v>
+        <f t="shared" si="8"/>
+        <v>2.1560000000000001</v>
       </c>
       <c r="K52" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H52,$I$4:$J$4,$I52:$J52,"SCOPE:SERVER"),"--")</f>
@@ -7019,35 +7015,35 @@
       </c>
       <c r="M52" s="5">
         <f>_xll.RtGet(K$4,$H52,$I$4)</f>
-        <v>2.1789999999999998</v>
+        <v>2.1560000000000001</v>
       </c>
       <c r="N52" s="5">
         <f>_xll.RtGet(L$4,$H52,$I$4)</f>
-        <v>2.1789999999999998</v>
+        <v>2.1560000000000001</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P52" t="str">
         <f>_xll.qlMakeOIS(,E52,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082d#0000</v>
+        <v>obj_0082c#0001</v>
       </c>
       <c r="Q52" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P52,InterestRatesTrigger)</f>
-        <v>2.1789999999992562E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P52,InterestRatesTrigger)</f>
+        <v>2.1559999999992627E-2</v>
       </c>
       <c r="R52" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-7.4419637119405024E-15</v>
+        <f t="shared" si="5"/>
+        <v>-7.3691053259494765E-15</v>
       </c>
       <c r="S52" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-7.4419637119405024E-15</v>
+        <f t="shared" si="6"/>
+        <v>-7.3691053259494765E-15</v>
       </c>
       <c r="T52" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-7.4350248180365952E-15</v>
+        <f t="shared" si="7"/>
+        <v>-7.3760442198533838E-15</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -7055,11 +7051,11 @@
         <v>21</v>
       </c>
       <c r="B53" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A53)</f>
-        <v>2.1998678497416369E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A53)</f>
+        <v>2.1793320437891568E-2</v>
       </c>
       <c r="C53" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D53,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D53,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D53" t="str">
@@ -7070,7 +7066,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -7081,12 +7077,12 @@
         <v>EUROISDDS21Y</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1999999999999997</v>
+        <f t="shared" si="8"/>
+        <v>2.1789999999999998</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1999999999999997</v>
+        <f t="shared" si="8"/>
+        <v>2.1789999999999998</v>
       </c>
       <c r="K53" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H53,$I$4:$J$4,$I53:$J53,"SCOPE:SERVER"),"--")</f>
@@ -7098,35 +7094,35 @@
       </c>
       <c r="M53" s="5">
         <f>_xll.RtGet(K$4,$H53,$I$4)</f>
-        <v>2.2000000000000002</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="N53" s="5">
         <f>_xll.RtGet(L$4,$H53,$I$4)</f>
-        <v>2.2000000000000002</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P53" t="str">
         <f>_xll.qlMakeOIS(,E53,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00834#0000</v>
+        <v>obj_00812#0001</v>
       </c>
       <c r="Q53" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P53,InterestRatesTrigger)</f>
-        <v>2.2001506837634233E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P53,InterestRatesTrigger)</f>
+        <v>2.1795019566403614E-2</v>
       </c>
       <c r="R53" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S53" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8283402178641559E-6</v>
+        <f t="shared" si="6"/>
+        <v>1.6991285120455946E-6</v>
       </c>
       <c r="T53" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.5068376342346201E-6</v>
+        <f t="shared" si="7"/>
+        <v>5.0195664036169207E-6</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -7134,11 +7130,11 @@
         <v>22</v>
       </c>
       <c r="B54" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A54)</f>
-        <v>2.2170840193557157E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A54)</f>
+        <v>2.1988109706535957E-2</v>
       </c>
       <c r="C54" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D54,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D54,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D54" t="str">
@@ -7149,7 +7145,7 @@
         <v>67</v>
       </c>
       <c r="F54" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -7160,12 +7156,12 @@
         <v>EUROISDDS22Y</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2170000000000001</v>
+        <f t="shared" si="8"/>
+        <v>2.1989999999999998</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2170000000000001</v>
+        <f t="shared" si="8"/>
+        <v>2.1989999999999998</v>
       </c>
       <c r="K54" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H54,$I$4:$J$4,$I54:$J54,"SCOPE:SERVER"),"--")</f>
@@ -7177,35 +7173,35 @@
       </c>
       <c r="M54" s="5">
         <f>_xll.RtGet(K$4,$H54,$I$4)</f>
-        <v>2.2170000000000001</v>
+        <v>2.1989999999999998</v>
       </c>
       <c r="N54" s="5">
         <f>_xll.RtGet(L$4,$H54,$I$4)</f>
-        <v>2.2170000000000001</v>
+        <v>2.1989999999999998</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P54" t="str">
         <f>_xll.qlMakeOIS(,E54,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00812#0000</v>
+        <v>obj_00823#0001</v>
       </c>
       <c r="Q54" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P54,InterestRatesTrigger)</f>
-        <v>2.2174498685555707E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P54,InterestRatesTrigger)</f>
+        <v>2.1990351598946786E-2</v>
       </c>
       <c r="R54" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S54" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.6584919985496733E-6</v>
+        <f t="shared" si="6"/>
+        <v>2.2418924108293103E-6</v>
       </c>
       <c r="T54" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.498685555704568E-6</v>
+        <f t="shared" si="7"/>
+        <v>3.5159894678712944E-7</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -7213,11 +7209,11 @@
         <v>23</v>
       </c>
       <c r="B55" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A55)</f>
-        <v>2.231066264098976E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A55)</f>
+        <v>2.2149238756234556E-2</v>
       </c>
       <c r="C55" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D55,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D55,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D55" t="str">
@@ -7228,7 +7224,7 @@
         <v>68</v>
       </c>
       <c r="F55" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -7239,12 +7235,12 @@
         <v>EUROISDDS23Y</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2309999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2149999999999999</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2309999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2149999999999999</v>
       </c>
       <c r="K55" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H55,$I$4:$J$4,$I55:$J55,"SCOPE:SERVER"),"--")</f>
@@ -7256,35 +7252,35 @@
       </c>
       <c r="M55" s="5">
         <f>_xll.RtGet(K$4,$H55,$I$4)</f>
-        <v>2.2309999999999999</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="N55" s="5">
         <f>_xll.RtGet(L$4,$H55,$I$4)</f>
-        <v>2.2309999999999999</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P55" t="str">
         <f>_xll.qlMakeOIS(,E55,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00836#0000</v>
+        <v>obj_0081f#0001</v>
       </c>
       <c r="Q55" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P55,InterestRatesTrigger)</f>
-        <v>2.2314744684067935E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P55,InterestRatesTrigger)</f>
+        <v>2.2150752152011299E-2</v>
       </c>
       <c r="R55" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S55" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.0820430781754458E-6</v>
+        <f t="shared" si="6"/>
+        <v>1.5133957767428374E-6</v>
       </c>
       <c r="T55" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.744684067935212E-6</v>
+        <f t="shared" si="7"/>
+        <v>7.5215201129907872E-7</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -7292,11 +7288,11 @@
         <v>24</v>
       </c>
       <c r="B56" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A56)</f>
-        <v>2.2422323392281576E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A56)</f>
+        <v>2.2281578537288772E-2</v>
       </c>
       <c r="C56" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D56,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D56,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D56" t="str">
@@ -7307,7 +7303,7 @@
         <v>69</v>
       </c>
       <c r="F56" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -7318,12 +7314,12 @@
         <v>EUROISDDS24Y</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.242</v>
+        <f t="shared" si="8"/>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.242</v>
+        <f t="shared" si="8"/>
+        <v>2.2280000000000002</v>
       </c>
       <c r="K56" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H56,$I$4:$J$4,$I56:$J56,"SCOPE:SERVER"),"--")</f>
@@ -7335,35 +7331,35 @@
       </c>
       <c r="M56" s="5">
         <f>_xll.RtGet(K$4,$H56,$I$4)</f>
-        <v>2.242</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="N56" s="5">
         <f>_xll.RtGet(L$4,$H56,$I$4)</f>
-        <v>2.242</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P56" t="str">
         <f>_xll.qlMakeOIS(,E56,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00832#0000</v>
+        <v>obj_0081c#0001</v>
       </c>
       <c r="Q56" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P56,InterestRatesTrigger)</f>
-        <v>2.2424477731046159E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P56,InterestRatesTrigger)</f>
+        <v>2.2282970437992204E-2</v>
       </c>
       <c r="R56" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S56" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.1543387645830969E-6</v>
+        <f t="shared" si="6"/>
+        <v>1.3919007034318698E-6</v>
       </c>
       <c r="T56" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.4777310461603659E-6</v>
+        <f t="shared" si="7"/>
+        <v>2.9704379922029789E-6</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -7371,12 +7367,12 @@
         <v>25</v>
       </c>
       <c r="B57" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A57)</f>
-        <v>2.2510000000000002E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A57)</f>
+        <v>2.239E-2</v>
       </c>
       <c r="C57" s="1">
-        <f ca="1">_xll.qlQuoteValue(D57,Model!$E$11:$E$29)</f>
-        <v>2.2510000000000002E-2</v>
+        <f>_xll.qlQuoteValue(D57,Model!$E$11:$E$29)</f>
+        <v>2.239E-2</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="11"/>
@@ -7386,7 +7382,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -7397,12 +7393,12 @@
         <v>EUROISDDS25Y</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2509999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2389999999999999</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2509999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2389999999999999</v>
       </c>
       <c r="K57" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H57,$I$4:$J$4,$I57:$J57,"SCOPE:SERVER"),"--")</f>
@@ -7414,35 +7410,35 @@
       </c>
       <c r="M57" s="5">
         <f>_xll.RtGet(K$4,$H57,$I$4)</f>
-        <v>2.2509999999999999</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="N57" s="5">
         <f>_xll.RtGet(L$4,$H57,$I$4)</f>
-        <v>2.2509999999999999</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P57" t="str">
         <f>_xll.qlMakeOIS(,E57,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081d#0000</v>
+        <v>obj_00839#0001</v>
       </c>
       <c r="Q57" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P57,InterestRatesTrigger)</f>
-        <v>2.2510000000037843E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P57,InterestRatesTrigger)</f>
+        <v>2.2390000000037536E-2</v>
       </c>
       <c r="R57" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.784125790495807E-14</v>
+        <f t="shared" si="5"/>
+        <v>3.7535946573186152E-14</v>
       </c>
       <c r="S57" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.784125790495807E-14</v>
+        <f t="shared" si="6"/>
+        <v>3.7535946573186152E-14</v>
       </c>
       <c r="T57" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.7844727351910024E-14</v>
+        <f t="shared" si="7"/>
+        <v>3.7535946573186152E-14</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -7450,11 +7446,11 @@
         <v>26</v>
       </c>
       <c r="B58" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A58)</f>
-        <v>2.2577991334913634E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A58)</f>
+        <v>2.2479263568277962E-2</v>
       </c>
       <c r="C58" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D58,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D58,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D58" t="str">
@@ -7465,7 +7461,7 @@
         <v>70</v>
       </c>
       <c r="F58" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -7476,12 +7472,12 @@
         <v>EUROISDDS26Y</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.258</v>
+        <f t="shared" si="8"/>
+        <v>2.2480000000000002</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.258</v>
+        <f t="shared" si="8"/>
+        <v>2.2480000000000002</v>
       </c>
       <c r="K58" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H58,$I$4:$J$4,$I58:$J58,"SCOPE:SERVER"),"--")</f>
@@ -7493,35 +7489,35 @@
       </c>
       <c r="M58" s="5">
         <f>_xll.RtGet(K$4,$H58,$I$4)</f>
-        <v>2.258</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="N58" s="5">
         <f>_xll.RtGet(L$4,$H58,$I$4)</f>
-        <v>2.258</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P58" t="str">
         <f>_xll.qlMakeOIS(,E58,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00827#0000</v>
+        <v>obj_00829#0001</v>
       </c>
       <c r="Q58" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P58,InterestRatesTrigger)</f>
-        <v>2.2575323982543024E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P58,InterestRatesTrigger)</f>
+        <v>2.2476758821379478E-2</v>
       </c>
       <c r="R58" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S58" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.6673523706097213E-6</v>
+        <f t="shared" si="6"/>
+        <v>-2.5047468984844279E-6</v>
       </c>
       <c r="T58" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-4.6760174569754342E-6</v>
+        <f t="shared" si="7"/>
+        <v>-3.2411786205256699E-6</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
@@ -7529,11 +7525,11 @@
         <v>27</v>
       </c>
       <c r="B59" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A59)</f>
-        <v>2.2631081540595861E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A59)</f>
+        <v>2.2553687560465639E-2</v>
       </c>
       <c r="C59" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D59,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D59,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D59" t="str">
@@ -7544,7 +7540,7 @@
         <v>71</v>
       </c>
       <c r="F59" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -7555,12 +7551,12 @@
         <v>EUROISDDS27Y</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2629999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2549999999999999</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2629999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2549999999999999</v>
       </c>
       <c r="K59" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H59,$I$4:$J$4,$I59:$J59,"SCOPE:SERVER"),"--")</f>
@@ -7572,35 +7568,35 @@
       </c>
       <c r="M59" s="5">
         <f>_xll.RtGet(K$4,$H59,$I$4)</f>
-        <v>2.2629999999999999</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="N59" s="5">
         <f>_xll.RtGet(L$4,$H59,$I$4)</f>
-        <v>2.2629999999999999</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P59" t="str">
         <f>_xll.qlMakeOIS(,E59,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0083a#0000</v>
+        <v>obj_00821#0001</v>
       </c>
       <c r="Q59" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P59,InterestRatesTrigger)</f>
-        <v>2.2626197132408883E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P59,InterestRatesTrigger)</f>
+        <v>2.2549424617068801E-2</v>
       </c>
       <c r="R59" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S59" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-4.8844081869774125E-6</v>
+        <f t="shared" si="6"/>
+        <v>-4.2629433968377484E-6</v>
       </c>
       <c r="T59" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-3.8028675911142007E-6</v>
+        <f t="shared" si="7"/>
+        <v>-5.7538293119982487E-7</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -7608,11 +7604,11 @@
         <v>28</v>
       </c>
       <c r="B60" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A60)</f>
-        <v>2.2674176078821273E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A60)</f>
+        <v>2.2617479768514338E-2</v>
       </c>
       <c r="C60" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D60,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D60,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D60" t="str">
@@ -7623,7 +7619,7 @@
         <v>72</v>
       </c>
       <c r="F60" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -7634,12 +7630,12 @@
         <v>EUROISDDS28Y</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2669999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.262</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2669999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.262</v>
       </c>
       <c r="K60" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H60,$I$4:$J$4,$I60:$J60,"SCOPE:SERVER"),"--")</f>
@@ -7651,35 +7647,35 @@
       </c>
       <c r="M60" s="5">
         <f>_xll.RtGet(K$4,$H60,$I$4)</f>
-        <v>2.2669999999999999</v>
+        <v>2.262</v>
       </c>
       <c r="N60" s="5">
         <f>_xll.RtGet(L$4,$H60,$I$4)</f>
-        <v>2.2669999999999999</v>
+        <v>2.262</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P60" t="str">
         <f>_xll.qlMakeOIS(,E60,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00811#0000</v>
+        <v>obj_00819#0001</v>
       </c>
       <c r="Q60" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P60,InterestRatesTrigger)</f>
-        <v>2.2669466532356373E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P60,InterestRatesTrigger)</f>
+        <v>2.2612962115178579E-2</v>
       </c>
       <c r="R60" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S60" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-4.7095464648996832E-6</v>
+        <f t="shared" si="6"/>
+        <v>-4.5176533357595139E-6</v>
       </c>
       <c r="T60" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-5.3346764362569021E-7</v>
+        <f t="shared" si="7"/>
+        <v>-7.0378848214223966E-6</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -7687,11 +7683,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A61)</f>
-        <v>2.2712180411364458E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A61)</f>
+        <v>2.2674847984375357E-2</v>
       </c>
       <c r="C61" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D61,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D61,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D61" t="str">
@@ -7702,7 +7698,7 @@
         <v>73</v>
       </c>
       <c r="F61" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -7713,12 +7709,12 @@
         <v>EUROISDDS29Y</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2709999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2669999999999999</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2709999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2669999999999999</v>
       </c>
       <c r="K61" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H61,$I$4:$J$4,$I61:$J61,"SCOPE:SERVER"),"--")</f>
@@ -7730,35 +7726,35 @@
       </c>
       <c r="M61" s="5">
         <f>_xll.RtGet(K$4,$H61,$I$4)</f>
-        <v>2.2709999999999999</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="N61" s="5">
         <f>_xll.RtGet(L$4,$H61,$I$4)</f>
-        <v>2.2709999999999999</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P61" t="str">
         <f>_xll.qlMakeOIS(,E61,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00824#0000</v>
+        <v>obj_00811#0001</v>
       </c>
       <c r="Q61" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P61,InterestRatesTrigger)</f>
-        <v>2.2708977967211195E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P61,InterestRatesTrigger)</f>
+        <v>2.2671791614204313E-2</v>
       </c>
       <c r="R61" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S61" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-3.2024441532635395E-6</v>
+        <f t="shared" si="6"/>
+        <v>-3.0563701710444036E-6</v>
       </c>
       <c r="T61" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.0220327888027514E-6</v>
+        <f t="shared" si="7"/>
+        <v>1.7916142043133965E-6</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
@@ -7766,12 +7762,12 @@
         <v>30</v>
       </c>
       <c r="B62" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A62)</f>
-        <v>2.2750000000000003E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A62)</f>
+        <v>2.2729999999999997E-2</v>
       </c>
       <c r="C62" s="1">
-        <f ca="1">_xll.qlQuoteValue(D62,Model!$E$11:$E$29)</f>
-        <v>2.2750000000000003E-2</v>
+        <f>_xll.qlQuoteValue(D62,Model!$E$11:$E$29)</f>
+        <v>2.2729999999999997E-2</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="11"/>
@@ -7781,7 +7777,7 @@
         <v>18</v>
       </c>
       <c r="F62" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -7792,12 +7788,12 @@
         <v>EUROISDDS30Y</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2749999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2730000000000001</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2749999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2730000000000001</v>
       </c>
       <c r="K62" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H62,$I$4:$J$4,$I62:$J62,"SCOPE:SERVER"),"--")</f>
@@ -7809,35 +7805,35 @@
       </c>
       <c r="M62" s="5">
         <f>_xll.RtGet(K$4,$H62,$I$4)</f>
-        <v>2.2749999999999999</v>
+        <v>2.2730000000000001</v>
       </c>
       <c r="N62" s="5">
         <f>_xll.RtGet(L$4,$H62,$I$4)</f>
-        <v>2.2749999999999999</v>
+        <v>2.2730000000000001</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P62" t="str">
         <f>_xll.qlMakeOIS(,E62,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00829#0000</v>
+        <v>obj_00835#0001</v>
       </c>
       <c r="Q62" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P62,InterestRatesTrigger)</f>
-        <v>2.2749999999952114E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P62,InterestRatesTrigger)</f>
+        <v>2.272999999995225E-2</v>
       </c>
       <c r="R62" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>-4.7888776277815737E-14</v>
+        <f t="shared" si="5"/>
+        <v>-4.7746528952785638E-14</v>
       </c>
       <c r="S62" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>-4.7888776277815737E-14</v>
+        <f t="shared" si="6"/>
+        <v>-4.7746528952785638E-14</v>
       </c>
       <c r="T62" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>-4.7885306830863783E-14</v>
+        <f t="shared" si="7"/>
+        <v>-4.7749998399737592E-14</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -7845,11 +7841,11 @@
         <v>35</v>
       </c>
       <c r="B63" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A63)</f>
-        <v>2.2987113376443147E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A63)</f>
+        <v>2.3019121871306596E-2</v>
       </c>
       <c r="C63" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D63,Model!$E$11:$E$29)</f>
+        <f>_xll.qlQuoteValue(D63,Model!$E$11:$E$29)</f>
         <v>#NUM!</v>
       </c>
       <c r="D63" t="str">
@@ -7860,7 +7856,7 @@
         <v>22</v>
       </c>
       <c r="F63" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -7871,12 +7867,12 @@
         <v>EUROISDDS35Y</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2989999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.302</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2989999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.302</v>
       </c>
       <c r="K63" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H63,$I$4:$J$4,$I63:$J63,"SCOPE:SERVER"),"--")</f>
@@ -7888,35 +7884,35 @@
       </c>
       <c r="M63" s="5">
         <f>_xll.RtGet(K$4,$H63,$I$4)</f>
-        <v>2.2989999999999999</v>
+        <v>2.302</v>
       </c>
       <c r="N63" s="5">
         <f>_xll.RtGet(L$4,$H63,$I$4)</f>
-        <v>2.2989999999999999</v>
+        <v>2.302</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P63" t="str">
         <f>_xll.qlMakeOIS(,E63,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081f#0000</v>
+        <v>obj_0083b#0001</v>
       </c>
       <c r="Q63" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P63,InterestRatesTrigger)</f>
-        <v>2.2999290281980656E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P63,InterestRatesTrigger)</f>
+        <v>2.3028973648478009E-2</v>
       </c>
       <c r="R63" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="S63" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.217690553750872E-5</v>
+        <f t="shared" si="6"/>
+        <v>9.8517771714122515E-6</v>
       </c>
       <c r="T63" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.2902819806561787E-6</v>
+        <f t="shared" si="7"/>
+        <v>8.9736484780097991E-6</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -7924,12 +7920,12 @@
         <v>40</v>
       </c>
       <c r="B64" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A64)</f>
-        <v>2.3230000000000001E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A64)</f>
+        <v>2.3280000000000002E-2</v>
       </c>
       <c r="C64" s="1">
-        <f ca="1">_xll.qlQuoteValue(D64,Model!$E$11:$E$29)</f>
-        <v>2.3230000000000001E-2</v>
+        <f>_xll.qlQuoteValue(D64,Model!$E$11:$E$29)</f>
+        <v>2.3280000000000002E-2</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="11"/>
@@ -7939,7 +7935,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -7950,12 +7946,12 @@
         <v>EUROISDDS40Y</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.323</v>
+        <f t="shared" si="8"/>
+        <v>2.3279999999999998</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.323</v>
+        <f t="shared" si="8"/>
+        <v>2.3279999999999998</v>
       </c>
       <c r="K64" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H64,$I$4:$J$4,$I64:$J64,"SCOPE:SERVER"),"--")</f>
@@ -7967,35 +7963,35 @@
       </c>
       <c r="M64" s="5">
         <f>_xll.RtGet(K$4,$H64,$I$4)</f>
-        <v>2.323</v>
+        <v>2.3279999999999998</v>
       </c>
       <c r="N64" s="5">
         <f>_xll.RtGet(L$4,$H64,$I$4)</f>
-        <v>2.323</v>
+        <v>2.3279999999999998</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P64" t="str">
         <f>_xll.qlMakeOIS(,E64,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00833#0000</v>
+        <v>obj_00827#0001</v>
       </c>
       <c r="Q64" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P64,InterestRatesTrigger)</f>
-        <v>2.3230000000025348E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P64,InterestRatesTrigger)</f>
+        <v>2.328000000002579E-2</v>
       </c>
       <c r="R64" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.5347779430973105E-14</v>
+        <f t="shared" si="5"/>
+        <v>2.5788399193871214E-14</v>
       </c>
       <c r="S64" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.5347779430973105E-14</v>
+        <f t="shared" si="6"/>
+        <v>2.5788399193871214E-14</v>
       </c>
       <c r="T64" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5347779430973105E-14</v>
+        <f t="shared" si="7"/>
+        <v>2.5791868640823168E-14</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -8003,12 +7999,12 @@
         <v>50</v>
       </c>
       <c r="B65" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A65)</f>
-        <v>2.351E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A65)</f>
+        <v>2.3579999999999997E-2</v>
       </c>
       <c r="C65" s="1">
-        <f ca="1">_xll.qlQuoteValue(D65,Model!$E$11:$E$29)</f>
-        <v>2.351E-2</v>
+        <f>_xll.qlQuoteValue(D65,Model!$E$11:$E$29)</f>
+        <v>2.3579999999999997E-2</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="11"/>
@@ -8018,7 +8014,7 @@
         <v>24</v>
       </c>
       <c r="F65" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -8029,12 +8025,12 @@
         <v>EUROISDDS50Y</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.351</v>
+        <f t="shared" si="8"/>
+        <v>2.3580000000000001</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.351</v>
+        <f t="shared" si="8"/>
+        <v>2.3580000000000001</v>
       </c>
       <c r="K65" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H65,$I$4:$J$4,$I65:$J65,"SCOPE:SERVER"),"--")</f>
@@ -8046,35 +8042,35 @@
       </c>
       <c r="M65" s="5">
         <f>_xll.RtGet(K$4,$H65,$I$4)</f>
-        <v>2.351</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="N65" s="5">
         <f>_xll.RtGet(L$4,$H65,$I$4)</f>
-        <v>2.351</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P65" t="str">
         <f>_xll.qlMakeOIS(,E65,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00838#0000</v>
+        <v>obj_00836#0001</v>
       </c>
       <c r="Q65" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P65,InterestRatesTrigger)</f>
-        <v>2.3510000000018839E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P65,InterestRatesTrigger)</f>
+        <v>2.3580000000018902E-2</v>
       </c>
       <c r="R65" s="31">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.8839096949108125E-14</v>
+        <f t="shared" si="5"/>
+        <v>1.8905016441195244E-14</v>
       </c>
       <c r="S65" s="31">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.8839096949108125E-14</v>
+        <f t="shared" si="6"/>
+        <v>1.8905016441195244E-14</v>
       </c>
       <c r="T65" s="31">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.8839096949108125E-14</v>
+        <f t="shared" si="7"/>
+        <v>1.890154699424329E-14</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -8082,12 +8078,12 @@
         <v>60</v>
       </c>
       <c r="B66" s="1">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A66)</f>
-        <v>2.3739999999999997E-2</v>
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A66)</f>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="C66" s="1">
-        <f ca="1">_xll.qlQuoteValue(D66,Model!$E$11:$E$29)</f>
-        <v>2.3739999999999997E-2</v>
+        <f>_xll.qlQuoteValue(D66,Model!$E$11:$E$29)</f>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="11"/>
@@ -8097,7 +8093,7 @@
         <v>25</v>
       </c>
       <c r="F66" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -8108,12 +8104,12 @@
         <v>EUROISDDS60Y</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.3740000000000001</v>
+        <f t="shared" si="8"/>
+        <v>2.3810000000000002</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.3740000000000001</v>
+        <f t="shared" si="8"/>
+        <v>2.3810000000000002</v>
       </c>
       <c r="K66" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H66,$I$4:$J$4,$I66:$J66,"SCOPE:SERVER"),"--")</f>
@@ -8125,34 +8121,34 @@
       </c>
       <c r="M66" s="5">
         <f>_xll.RtGet(K$4,$H66,$I$4)</f>
-        <v>2.3740000000000001</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="N66" s="5">
         <f>_xll.RtGet(L$4,$H66,$I$4)</f>
-        <v>2.3740000000000001</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="O66" s="5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P66" t="str">
         <f>_xll.qlMakeOIS(,E66,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00831#0000</v>
+        <v>obj_00825#0001</v>
       </c>
       <c r="Q66" s="31">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P66,InterestRatesTrigger)</f>
-        <v>2.3740000000000011E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(P66,InterestRatesTrigger)</f>
+        <v>2.3810000000000005E-2</v>
       </c>
       <c r="R66" s="31">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S66" s="31">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T66" s="31">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/QuantLibXL/Data2/XLS/EUR_MxContributorOIS.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_MxContributorOIS.xlsx
@@ -825,229 +825,229 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.153</v>
+        <v>-7.4999999999999997E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS15M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M25" s="3"/>
       </tp>
       <tp>
-        <v>0.153</v>
+        <v>-7.3999999999999996E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS14M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M24" s="3"/>
       </tp>
       <tp>
-        <v>0.159</v>
+        <v>-7.2999999999999995E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS17M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M27" s="3"/>
       </tp>
       <tp>
-        <v>0.157</v>
+        <v>-7.2999999999999995E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS16M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M26" s="3"/>
       </tp>
       <tp>
-        <v>0.15</v>
+        <v>-7.3999999999999996E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS11M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M21" s="3"/>
       </tp>
       <tp>
-        <v>0.151</v>
+        <v>-7.3999999999999996E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS10M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M20" s="3"/>
       </tp>
       <tp>
-        <v>0.152</v>
+        <v>-7.4999999999999997E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS13M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M23" s="3"/>
       </tp>
       <tp>
-        <v>0.16500000000000001</v>
+        <v>-7.0999999999999994E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS19M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M29" s="3"/>
       </tp>
       <tp>
-        <v>0.16</v>
+        <v>-7.2999999999999995E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS18M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M28" s="3"/>
       </tp>
       <tp>
-        <v>0.17100000000000001</v>
+        <v>-6.9000000000000006E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS21M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M31" s="3"/>
       </tp>
       <tp>
-        <v>0.16800000000000001</v>
+        <v>-7.0000000000000007E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS20M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M30" s="3"/>
       </tp>
       <tp>
-        <v>0.18</v>
+        <v>-6.5000000000000002E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS23M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M33" s="3"/>
       </tp>
       <tp>
-        <v>0.17499999999999999</v>
+        <v>-6.7000000000000004E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS22M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M32" s="3"/>
       </tp>
       <tp>
-        <v>2.3279999999999998</v>
+        <v>1.87</v>
         <stp/>
         <stp>_x000C_EUROISDDS40Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M64" s="3"/>
       </tp>
       <tp>
-        <v>2.3580000000000001</v>
+        <v>1.91</v>
         <stp/>
         <stp>_x000C_EUROISDDS50Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M65" s="3"/>
       </tp>
       <tp>
-        <v>2.3809999999999998</v>
+        <v>1.9330000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS60Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M66" s="3"/>
       </tp>
       <tp>
-        <v>1.9410000000000001</v>
+        <v>1.35</v>
         <stp/>
         <stp>_x000C_EUROISDDS15Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M47" s="3"/>
       </tp>
       <tp>
-        <v>1.867</v>
+        <v>1.2789999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS14Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M46" s="3"/>
       </tp>
       <tp>
-        <v>2.0529999999999999</v>
+        <v>1.466</v>
         <stp/>
         <stp>_x000C_EUROISDDS17Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M49" s="3"/>
       </tp>
       <tp>
-        <v>2.0019999999999998</v>
+        <v>1.4119999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS16Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M48" s="3"/>
       </tp>
       <tp>
-        <v>1.5669999999999999</v>
+        <v>1.0029999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS11Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M43" s="3"/>
       </tp>
       <tp>
-        <v>1.4379999999999999</v>
+        <v>0.88600000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS10Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M42" s="3"/>
       </tp>
       <tp>
-        <v>1.7809999999999999</v>
+        <v>1.1970000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS13Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M45" s="3"/>
       </tp>
       <tp>
-        <v>1.681</v>
+        <v>1.1060000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS12Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M44" s="3"/>
       </tp>
       <tp>
-        <v>2.1280000000000001</v>
+        <v>1.554</v>
         <stp/>
         <stp>_x000C_EUROISDDS19Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M51" s="3"/>
       </tp>
       <tp>
-        <v>2.0939999999999999</v>
+        <v>1.5129999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS18Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M50" s="3"/>
       </tp>
       <tp>
-        <v>2.2389999999999999</v>
+        <v>1.708</v>
         <stp/>
         <stp>_x000C_EUROISDDS25Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M57" s="3"/>
       </tp>
       <tp>
-        <v>2.2280000000000002</v>
+        <v>1.69</v>
         <stp/>
         <stp>_x000C_EUROISDDS24Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M56" s="3"/>
       </tp>
       <tp>
-        <v>2.2549999999999999</v>
+        <v>1.738</v>
         <stp/>
         <stp>_x000C_EUROISDDS27Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M59" s="3"/>
       </tp>
       <tp>
-        <v>2.2480000000000002</v>
+        <v>1.724</v>
         <stp/>
         <stp>_x000C_EUROISDDS26Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M58" s="3"/>
       </tp>
       <tp>
-        <v>2.1789999999999998</v>
+        <v>1.62</v>
         <stp/>
         <stp>_x000C_EUROISDDS21Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M53" s="3"/>
       </tp>
       <tp>
-        <v>2.1560000000000001</v>
+        <v>1.589</v>
         <stp/>
         <stp>_x000C_EUROISDDS20Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M52" s="3"/>
       </tp>
       <tp>
-        <v>2.2149999999999999</v>
+        <v>1.6659999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS23Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M55" s="3"/>
       </tp>
       <tp>
-        <v>2.1989999999999998</v>
+        <v>1.6419999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS22Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M54" s="3"/>
       </tp>
       <tp>
-        <v>2.2669999999999999</v>
+        <v>1.7629999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS29Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M61" s="3"/>
       </tp>
       <tp>
-        <v>2.262</v>
+        <v>1.7509999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS28Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M60" s="3"/>
       </tp>
       <tp>
-        <v>2.302</v>
+        <v>1.8280000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS35Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M63" s="3"/>
       </tp>
       <tp>
-        <v>2.2730000000000001</v>
+        <v>1.7749999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS30Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M62" s="3"/>
@@ -1055,359 +1055,355 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.0939999999999999</v>
+        <v>1.5129999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS18Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N50" s="3"/>
       </tp>
       <tp>
-        <v>2.1280000000000001</v>
+        <v>1.554</v>
         <stp/>
         <stp>_x000C_EUROISDDS19Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N51" s="3"/>
       </tp>
       <tp>
-        <v>1.867</v>
+        <v>1.2789999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS14Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N46" s="3"/>
       </tp>
       <tp>
-        <v>1.9410000000000001</v>
+        <v>1.35</v>
         <stp/>
         <stp>_x000C_EUROISDDS15Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N47" s="3"/>
       </tp>
       <tp>
-        <v>2.0019999999999998</v>
+        <v>1.4119999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS16Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N48" s="3"/>
       </tp>
       <tp>
-        <v>2.0529999999999999</v>
+        <v>1.466</v>
         <stp/>
         <stp>_x000C_EUROISDDS17Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N49" s="3"/>
       </tp>
       <tp>
-        <v>1.4379999999999999</v>
+        <v>0.88600000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS10Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N42" s="3"/>
       </tp>
       <tp>
-        <v>1.5669999999999999</v>
+        <v>1.0029999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS11Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N43" s="3"/>
       </tp>
       <tp>
-        <v>1.681</v>
+        <v>1.1060000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS12Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N44" s="3"/>
       </tp>
       <tp>
-        <v>1.7809999999999999</v>
+        <v>1.1970000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS13Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N45" s="3"/>
       </tp>
       <tp>
-        <v>2.302</v>
+        <v>1.8280000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS35Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N63" s="3"/>
       </tp>
       <tp>
-        <v>2.2730000000000001</v>
+        <v>1.7749999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS30Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N62" s="3"/>
       </tp>
       <tp>
-        <v>2.262</v>
+        <v>1.7509999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS28Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N60" s="3"/>
       </tp>
       <tp>
-        <v>2.2669999999999999</v>
+        <v>1.7629999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS29Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N61" s="3"/>
       </tp>
       <tp>
-        <v>2.2280000000000002</v>
+        <v>1.69</v>
         <stp/>
         <stp>_x000C_EUROISDDS24Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N56" s="3"/>
       </tp>
       <tp>
-        <v>2.2389999999999999</v>
+        <v>1.708</v>
         <stp/>
         <stp>_x000C_EUROISDDS25Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N57" s="3"/>
       </tp>
       <tp>
-        <v>2.2480000000000002</v>
+        <v>1.724</v>
         <stp/>
         <stp>_x000C_EUROISDDS26Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N58" s="3"/>
       </tp>
       <tp>
-        <v>2.2549999999999999</v>
+        <v>1.738</v>
         <stp/>
         <stp>_x000C_EUROISDDS27Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N59" s="3"/>
       </tp>
       <tp>
-        <v>2.1560000000000001</v>
+        <v>1.589</v>
         <stp/>
         <stp>_x000C_EUROISDDS20Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N52" s="3"/>
       </tp>
       <tp>
-        <v>2.1789999999999998</v>
+        <v>1.62</v>
         <stp/>
         <stp>_x000C_EUROISDDS21Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N53" s="3"/>
       </tp>
       <tp>
-        <v>2.1989999999999998</v>
+        <v>1.6419999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS22Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N54" s="3"/>
       </tp>
       <tp>
-        <v>2.2149999999999999</v>
+        <v>1.6659999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS23Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N55" s="3"/>
       </tp>
       <tp>
-        <v>2.3580000000000001</v>
+        <v>1.91</v>
         <stp/>
         <stp>_x000C_EUROISDDS50Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N65" s="3"/>
       </tp>
       <tp>
-        <v>2.3279999999999998</v>
+        <v>1.87</v>
         <stp/>
         <stp>_x000C_EUROISDDS40Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N64" s="3"/>
       </tp>
       <tp>
-        <v>2.3809999999999998</v>
+        <v>1.9330000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS60Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N66" s="3"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.16</v>
+      <tp>
+        <v>-7.2999999999999995E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS18M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N28" s="3"/>
       </tp>
       <tp>
-        <v>0.16500000000000001</v>
+        <v>-7.0999999999999994E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS19M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N29" s="3"/>
       </tp>
       <tp>
-        <v>0.153</v>
+        <v>-7.3999999999999996E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS14M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N24" s="3"/>
       </tp>
       <tp>
-        <v>0.153</v>
+        <v>-7.4999999999999997E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS15M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N25" s="3"/>
       </tp>
       <tp>
-        <v>0.157</v>
+        <v>-7.2999999999999995E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS16M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N26" s="3"/>
       </tp>
       <tp>
-        <v>0.159</v>
+        <v>-7.2999999999999995E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS17M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N27" s="3"/>
       </tp>
       <tp>
-        <v>0.151</v>
+        <v>-7.3999999999999996E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS10M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N20" s="3"/>
       </tp>
       <tp>
-        <v>0.15</v>
+        <v>-7.3999999999999996E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS11M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N21" s="3"/>
       </tp>
       <tp>
-        <v>0.152</v>
+        <v>-7.4999999999999997E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS13M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N23" s="3"/>
       </tp>
       <tp>
-        <v>0.16800000000000001</v>
+        <v>-7.0000000000000007E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS20M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N30" s="3"/>
       </tp>
       <tp>
-        <v>0.17100000000000001</v>
+        <v>-6.9000000000000006E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS21M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N31" s="3"/>
       </tp>
       <tp>
-        <v>0.17499999999999999</v>
+        <v>-6.7000000000000004E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS22M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N32" s="3"/>
       </tp>
       <tp>
-        <v>0.18</v>
+        <v>-6.5000000000000002E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS23M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N33" s="3"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>1.1379999999999999</v>
+      <tp>
+        <v>0.61099999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS8Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N40" s="3"/>
       </tp>
       <tp>
-        <v>0.155</v>
+        <v>-7.0999999999999994E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS8M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N18" s="3"/>
       </tp>
       <tp>
-        <v>1.2949999999999999</v>
+        <v>0.75600000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS9Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N41" s="3"/>
       </tp>
       <tp>
-        <v>0.153</v>
+        <v>-7.2999999999999995E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS9M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N19" s="3"/>
       </tp>
       <tp>
-        <v>0.221</v>
+        <v>-3.6999999999999998E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS2W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N9" s="3"/>
       </tp>
       <tp>
-        <v>0.185</v>
+        <v>-6.3E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS2Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N34" s="3"/>
       </tp>
       <tp>
-        <v>0.19600000000000001</v>
+        <v>-6.6000000000000003E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS2M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N12" s="3"/>
       </tp>
       <tp>
-        <v>0.221</v>
+        <v>-0.04</v>
         <stp/>
         <stp>_x000B_EUROISDDS3W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N10" s="3"/>
       </tp>
       <tp>
-        <v>0.28699999999999998</v>
+        <v>-1.4999999999999999E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N35" s="3"/>
       </tp>
       <tp>
-        <v>0.186</v>
+        <v>-6.8000000000000005E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N13" s="3"/>
       </tp>
       <tp>
-        <v>0.20699999999999999</v>
+        <v>-3.4000000000000002E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS1W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N8" s="3"/>
       </tp>
       <tp>
-        <v>0.15</v>
+        <v>-7.4999999999999997E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS1Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N22" s="3"/>
       </tp>
       <tp>
-        <v>0.21</v>
+        <v>-5.5E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS1M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N11" s="3"/>
       </tp>
       <tp>
-        <v>0.78900000000000003</v>
+        <v>0.309</v>
         <stp/>
         <stp>_x000B_EUROISDDS6Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N38" s="3"/>
       </tp>
       <tp>
-        <v>0.16500000000000001</v>
+        <v>-6.8000000000000005E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS6M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N16" s="3"/>
       </tp>
       <tp>
-        <v>0.96799999999999997</v>
+        <v>0.46</v>
         <stp/>
         <stp>_x000B_EUROISDDS7Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N39" s="3"/>
       </tp>
       <tp>
-        <v>0.159</v>
+        <v>-7.0000000000000007E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS7M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N17" s="3"/>
       </tp>
       <tp>
-        <v>0.435</v>
+        <v>6.8000000000000005E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N36" s="3"/>
       </tp>
       <tp>
-        <v>0.17599999999999999</v>
+        <v>-6.7000000000000004E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N14" s="3"/>
       </tp>
       <tp>
-        <v>0.60699999999999998</v>
+        <v>0.17599999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS5Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N37" s="3"/>
       </tp>
       <tp>
-        <v>0.17</v>
+        <v>-6.8000000000000005E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS5M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N15" s="3"/>
@@ -1449,127 +1445,127 @@
         <tr r="M6" s="3"/>
       </tp>
       <tp>
-        <v>0.186</v>
+        <v>-6.8000000000000005E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M13" s="3"/>
       </tp>
       <tp>
-        <v>0.221</v>
+        <v>-0.04</v>
         <stp/>
         <stp>_x000B_EUROISDDS3W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M10" s="3"/>
       </tp>
       <tp>
-        <v>0.28699999999999998</v>
+        <v>-1.4999999999999999E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M35" s="3"/>
       </tp>
       <tp>
-        <v>0.19600000000000001</v>
+        <v>-6.6000000000000003E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS2M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M12" s="3"/>
       </tp>
       <tp>
-        <v>0.221</v>
+        <v>-3.6999999999999998E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS2W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M9" s="3"/>
       </tp>
       <tp>
-        <v>0.185</v>
+        <v>-6.3E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS2Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M34" s="3"/>
       </tp>
       <tp>
-        <v>0.21</v>
+        <v>-5.5E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS1M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M11" s="3"/>
       </tp>
       <tp>
-        <v>0.20699999999999999</v>
+        <v>-3.4000000000000002E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS1W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M8" s="3"/>
       </tp>
       <tp>
-        <v>0.15</v>
+        <v>-7.4999999999999997E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS1Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M22" s="3"/>
       </tp>
       <tp>
-        <v>0.159</v>
+        <v>-7.0000000000000007E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS7M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M17" s="3"/>
       </tp>
       <tp>
-        <v>0.96799999999999997</v>
+        <v>0.46</v>
         <stp/>
         <stp>_x000B_EUROISDDS7Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M39" s="3"/>
       </tp>
       <tp>
-        <v>0.16500000000000001</v>
+        <v>-6.8000000000000005E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS6M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M16" s="3"/>
       </tp>
       <tp>
-        <v>0.78900000000000003</v>
+        <v>0.309</v>
         <stp/>
         <stp>_x000B_EUROISDDS6Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M38" s="3"/>
       </tp>
       <tp>
-        <v>0.17</v>
+        <v>-6.8000000000000005E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS5M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M15" s="3"/>
       </tp>
       <tp>
-        <v>0.60699999999999998</v>
+        <v>0.17599999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS5Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M37" s="3"/>
       </tp>
       <tp>
-        <v>0.17599999999999999</v>
+        <v>-6.7000000000000004E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M14" s="3"/>
       </tp>
       <tp>
-        <v>0.435</v>
+        <v>6.8000000000000005E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M36" s="3"/>
       </tp>
       <tp>
-        <v>0.153</v>
+        <v>-7.2999999999999995E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS9M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M19" s="3"/>
       </tp>
       <tp>
-        <v>1.2949999999999999</v>
+        <v>0.75600000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS9Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M41" s="3"/>
       </tp>
       <tp>
-        <v>0.155</v>
+        <v>-7.0999999999999994E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS8M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M18" s="3"/>
       </tp>
       <tp>
-        <v>1.1379999999999999</v>
+        <v>0.61099999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS8Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M40" s="3"/>
@@ -1708,61 +1704,61 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.65E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8699999999999993E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0699999999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2600000000000007E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.360000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4200000000000012E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4300000000000008E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4000000000000002E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3600000000000019E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2999999999999991E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2299999999999968E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1499999999999966E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8800000000000041E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5200000000000049E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2900000000000004E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1200000000000004E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8999999999999954E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7600000000000011E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6600000000000018E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,61 +1864,61 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.5728923175569384E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9176292390170151E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1501662411382225E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2949606685246328E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3734204454046787E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.402871182037906E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3968872126858619E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3659060597652475E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3178406808242115E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2586134584527008E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1925987331510733E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1229802692106811E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9120352263416085E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.602492259022985E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3605735760224953E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1729073361477845E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9039845691810262E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7201736154480178E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5854904599366599E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,11 +1933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="876044672"/>
-        <c:axId val="876046592"/>
+        <c:axId val="472730240"/>
+        <c:axId val="472775680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="876044672"/>
+        <c:axId val="472730240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1977,12 +1973,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876046592"/>
+        <c:crossAx val="472775680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="876046592"/>
+        <c:axId val="472775680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.01"/>
@@ -2029,7 +2025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876044672"/>
+        <c:crossAx val="472730240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2141,12 +2137,13 @@
       <sheetName val="Swaps1M"/>
       <sheetName val="SwapsIMMDated"/>
       <sheetName val="Swap3M"/>
+      <sheetName val="ON"/>
       <sheetName val="Swap6M"/>
-      <sheetName val="ON"/>
       <sheetName val="1M (3)"/>
       <sheetName val="3M (4)"/>
       <sheetName val="6M (3)"/>
       <sheetName val="1Y (3)"/>
+      <sheetName val="EUR_Market"/>
     </sheetNames>
     <definedNames>
       <definedName name="TriggerCounter" refersTo="='General Settings'!$D$6"/>
@@ -2155,138 +2152,31 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>14</v>
+            <v>114</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>12E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EURTND_Quote#0000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>EURTOM3F1_Quote</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>J4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Future Code</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>J4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>2W</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>X1S</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="6">
-          <cell r="D6">
-            <v>12</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>1E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="19">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6E</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>12E</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2734,7 +2624,7 @@
       </c>
       <c r="D16" s="38">
         <f>[1]!TriggerCounter</f>
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -2807,9 +2697,9 @@
       <c r="E3" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="3" t="str">
-        <f>_xll.qlCubicInterpolation(,F11:F29,E11:E29,F1,F2)</f>
-        <v>obj_0080d#0013</v>
+      <c r="F3" s="3" t="e">
+        <f ca="1">_xll.qlCubicInterpolation(,F11:F29,E11:E29,F1,F2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2817,9 +2707,9 @@
       <c r="E4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F4" t="str">
-        <f>_xll.qlAbcdInterpolation(,$F11:$F29,$G11:$G29,G33,G34,G35,G36,,,,FALSE)</f>
-        <v>obj_0080e#0013</v>
+      <c r="F4" t="e">
+        <f ca="1">_xll.qlAbcdInterpolation(,$F11:$F29,$G11:$G29,G33,G34,G35,G36,,,,FALSE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2839,9 +2729,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="1">
-        <f>(H26-G26)*0</f>
-        <v>0</v>
+      <c r="I7" s="1" t="e">
+        <f ca="1">(H26-G26)*0</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2889,31 +2779,31 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <f>_xll.qlQuoteValue(B11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
-        <v>4.15E-3</v>
+      <c r="C11" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <f>_xll.qlQuoteValue(D11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.5E-3</v>
+      <c r="E11" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F11" s="21">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
-        <f>C11-E11</f>
-        <v>2.65E-3</v>
-      </c>
-      <c r="H11" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F11,TRUE)</f>
-        <v>2.5728923175569384E-3</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" ref="I11:I29" si="0">H11-$I$7</f>
-        <v>2.5728923175569384E-3</v>
+      <c r="G11" s="4" t="e">
+        <f ca="1">C11-E11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H11" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F11,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="4" t="e">
+        <f t="shared" ref="I11:I29" ca="1" si="0">H11-$I$7</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2923,31 +2813,31 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <f>_xll.qlQuoteValue(B12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
-        <v>4.7199999999999994E-3</v>
+      <c r="C12" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <f>_xll.qlQuoteValue(D12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.8500000000000001E-3</v>
+      <c r="E12" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F12" s="21">
         <v>2</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" ref="G12:G21" si="1">C12-E12</f>
-        <v>2.8699999999999993E-3</v>
-      </c>
-      <c r="H12" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F12,TRUE)</f>
-        <v>2.9176292390170151E-3</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9176292390170151E-3</v>
+      <c r="G12" s="4" t="e">
+        <f t="shared" ref="G12:G21" ca="1" si="1">C12-E12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F12,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2957,31 +2847,31 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
-        <f>_xll.qlQuoteValue(B13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
-        <v>5.94E-3</v>
+      <c r="C13" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <f>_xll.qlQuoteValue(D13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.8700000000000002E-3</v>
+      <c r="E13" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F13" s="21">
         <v>3</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>3.0699999999999998E-3</v>
-      </c>
-      <c r="H13" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F13,TRUE)</f>
-        <v>3.1501662411382225E-3</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1501662411382225E-3</v>
+      <c r="G13" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H13" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F13,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I13" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2991,31 +2881,31 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
-        <f>_xll.qlQuoteValue(B14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
-        <v>7.6100000000000004E-3</v>
+      <c r="C14" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <f>_xll.qlQuoteValue(D14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
-        <v>4.3499999999999997E-3</v>
+      <c r="E14" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F14" s="21">
         <v>4</v>
       </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>3.2600000000000007E-3</v>
-      </c>
-      <c r="H14" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F14,TRUE)</f>
-        <v>3.2949606685246328E-3</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2949606685246328E-3</v>
+      <c r="G14" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H14" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F14,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3025,31 +2915,31 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
-        <f>_xll.qlQuoteValue(B15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
-        <v>9.4300000000000009E-3</v>
+      <c r="C15" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <f>_xll.qlQuoteValue(D15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
-        <v>6.0699999999999999E-3</v>
+      <c r="E15" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F15" s="21">
         <v>5</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>3.360000000000001E-3</v>
-      </c>
-      <c r="H15" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F15,TRUE)</f>
-        <v>3.3734204454046787E-3</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3734204454046787E-3</v>
+      <c r="G15" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H15" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F15,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I15" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3059,31 +2949,31 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
-        <f>_xll.qlQuoteValue(B16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.1310000000000001E-2</v>
+      <c r="C16" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <f>_xll.qlQuoteValue(D16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
-        <v>7.8899999999999994E-3</v>
+      <c r="E16" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F16" s="21">
         <v>6</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4200000000000012E-3</v>
-      </c>
-      <c r="H16" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F16,TRUE)</f>
-        <v>3.402871182037906E-3</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
-        <v>3.402871182037906E-3</v>
+      <c r="G16" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H16" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F16,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I16" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3093,31 +2983,31 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
-        <f>_xll.qlQuoteValue(B17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.311E-2</v>
+      <c r="C17" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
-        <f>_xll.qlQuoteValue(D17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
-        <v>9.6799999999999994E-3</v>
+      <c r="E17" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F17" s="21">
         <v>7</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4300000000000008E-3</v>
-      </c>
-      <c r="H17" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F17,TRUE)</f>
-        <v>3.3968872126858619E-3</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3968872126858619E-3</v>
+      <c r="G17" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H17" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F17,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3127,31 +3017,31 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
-        <f>_xll.qlQuoteValue(B18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.478E-2</v>
+      <c r="C18" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
-        <f>_xll.qlQuoteValue(D18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.1379999999999999E-2</v>
+      <c r="E18" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F18" s="21">
         <v>8</v>
       </c>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="H18" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F18,TRUE)</f>
-        <v>3.3659060597652475E-3</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3659060597652475E-3</v>
+      <c r="G18" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H18" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F18,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I18" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3161,31 +3051,31 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
-        <f>_xll.qlQuoteValue(B19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.6310000000000002E-2</v>
+      <c r="C19" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
-        <f>_xll.qlQuoteValue(D19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.295E-2</v>
+      <c r="E19" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F19" s="21">
         <v>9</v>
       </c>
-      <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>3.3600000000000019E-3</v>
-      </c>
-      <c r="H19" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F19,TRUE)</f>
-        <v>3.3178406808242115E-3</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3178406808242115E-3</v>
+      <c r="G19" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H19" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F19,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I19" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3195,31 +3085,31 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
-        <f>_xll.qlQuoteValue(B20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.7680000000000001E-2</v>
+      <c r="C20" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
-        <f>_xll.qlQuoteValue(D20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.4380000000000002E-2</v>
+      <c r="E20" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F20" s="21">
         <v>10</v>
       </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>3.2999999999999991E-3</v>
-      </c>
-      <c r="H20" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F20,TRUE)</f>
-        <v>3.2586134584527008E-3</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2586134584527008E-3</v>
+      <c r="G20" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F20,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3229,31 +3119,31 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
-        <f>_xll.qlQuoteValue(B21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.89E-2</v>
+      <c r="C21" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
-        <f>_xll.qlQuoteValue(D21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.5670000000000003E-2</v>
+      <c r="E21" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F21" s="21">
         <v>11</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="1"/>
-        <v>3.2299999999999968E-3</v>
-      </c>
-      <c r="H21" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F21,TRUE)</f>
-        <v>3.1925987331510733E-3</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1925987331510733E-3</v>
+      <c r="G21" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F21,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3263,31 +3153,31 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1">
-        <f>_xll.qlQuoteValue(B22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.9959999999999999E-2</v>
+      <c r="C22" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
-        <f>_xll.qlQuoteValue(D22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.6810000000000002E-2</v>
+      <c r="E22" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F22" s="21">
         <v>12</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" ref="G22:G29" si="2">C22-E22</f>
-        <v>3.1499999999999966E-3</v>
-      </c>
-      <c r="H22" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F22,TRUE)</f>
-        <v>3.1229802692106811E-3</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1229802692106811E-3</v>
+      <c r="G22" s="4" t="e">
+        <f t="shared" ref="G22:G29" ca="1" si="2">C22-E22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F22,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3297,31 +3187,31 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1">
-        <f>_xll.qlQuoteValue(B23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.2290000000000001E-2</v>
+      <c r="C23" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="1">
-        <f>_xll.qlQuoteValue(D23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
-        <v>1.9409999999999997E-2</v>
+      <c r="E23" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F23" s="21">
         <v>15</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" si="2"/>
-        <v>2.8800000000000041E-3</v>
-      </c>
-      <c r="H23" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F23,TRUE)</f>
-        <v>2.9120352263416085E-3</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9120352263416085E-3</v>
+      <c r="G23" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H23" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F23,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I23" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3331,31 +3221,31 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1">
-        <f>_xll.qlQuoteValue(B24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.4080000000000001E-2</v>
+      <c r="C24" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="1">
-        <f>_xll.qlQuoteValue(D24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.1559999999999996E-2</v>
+      <c r="E24" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F24" s="21">
         <v>20</v>
       </c>
-      <c r="G24" s="4">
-        <f t="shared" si="2"/>
-        <v>2.5200000000000049E-3</v>
-      </c>
-      <c r="H24" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F24,TRUE)</f>
-        <v>2.602492259022985E-3</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
-        <v>2.602492259022985E-3</v>
+      <c r="G24" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H24" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F24,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I24" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3365,31 +3255,31 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1">
-        <f>_xll.qlQuoteValue(B25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.4680000000000001E-2</v>
+      <c r="C25" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
-        <f>_xll.qlQuoteValue(D25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.239E-2</v>
+      <c r="E25" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F25" s="21">
         <v>25</v>
       </c>
-      <c r="G25" s="4">
-        <f t="shared" si="2"/>
-        <v>2.2900000000000004E-3</v>
-      </c>
-      <c r="H25" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F25,TRUE)</f>
-        <v>2.3605735760224953E-3</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3605735760224953E-3</v>
+      <c r="G25" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H25" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F25,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I25" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3399,31 +3289,31 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1">
-        <f>_xll.qlQuoteValue(B26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.4849999999999997E-2</v>
+      <c r="C26" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
-        <f>_xll.qlQuoteValue(D26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.2729999999999997E-2</v>
+      <c r="E26" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F26" s="21">
         <v>30</v>
       </c>
-      <c r="G26" s="4">
-        <f t="shared" si="2"/>
-        <v>2.1200000000000004E-3</v>
-      </c>
-      <c r="H26" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F26,TRUE)</f>
-        <v>2.1729073361477845E-3</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1729073361477845E-3</v>
+      <c r="G26" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H26" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F26,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I26" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3434,31 +3324,31 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="1">
-        <f>_xll.qlQuoteValue(B27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.5179999999999998E-2</v>
+      <c r="C27" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
-        <f>_xll.qlQuoteValue(D27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.3280000000000002E-2</v>
+      <c r="E27" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F27" s="21">
         <v>40</v>
       </c>
-      <c r="G27" s="4">
-        <f t="shared" si="2"/>
-        <v>1.8999999999999954E-3</v>
-      </c>
-      <c r="H27" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F27,TRUE)</f>
-        <v>1.9039845691810262E-3</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9039845691810262E-3</v>
+      <c r="G27" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H27" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F27,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I27" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3469,31 +3359,31 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="1">
-        <f>_xll.qlQuoteValue(B28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.5339999999999998E-2</v>
+      <c r="C28" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
-        <f>_xll.qlQuoteValue(D28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.3579999999999997E-2</v>
+      <c r="E28" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F28" s="21">
         <v>50</v>
       </c>
-      <c r="G28" s="4">
-        <f t="shared" si="2"/>
-        <v>1.7600000000000011E-3</v>
-      </c>
-      <c r="H28" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F28,TRUE)</f>
-        <v>1.7201736154480178E-3</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7201736154480178E-3</v>
+      <c r="G28" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H28" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F28,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I28" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3504,31 +3394,31 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="1">
-        <f>_xll.qlQuoteValue(B29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.5470000000000003E-2</v>
+      <c r="C29" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="1">
-        <f>_xll.qlQuoteValue(D29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
-        <v>2.3810000000000001E-2</v>
+      <c r="E29" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F29" s="21">
         <v>60</v>
       </c>
-      <c r="G29" s="4">
-        <f t="shared" si="2"/>
-        <v>1.6600000000000018E-3</v>
-      </c>
-      <c r="H29" s="4">
-        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F29,TRUE)</f>
-        <v>1.5854904599366599E-3</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5854904599366599E-3</v>
+      <c r="G29" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H29" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F29,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I29" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3543,9 +3433,9 @@
       <c r="E33" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="2">
-        <f>_xll.qlAbcdInterpolationA(BasisExtrapolator)</f>
-        <v>1.5604451708381519E-3</v>
+      <c r="F33" s="2" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationA(BasisExtrapolator)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G33" s="27">
         <v>-1.1556684301587655E-3</v>
@@ -3555,9 +3445,9 @@
       <c r="E34" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="2">
-        <f>_xll.qlAbcdInterpolationB(BasisExtrapolator)</f>
-        <v>1.4081193309768126E-3</v>
+      <c r="F34" s="2" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationB(BasisExtrapolator)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G34" s="27">
         <v>2.5355454308524164E-3</v>
@@ -3567,9 +3457,9 @@
       <c r="E35" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="2">
-        <f>_xll.qlAbcdInterpolationC(BasisExtrapolator)</f>
-        <v>0.20499551880607947</v>
+      <c r="F35" s="2" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationC(BasisExtrapolator)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G35" s="27">
         <v>0.35804596119753157</v>
@@ -3579,9 +3469,9 @@
       <c r="E36" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="2">
-        <f>_xll.qlAbcdInterpolationD(BasisExtrapolator)</f>
-        <v>5.3521679207399258E-4</v>
+      <c r="F36" s="2" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationD(BasisExtrapolator)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G36" s="27">
         <v>1.155670694872052E-3</v>
@@ -3610,7 +3500,7 @@
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3692,9 +3582,9 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="1">
-        <f>_xll.qlQuoteValue(D5,Model!$E$11:$E$29)</f>
-        <v>2.5000000000000001E-3</v>
+      <c r="C5" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D5,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D5" s="24" t="str">
         <f>Currency&amp;E5&amp;"D"&amp;D$3</f>
@@ -3704,8 +3594,8 @@
         <v>43</v>
       </c>
       <c r="F5" s="1" t="b">
-        <f t="shared" ref="F5:F44" si="0">NOT(ISERROR(C5))</f>
-        <v>1</v>
+        <f t="shared" ref="F5:F44" ca="1" si="0">NOT(ISERROR(C5))</f>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>116</v>
@@ -3714,13 +3604,13 @@
         <f t="shared" ref="H5:H44" si="1">Currency&amp;H$4&amp;$E5</f>
         <v>EUROISDDSON</v>
       </c>
-      <c r="I5" s="5">
-        <f>ROUND(IF($F5,$C5,$B5),5)*100</f>
-        <v>0.25</v>
-      </c>
-      <c r="J5" s="5">
-        <f>ROUND(IF($F5,$C5,$B5),5)*100</f>
-        <v>0.25</v>
+      <c r="I5" s="5" t="e">
+        <f ca="1">IF(ROUND(IF($F5,$C5,$B5),5)=0,ROUND(IF($F5,$C5,$B5),5)*100+0.000001,ROUND(IF($F5,$C5,$B5),5)*100)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="5" t="e">
+        <f ca="1">I5</f>
+        <v>#N/A</v>
       </c>
       <c r="K5" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H5,$I$4:$J$4,$I5:$J5,"SCOPE:SERVER"),"--")</f>
@@ -3739,7 +3629,7 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O5" s="5" t="e">
-        <f>M5-I5</f>
+        <f ca="1">M5-I5</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3748,9 +3638,9 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C6" s="1">
-        <f>_xll.qlQuoteValue(D6,Model!$E$11:$E$29)</f>
-        <v>2.5000000000000001E-3</v>
+      <c r="C6" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D6,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D6" s="24" t="str">
         <f>Currency&amp;E6&amp;"D"&amp;D$3</f>
@@ -3760,8 +3650,8 @@
         <v>44</v>
       </c>
       <c r="F6" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>116</v>
@@ -3770,13 +3660,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDSTN</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" ref="I6:J37" si="2">ROUND(IF($F6,$C6,$B6),5)*100</f>
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+      <c r="I6" s="5" t="e">
+        <f t="shared" ref="I6:I66" ca="1" si="2">IF(ROUND(IF($F6,$C6,$B6),5)=0,ROUND(IF($F6,$C6,$B6),5)*100+0.000001,ROUND(IF($F6,$C6,$B6),5)*100)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="5" t="e">
+        <f t="shared" ref="J6:J66" ca="1" si="3">I6</f>
+        <v>#N/A</v>
       </c>
       <c r="K6" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H6,$I$4:$J$4,$I6:$J6,"SCOPE:SERVER"),"--")</f>
@@ -3795,7 +3685,7 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O6" s="5" t="e">
-        <f t="shared" ref="O6:O66" si="3">M6-I6</f>
+        <f t="shared" ref="O6:O66" ca="1" si="4">M6-I6</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3804,9 +3694,9 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C7" s="1">
-        <f>_xll.qlQuoteValue(D7,Model!$E$11:$E$29)</f>
-        <v>2.5000000000000001E-3</v>
+      <c r="C7" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D7,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>Currency&amp;E7&amp;"D"&amp;D$3</f>
@@ -3816,8 +3706,8 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>116</v>
@@ -3826,13 +3716,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDSSN</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+      <c r="I7" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#N/A</v>
       </c>
       <c r="K7" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H7,$I$4:$J$4,$I7:$J7,"SCOPE:SERVER"),"--")</f>
@@ -3851,26 +3741,26 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O7" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <f>_xll.qlQuoteValue(D8,Model!$E$11:$E$29)</f>
-        <v>2.0700000000000002E-3</v>
+      <c r="C8" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D8,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:D47" si="4">Currency&amp;D$4&amp;$E8&amp;D$3</f>
+        <f t="shared" ref="D8:D47" si="5">Currency&amp;D$4&amp;$E8&amp;D$3</f>
         <v>EUREONSW_Quote</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>80</v>
@@ -3880,12 +3770,12 @@
         <v>EUROISDDS1W</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.20699999999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.20699999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K8" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H8,$I$4:$J$4,$I8:$J8,"SCOPE:SERVER"),"--")</f>
@@ -3897,33 +3787,33 @@
       </c>
       <c r="M8" s="5">
         <f>_xll.RtGet(K$4,$H8,$I$4)</f>
-        <v>0.20699999999999999</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="N8" s="5">
         <f>_xll.RtGet(L$4,$H8,$I$4)</f>
-        <v>0.20699999999999999</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.4001000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <f>_xll.qlQuoteValue(D9,Model!$E$11:$E$29)</f>
-        <v>2.2100000000000002E-3</v>
+      <c r="C9" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D9,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON2W_Quote</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>81</v>
@@ -3933,12 +3823,12 @@
         <v>EUROISDDS2W</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22100000000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22100000000000003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K9" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H9,$I$4:$J$4,$I9:$J9,"SCOPE:SERVER"),"--")</f>
@@ -3950,33 +3840,33 @@
       </c>
       <c r="M9" s="5">
         <f>_xll.RtGet(K$4,$H9,$I$4)</f>
-        <v>0.221</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="N9" s="5">
         <f>_xll.RtGet(L$4,$H9,$I$4)</f>
-        <v>0.221</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.7000999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <f>_xll.qlQuoteValue(D10,Model!$E$11:$E$29)</f>
-        <v>2.2100000000000002E-3</v>
+      <c r="C10" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D10,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON3W_Quote</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>82</v>
@@ -3986,12 +3876,12 @@
         <v>EUROISDDS3W</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22100000000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22100000000000003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K10" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H10,$I$4:$J$4,$I10:$J10,"SCOPE:SERVER"),"--")</f>
@@ -4003,33 +3893,33 @@
       </c>
       <c r="M10" s="5">
         <f>_xll.RtGet(K$4,$H10,$I$4)</f>
-        <v>0.221</v>
+        <v>-0.04</v>
       </c>
       <c r="N10" s="5">
         <f>_xll.RtGet(L$4,$H10,$I$4)</f>
-        <v>0.221</v>
+        <v>-0.04</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.0001000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <f>_xll.qlQuoteValue(D11,Model!$E$11:$E$29)</f>
-        <v>2.0999999999999999E-3</v>
+      <c r="C11" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D11,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON1M_Quote</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>83</v>
@@ -4039,12 +3929,12 @@
         <v>EUROISDDS1M</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.21</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.21</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K11" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H11,$I$4:$J$4,$I11:$J11,"SCOPE:SERVER"),"--")</f>
@@ -4056,33 +3946,33 @@
       </c>
       <c r="M11" s="5">
         <f>_xll.RtGet(K$4,$H11,$I$4)</f>
-        <v>0.21</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="N11" s="5">
         <f>_xll.RtGet(L$4,$H11,$I$4)</f>
-        <v>0.21</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.5001000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <f>_xll.qlQuoteValue(D12,Model!$E$11:$E$29)</f>
-        <v>1.9599999999999999E-3</v>
+      <c r="C12" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D12,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON2M_Quote</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>84</v>
@@ -4092,12 +3982,12 @@
         <v>EUROISDDS2M</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.19600000000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.19600000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K12" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H12,$I$4:$J$4,$I12:$J12,"SCOPE:SERVER"),"--")</f>
@@ -4109,33 +3999,33 @@
       </c>
       <c r="M12" s="5">
         <f>_xll.RtGet(K$4,$H12,$I$4)</f>
-        <v>0.19600000000000001</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="N12" s="5">
         <f>_xll.RtGet(L$4,$H12,$I$4)</f>
-        <v>0.19600000000000001</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.6001000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <f>_xll.qlQuoteValue(D13,Model!$E$11:$E$29)</f>
-        <v>1.8599999999999999E-3</v>
+      <c r="C13" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D13,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON3M_Quote</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>85</v>
@@ -4145,12 +4035,12 @@
         <v>EUROISDDS3M</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>0.186</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="2"/>
-        <v>0.186</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K13" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H13,$I$4:$J$4,$I13:$J13,"SCOPE:SERVER"),"--")</f>
@@ -4162,33 +4052,33 @@
       </c>
       <c r="M13" s="5">
         <f>_xll.RtGet(K$4,$H13,$I$4)</f>
-        <v>0.186</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="N13" s="5">
         <f>_xll.RtGet(L$4,$H13,$I$4)</f>
-        <v>0.186</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.8001000000000006E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <f>_xll.qlQuoteValue(D14,Model!$E$11:$E$29)</f>
-        <v>1.7599999999999998E-3</v>
+      <c r="C14" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D14,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON4M_Quote</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>86</v>
@@ -4198,12 +4088,12 @@
         <v>EUROISDDS4M</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>0.17600000000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="2"/>
-        <v>0.17600000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K14" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H14,$I$4:$J$4,$I14:$J14,"SCOPE:SERVER"),"--")</f>
@@ -4215,33 +4105,33 @@
       </c>
       <c r="M14" s="5">
         <f>_xll.RtGet(K$4,$H14,$I$4)</f>
-        <v>0.17599999999999999</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="N14" s="5">
         <f>_xll.RtGet(L$4,$H14,$I$4)</f>
-        <v>0.17599999999999999</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.7001000000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <f>_xll.qlQuoteValue(D15,Model!$E$11:$E$29)</f>
-        <v>1.6999999999999999E-3</v>
+      <c r="C15" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D15,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON5M_Quote</v>
       </c>
       <c r="E15" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>87</v>
@@ -4251,12 +4141,12 @@
         <v>EUROISDDS5M</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16999999999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16999999999999998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K15" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H15,$I$4:$J$4,$I15:$J15,"SCOPE:SERVER"),"--")</f>
@@ -4268,33 +4158,33 @@
       </c>
       <c r="M15" s="5">
         <f>_xll.RtGet(K$4,$H15,$I$4)</f>
-        <v>0.17</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="N15" s="5">
         <f>_xll.RtGet(L$4,$H15,$I$4)</f>
-        <v>0.17</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.8001000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <f>_xll.qlQuoteValue(D16,Model!$E$11:$E$29)</f>
-        <v>1.65E-3</v>
+      <c r="C16" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D16,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON6M_Quote</v>
       </c>
       <c r="E16" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>88</v>
@@ -4304,12 +4194,12 @@
         <v>EUROISDDS6M</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16500000000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16500000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K16" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H16,$I$4:$J$4,$I16:$J16,"SCOPE:SERVER"),"--")</f>
@@ -4321,33 +4211,33 @@
       </c>
       <c r="M16" s="5">
         <f>_xll.RtGet(K$4,$H16,$I$4)</f>
-        <v>0.16500000000000001</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="N16" s="5">
         <f>_xll.RtGet(L$4,$H16,$I$4)</f>
-        <v>0.16500000000000001</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.8001000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <f>_xll.qlQuoteValue(D17,Model!$E$11:$E$29)</f>
-        <v>1.5900000000000001E-3</v>
+      <c r="C17" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D17,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON7M_Quote</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>89</v>
@@ -4357,12 +4247,12 @@
         <v>EUROISDDS7M</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="2"/>
-        <v>0.159</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="2"/>
-        <v>0.159</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K17" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H17,$I$4:$J$4,$I17:$J17,"SCOPE:SERVER"),"--")</f>
@@ -4374,33 +4264,33 @@
       </c>
       <c r="M17" s="5">
         <f>_xll.RtGet(K$4,$H17,$I$4)</f>
-        <v>0.159</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="N17" s="5">
         <f>_xll.RtGet(L$4,$H17,$I$4)</f>
-        <v>0.159</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-7.0001000000000008E-2</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <f>_xll.qlQuoteValue(D18,Model!$E$11:$E$29)</f>
-        <v>1.5499999999999999E-3</v>
+      <c r="C18" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D18,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON8M_Quote</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>90</v>
@@ -4410,12 +4300,12 @@
         <v>EUROISDDS8M</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.155</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.155</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K18" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H18,$I$4:$J$4,$I18:$J18,"SCOPE:SERVER"),"--")</f>
@@ -4427,33 +4317,33 @@
       </c>
       <c r="M18" s="5">
         <f>_xll.RtGet(K$4,$H18,$I$4)</f>
-        <v>0.155</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="N18" s="5">
         <f>_xll.RtGet(L$4,$H18,$I$4)</f>
-        <v>0.155</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-7.1000999999999995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <f>_xll.qlQuoteValue(D19,Model!$E$11:$E$29)</f>
-        <v>1.5299999999999999E-3</v>
+      <c r="C19" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D19,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON9M_Quote</v>
       </c>
       <c r="E19" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>91</v>
@@ -4463,12 +4353,12 @@
         <v>EUROISDDS9M</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="2"/>
-        <v>0.153</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="2"/>
-        <v>0.153</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K19" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H19,$I$4:$J$4,$I19:$J19,"SCOPE:SERVER"),"--")</f>
@@ -4480,33 +4370,33 @@
       </c>
       <c r="M19" s="5">
         <f>_xll.RtGet(K$4,$H19,$I$4)</f>
-        <v>0.153</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="N19" s="5">
         <f>_xll.RtGet(L$4,$H19,$I$4)</f>
-        <v>0.153</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-7.3000999999999996E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="C20" s="1">
-        <f>_xll.qlQuoteValue(D20,Model!$E$11:$E$29)</f>
-        <v>1.5100000000000001E-3</v>
+      <c r="C20" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D20,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON10M_Quote</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>92</v>
@@ -4516,12 +4406,12 @@
         <v>EUROISDDS10M</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.151</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.151</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K20" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H20,$I$4:$J$4,$I20:$J20,"SCOPE:SERVER"),"--")</f>
@@ -4533,33 +4423,33 @@
       </c>
       <c r="M20" s="5">
         <f>_xll.RtGet(K$4,$H20,$I$4)</f>
-        <v>0.151</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="N20" s="5">
         <f>_xll.RtGet(L$4,$H20,$I$4)</f>
-        <v>0.151</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-7.4000999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <f>_xll.qlQuoteValue(D21,Model!$E$11:$E$29)</f>
-        <v>1.5E-3</v>
+      <c r="C21" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D21,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON11M_Quote</v>
       </c>
       <c r="E21" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>93</v>
@@ -4569,12 +4459,12 @@
         <v>EUROISDDS11M</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K21" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H21,$I$4:$J$4,$I21:$J21,"SCOPE:SERVER"),"--")</f>
@@ -4586,39 +4476,39 @@
       </c>
       <c r="M21" s="5">
         <f>_xll.RtGet(K$4,$H21,$I$4)</f>
-        <v>0.15</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="N21" s="5">
         <f>_xll.RtGet(L$4,$H21,$I$4)</f>
-        <v>0.15</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-7.4000999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>1</v>
       </c>
-      <c r="B22" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A22)</f>
-        <v>1.5E-3</v>
-      </c>
-      <c r="C22" s="1">
-        <f>_xll.qlQuoteValue(D22,Model!$E$11:$E$29)</f>
-        <v>1.5E-3</v>
+      <c r="B22" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C22" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D22,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON1Y_Quote</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>94</v>
@@ -4627,13 +4517,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS1Y</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
+      <c r="I22" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K22" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H22,$I$4:$J$4,$I22:$J22,"SCOPE:SERVER"),"--")</f>
@@ -4645,58 +4535,58 @@
       </c>
       <c r="M22" s="5">
         <f>_xll.RtGet(K$4,$H22,$I$4)</f>
-        <v>0.15</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="N22" s="5">
         <f>_xll.RtGet(L$4,$H22,$I$4)</f>
-        <v>0.15</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="O22" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P22" t="str">
         <f>_xll.qlMakeOIS(,E22,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00837#0001</v>
       </c>
-      <c r="Q22" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P22,InterestRatesTrigger)</f>
-        <v>1.4999999999670119E-3</v>
-      </c>
-      <c r="R22" s="31">
-        <f>Q22-C22</f>
-        <v>-3.2988152140478455E-14</v>
-      </c>
-      <c r="S22" s="31">
-        <f>Q22-B22</f>
-        <v>-3.2988152140478455E-14</v>
-      </c>
-      <c r="T22" s="31">
-        <f>Q22-I22/100</f>
-        <v>-3.2988152140478455E-14</v>
+      <c r="Q22" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P22,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R22" s="31" t="e">
+        <f ca="1">Q22-C22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S22" s="31" t="e">
+        <f ca="1">Q22-B22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T22" s="31" t="e">
+        <f ca="1">Q22-I22/100</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>1.0833333333333333</v>
       </c>
-      <c r="B23" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A23)</f>
-        <v>1.5167052269070933E-3</v>
+      <c r="B23" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C23" s="1" t="e">
-        <f>_xll.qlQuoteValue(D23,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D23,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON13M_Quote</v>
       </c>
       <c r="E23" t="s">
         <v>117</v>
       </c>
       <c r="F23" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4706,13 +4596,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS13M</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.152</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.152</v>
+      <c r="I23" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J23" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K23" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H23,$I$4:$J$4,$I23:$J23,"SCOPE:SERVER"),"--")</f>
@@ -4724,58 +4614,58 @@
       </c>
       <c r="M23" s="5">
         <f>_xll.RtGet(K$4,$H23,$I$4)</f>
-        <v>0.152</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="N23" s="5">
         <f>_xll.RtGet(L$4,$H23,$I$4)</f>
-        <v>0.152</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="O23" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P23" t="str">
         <f>_xll.qlMakeOIS(,E23,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00826#0001</v>
       </c>
-      <c r="Q23" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P23,InterestRatesTrigger)</f>
-        <v>1.5059740315085176E-3</v>
+      <c r="Q23" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P23,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R23" s="31" t="e">
-        <f t="shared" ref="R23:R66" si="5">Q23-C23</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="S23" s="31">
-        <f t="shared" ref="S23:S66" si="6">Q23-B23</f>
-        <v>-1.0731195398575727E-5</v>
-      </c>
-      <c r="T23" s="31">
-        <f t="shared" ref="T23:T66" si="7">Q23-I23/100</f>
-        <v>-1.4025968491482299E-5</v>
+        <f t="shared" ref="R23:R66" ca="1" si="6">Q23-C23</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S23" s="31" t="e">
+        <f t="shared" ref="S23:S66" ca="1" si="7">Q23-B23</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T23" s="31" t="e">
+        <f t="shared" ref="T23:T66" ca="1" si="8">Q23-I23/100</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>1.1666666666666667</v>
       </c>
-      <c r="B24" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A24)</f>
-        <v>1.5339333114264763E-3</v>
+      <c r="B24" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C24" s="1" t="e">
-        <f>_xll.qlQuoteValue(D24,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D24,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON14M_Quote</v>
       </c>
       <c r="E24" t="s">
         <v>118</v>
       </c>
       <c r="F24" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -4785,13 +4675,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS14M</v>
       </c>
-      <c r="I24" s="5">
-        <f t="shared" si="2"/>
-        <v>0.153</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="2"/>
-        <v>0.153</v>
+      <c r="I24" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J24" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K24" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H24,$I$4:$J$4,$I24:$J24,"SCOPE:SERVER"),"--")</f>
@@ -4803,59 +4693,59 @@
       </c>
       <c r="M24" s="5">
         <f>_xll.RtGet(K$4,$H24,$I$4)</f>
-        <v>0.153</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="N24" s="5">
         <f>_xll.RtGet(L$4,$H24,$I$4)</f>
-        <v>0.153</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="O24" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P24" t="str">
         <f>_xll.qlMakeOIS(,E24,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0082f#0001</v>
       </c>
-      <c r="Q24" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P24,InterestRatesTrigger)</f>
-        <v>1.5160926063219262E-3</v>
+      <c r="Q24" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P24,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R24" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S24" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.7840705104550138E-5</v>
-      </c>
-      <c r="T24" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.3907393678073716E-5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S24" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T24" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="32">
         <v>1.25</v>
       </c>
-      <c r="B25" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A25)</f>
-        <v>1.5522071111704391E-3</v>
-      </c>
-      <c r="C25" s="33">
-        <f>_xll.qlQuoteValue(D25,Model!$E$11:$E$29)</f>
-        <v>1.5299999999999999E-3</v>
+      <c r="B25" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A25)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C25" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D25,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D25" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON15M_Quote</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F25" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>95</v>
@@ -4864,13 +4754,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS15M</v>
       </c>
-      <c r="I25" s="35">
-        <f t="shared" si="2"/>
-        <v>0.153</v>
-      </c>
-      <c r="J25" s="35">
-        <f t="shared" si="2"/>
-        <v>0.153</v>
+      <c r="I25" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J25" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K25" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H25,$I$4:$J$4,$I25:$J25,"SCOPE:SERVER"),"--")</f>
@@ -4882,58 +4772,58 @@
       </c>
       <c r="M25" s="35">
         <f>_xll.RtGet(K$4,$H25,$I$4)</f>
-        <v>0.153</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="N25" s="35">
         <f>_xll.RtGet(L$4,$H25,$I$4)</f>
-        <v>0.153</v>
-      </c>
-      <c r="O25" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="O25" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P25" t="str">
         <f>_xll.qlMakeOIS(,E25,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0081b#0001</v>
       </c>
-      <c r="Q25" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P25,InterestRatesTrigger)</f>
-        <v>1.5299999999998867E-3</v>
-      </c>
-      <c r="R25" s="31">
-        <f t="shared" si="5"/>
-        <v>-1.1319070680748666E-16</v>
-      </c>
-      <c r="S25" s="31">
-        <f t="shared" si="6"/>
-        <v>-2.2207111170552364E-5</v>
-      </c>
-      <c r="T25" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.1319070680748666E-16</v>
+      <c r="Q25" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P25,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R25" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S25" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T25" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>1.3333333333333333</v>
       </c>
-      <c r="B26" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A26)</f>
-        <v>1.5720494837512711E-3</v>
+      <c r="B26" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C26" s="1" t="e">
-        <f>_xll.qlQuoteValue(D26,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D26,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON16M_Quote</v>
       </c>
       <c r="E26" t="s">
         <v>119</v>
       </c>
       <c r="F26" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4943,13 +4833,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS16M</v>
       </c>
-      <c r="I26" s="5">
-        <f t="shared" si="2"/>
-        <v>0.157</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="2"/>
-        <v>0.157</v>
+      <c r="I26" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J26" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K26" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H26,$I$4:$J$4,$I26:$J26,"SCOPE:SERVER"),"--")</f>
@@ -4961,58 +4851,58 @@
       </c>
       <c r="M26" s="5">
         <f>_xll.RtGet(K$4,$H26,$I$4)</f>
-        <v>0.157</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="N26" s="5">
         <f>_xll.RtGet(L$4,$H26,$I$4)</f>
-        <v>0.157</v>
-      </c>
-      <c r="O26" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="O26" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P26" t="str">
         <f>_xll.qlMakeOIS(,E26,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0081e#0001</v>
       </c>
-      <c r="Q26" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P26,InterestRatesTrigger)</f>
-        <v>1.5481927495271948E-3</v>
+      <c r="Q26" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P26,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R26" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S26" s="31">
-        <f t="shared" si="6"/>
-        <v>-2.3856734224076337E-5</v>
-      </c>
-      <c r="T26" s="31">
-        <f t="shared" si="7"/>
-        <v>-2.1807250472805247E-5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S26" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T26" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>1.4166666666666667</v>
       </c>
-      <c r="B27" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A27)</f>
-        <v>1.5939832867812624E-3</v>
+      <c r="B27" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C27" s="1" t="e">
-        <f>_xll.qlQuoteValue(D27,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D27,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON17M_Quote</v>
       </c>
       <c r="E27" t="s">
         <v>120</v>
       </c>
       <c r="F27" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -5022,13 +4912,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS17M</v>
       </c>
-      <c r="I27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.159</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.159</v>
+      <c r="I27" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J27" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K27" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H27,$I$4:$J$4,$I27:$J27,"SCOPE:SERVER"),"--")</f>
@@ -5040,59 +4930,59 @@
       </c>
       <c r="M27" s="5">
         <f>_xll.RtGet(K$4,$H27,$I$4)</f>
-        <v>0.159</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="N27" s="5">
         <f>_xll.RtGet(L$4,$H27,$I$4)</f>
-        <v>0.159</v>
-      </c>
-      <c r="O27" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="O27" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P27" t="str">
         <f>_xll.qlMakeOIS(,E27,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00834#0001</v>
       </c>
-      <c r="Q27" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P27,InterestRatesTrigger)</f>
-        <v>1.5709525184370826E-3</v>
+      <c r="Q27" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P27,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R27" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S27" s="31">
-        <f t="shared" si="6"/>
-        <v>-2.3030768344179785E-5</v>
-      </c>
-      <c r="T27" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.9047481562917482E-5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S27" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T27" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <v>1.5</v>
       </c>
-      <c r="B28" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A28)</f>
-        <v>1.6185313778727024E-3</v>
-      </c>
-      <c r="C28" s="33">
-        <f>_xll.qlQuoteValue(D28,Model!$E$11:$E$29)</f>
-        <v>1.6000000000000001E-3</v>
+      <c r="B28" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A28)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C28" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D28,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D28" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON18M_Quote</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>114</v>
       </c>
       <c r="F28" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>96</v>
@@ -5101,13 +4991,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS18M</v>
       </c>
-      <c r="I28" s="35">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
+      <c r="I28" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J28" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K28" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H28,$I$4:$J$4,$I28:$J28,"SCOPE:SERVER"),"--")</f>
@@ -5119,58 +5009,58 @@
       </c>
       <c r="M28" s="35">
         <f>_xll.RtGet(K$4,$H28,$I$4)</f>
-        <v>0.16</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="N28" s="35">
         <f>_xll.RtGet(L$4,$H28,$I$4)</f>
-        <v>0.16</v>
-      </c>
-      <c r="O28" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="O28" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P28" t="str">
         <f>_xll.qlMakeOIS(,E28,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0083a#0001</v>
       </c>
-      <c r="Q28" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P28,InterestRatesTrigger)</f>
-        <v>1.5999999999999296E-3</v>
-      </c>
-      <c r="R28" s="31">
-        <f t="shared" si="5"/>
-        <v>-7.0473141211557788E-17</v>
-      </c>
-      <c r="S28" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.8531377872772802E-5</v>
-      </c>
-      <c r="T28" s="31">
-        <f t="shared" si="7"/>
-        <v>-7.0473141211557788E-17</v>
+      <c r="Q28" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P28,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R28" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S28" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T28" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>1.5833333333333335</v>
       </c>
-      <c r="B29" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A29)</f>
-        <v>1.6462166146378814E-3</v>
+      <c r="B29" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C29" s="1" t="e">
-        <f>_xll.qlQuoteValue(D29,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D29,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON19M_Quote</v>
       </c>
       <c r="E29" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -5180,13 +5070,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS19M</v>
       </c>
-      <c r="I29" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16500000000000001</v>
+      <c r="I29" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J29" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K29" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H29,$I$4:$J$4,$I29:$J29,"SCOPE:SERVER"),"--")</f>
@@ -5198,58 +5088,58 @@
       </c>
       <c r="M29" s="5">
         <f>_xll.RtGet(K$4,$H29,$I$4)</f>
-        <v>0.16500000000000001</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="N29" s="5">
         <f>_xll.RtGet(L$4,$H29,$I$4)</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="O29" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="O29" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P29" t="str">
         <f>_xll.qlMakeOIS(,E29,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0082e#0001</v>
       </c>
-      <c r="Q29" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P29,InterestRatesTrigger)</f>
-        <v>1.6314137737194025E-3</v>
+      <c r="Q29" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P29,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R29" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S29" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.4802840918478905E-5</v>
-      </c>
-      <c r="T29" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.8586226280597464E-5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S29" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T29" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>1.6666666666666665</v>
       </c>
-      <c r="B30" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A30)</f>
-        <v>1.6775618546890888E-3</v>
+      <c r="B30" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C30" s="1" t="e">
-        <f>_xll.qlQuoteValue(D30,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D30,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON20M_Quote</v>
       </c>
       <c r="E30" t="s">
         <v>122</v>
       </c>
       <c r="F30" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -5259,13 +5149,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS20M</v>
       </c>
-      <c r="I30" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16800000000000001</v>
+      <c r="I30" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J30" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K30" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H30,$I$4:$J$4,$I30:$J30,"SCOPE:SERVER"),"--")</f>
@@ -5277,59 +5167,59 @@
       </c>
       <c r="M30" s="5">
         <f>_xll.RtGet(K$4,$H30,$I$4)</f>
-        <v>0.16800000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="N30" s="5">
         <f>_xll.RtGet(L$4,$H30,$I$4)</f>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="O30" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O30" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P30" t="str">
         <f>_xll.qlMakeOIS(,E30,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00815#0001</v>
       </c>
-      <c r="Q30" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P30,InterestRatesTrigger)</f>
-        <v>1.667919406365487E-3</v>
+      <c r="Q30" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P30,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R30" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S30" s="31">
-        <f t="shared" si="6"/>
-        <v>-9.6424483236017943E-6</v>
-      </c>
-      <c r="T30" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.2080593634513108E-5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S30" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T30" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="32">
         <v>1.75</v>
       </c>
-      <c r="B31" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A31)</f>
-        <v>1.7130899556386146E-3</v>
-      </c>
-      <c r="C31" s="33">
-        <f>_xll.qlQuoteValue(D31,Model!$E$11:$E$29)</f>
-        <v>1.7099999999999999E-3</v>
+      <c r="B31" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A31)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C31" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D31,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D31" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON21M_Quote</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>115</v>
       </c>
       <c r="F31" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>97</v>
@@ -5338,13 +5228,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS21M</v>
       </c>
-      <c r="I31" s="35">
-        <f t="shared" si="2"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="J31" s="35">
-        <f t="shared" si="2"/>
-        <v>0.17099999999999999</v>
+      <c r="I31" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J31" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K31" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H31,$I$4:$J$4,$I31:$J31,"SCOPE:SERVER"),"--")</f>
@@ -5356,58 +5246,58 @@
       </c>
       <c r="M31" s="35">
         <f>_xll.RtGet(K$4,$H31,$I$4)</f>
-        <v>0.17100000000000001</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="N31" s="35">
         <f>_xll.RtGet(L$4,$H31,$I$4)</f>
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="O31" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="O31" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P31" t="str">
         <f>_xll.qlMakeOIS(,E31,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00816#0001</v>
       </c>
-      <c r="Q31" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P31,InterestRatesTrigger)</f>
-        <v>1.7099999999993735E-3</v>
-      </c>
-      <c r="R31" s="31">
-        <f t="shared" si="5"/>
-        <v>-6.2645201526212446E-16</v>
-      </c>
-      <c r="S31" s="31">
-        <f t="shared" si="6"/>
-        <v>-3.0899556392410907E-6</v>
-      </c>
-      <c r="T31" s="31">
-        <f t="shared" si="7"/>
-        <v>-6.2645201526212446E-16</v>
+      <c r="Q31" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P31,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R31" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S31" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T31" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>1.8333333333333335</v>
       </c>
-      <c r="B32" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A32)</f>
-        <v>1.7533237750987486E-3</v>
+      <c r="B32" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C32" s="1" t="e">
-        <f>_xll.qlQuoteValue(D32,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D32,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON22M_Quote</v>
       </c>
       <c r="E32" t="s">
         <v>123</v>
       </c>
       <c r="F32" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -5417,13 +5307,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS22M</v>
       </c>
-      <c r="I32" s="5">
-        <f t="shared" si="2"/>
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="2"/>
-        <v>0.17500000000000002</v>
+      <c r="I32" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J32" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K32" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H32,$I$4:$J$4,$I32:$J32,"SCOPE:SERVER"),"--")</f>
@@ -5435,58 +5325,58 @@
       </c>
       <c r="M32" s="5">
         <f>_xll.RtGet(K$4,$H32,$I$4)</f>
-        <v>0.17499999999999999</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="N32" s="5">
         <f>_xll.RtGet(L$4,$H32,$I$4)</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="O32" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P32" t="str">
         <f>_xll.qlMakeOIS(,E32,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00818#0001</v>
       </c>
-      <c r="Q32" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P32,InterestRatesTrigger)</f>
-        <v>1.7518237328568837E-3</v>
+      <c r="Q32" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P32,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R32" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S32" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.5000422418649361E-6</v>
-      </c>
-      <c r="T32" s="31">
-        <f t="shared" si="7"/>
-        <v>1.8237328568834407E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S32" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T32" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>1.9166666666666665</v>
       </c>
-      <c r="B33" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A33)</f>
-        <v>1.7987861706817805E-3</v>
+      <c r="B33" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C33" s="1" t="e">
-        <f>_xll.qlQuoteValue(D33,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D33,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON23M_Quote</v>
       </c>
       <c r="E33" t="s">
         <v>124</v>
       </c>
       <c r="F33" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -5496,13 +5386,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS23M</v>
       </c>
-      <c r="I33" s="5">
-        <f t="shared" si="2"/>
-        <v>0.18</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="2"/>
-        <v>0.18</v>
+      <c r="I33" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J33" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K33" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H33,$I$4:$J$4,$I33:$J33,"SCOPE:SERVER"),"--")</f>
@@ -5514,59 +5404,59 @@
       </c>
       <c r="M33" s="5">
         <f>_xll.RtGet(K$4,$H33,$I$4)</f>
-        <v>0.18</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="N33" s="5">
         <f>_xll.RtGet(L$4,$H33,$I$4)</f>
-        <v>0.18</v>
-      </c>
-      <c r="O33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="O33" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P33" t="str">
         <f>_xll.qlMakeOIS(,E33,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0081d#0001</v>
       </c>
-      <c r="Q33" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P33,InterestRatesTrigger)</f>
-        <v>1.7957544447085743E-3</v>
+      <c r="Q33" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P33,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R33" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S33" s="31">
-        <f t="shared" si="6"/>
-        <v>-3.031725973206157E-6</v>
-      </c>
-      <c r="T33" s="31">
-        <f t="shared" si="7"/>
-        <v>-4.2455552914256317E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S33" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T33" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="32">
         <v>2</v>
       </c>
-      <c r="B34" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A34)</f>
-        <v>1.8500000000000001E-3</v>
-      </c>
-      <c r="C34" s="33">
-        <f>_xll.qlQuoteValue(D34,Model!$E$11:$E$29)</f>
-        <v>1.8500000000000001E-3</v>
+      <c r="B34" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A34)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C34" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D34,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D34" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON2Y_Quote</v>
       </c>
       <c r="E34" s="34" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>98</v>
@@ -5575,13 +5465,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS2Y</v>
       </c>
-      <c r="I34" s="35">
-        <f t="shared" si="2"/>
-        <v>0.185</v>
-      </c>
-      <c r="J34" s="35">
-        <f t="shared" si="2"/>
-        <v>0.185</v>
+      <c r="I34" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J34" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K34" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H34,$I$4:$J$4,$I34:$J34,"SCOPE:SERVER"),"--")</f>
@@ -5593,59 +5483,59 @@
       </c>
       <c r="M34" s="35">
         <f>_xll.RtGet(K$4,$H34,$I$4)</f>
-        <v>0.185</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="N34" s="35">
         <f>_xll.RtGet(L$4,$H34,$I$4)</f>
-        <v>0.185</v>
-      </c>
-      <c r="O34" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6.3E-2</v>
+      </c>
+      <c r="O34" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P34" t="str">
         <f>_xll.qlMakeOIS(,E34,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00822#0001</v>
       </c>
-      <c r="Q34" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P34,InterestRatesTrigger)</f>
-        <v>1.8499999999962698E-3</v>
-      </c>
-      <c r="R34" s="31">
-        <f t="shared" si="5"/>
-        <v>-3.7303059946536266E-15</v>
-      </c>
-      <c r="S34" s="31">
-        <f t="shared" si="6"/>
-        <v>-3.7303059946536266E-15</v>
-      </c>
-      <c r="T34" s="31">
-        <f t="shared" si="7"/>
-        <v>-3.7303059946536266E-15</v>
+      <c r="Q34" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P34,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R34" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S34" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T34" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="32">
         <v>3</v>
       </c>
-      <c r="B35" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A35)</f>
-        <v>2.8700000000000002E-3</v>
-      </c>
-      <c r="C35" s="33">
-        <f>_xll.qlQuoteValue(D35,Model!$E$11:$E$29)</f>
-        <v>2.8700000000000002E-3</v>
+      <c r="B35" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A35)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C35" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D35,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D35" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON3Y_Quote</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>99</v>
@@ -5654,13 +5544,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS3Y</v>
       </c>
-      <c r="I35" s="35">
-        <f t="shared" si="2"/>
-        <v>0.28700000000000003</v>
-      </c>
-      <c r="J35" s="35">
-        <f t="shared" si="2"/>
-        <v>0.28700000000000003</v>
+      <c r="I35" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J35" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K35" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H35,$I$4:$J$4,$I35:$J35,"SCOPE:SERVER"),"--")</f>
@@ -5672,59 +5562,59 @@
       </c>
       <c r="M35" s="35">
         <f>_xll.RtGet(K$4,$H35,$I$4)</f>
-        <v>0.28699999999999998</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="N35" s="35">
         <f>_xll.RtGet(L$4,$H35,$I$4)</f>
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="O35" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="O35" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P35" t="str">
         <f>_xll.qlMakeOIS(,E35,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00817#0001</v>
       </c>
-      <c r="Q35" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P35,InterestRatesTrigger)</f>
-        <v>2.8700000000001255E-3</v>
-      </c>
-      <c r="R35" s="31">
-        <f t="shared" si="5"/>
-        <v>1.2533377113932431E-16</v>
-      </c>
-      <c r="S35" s="31">
-        <f t="shared" si="6"/>
-        <v>1.2533377113932431E-16</v>
-      </c>
-      <c r="T35" s="31">
-        <f t="shared" si="7"/>
-        <v>1.2533377113932431E-16</v>
+      <c r="Q35" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P35,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R35" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S35" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T35" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="32">
         <v>4</v>
       </c>
-      <c r="B36" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A36)</f>
-        <v>4.3499999999999997E-3</v>
-      </c>
-      <c r="C36" s="33">
-        <f>_xll.qlQuoteValue(D36,Model!$E$11:$E$29)</f>
-        <v>4.3499999999999997E-3</v>
+      <c r="B36" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A36)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C36" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D36,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D36" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON4Y_Quote</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>100</v>
@@ -5733,13 +5623,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS4Y</v>
       </c>
-      <c r="I36" s="35">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999994</v>
-      </c>
-      <c r="J36" s="35">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999994</v>
+      <c r="I36" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J36" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K36" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H36,$I$4:$J$4,$I36:$J36,"SCOPE:SERVER"),"--")</f>
@@ -5751,59 +5641,59 @@
       </c>
       <c r="M36" s="35">
         <f>_xll.RtGet(K$4,$H36,$I$4)</f>
-        <v>0.435</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N36" s="35">
         <f>_xll.RtGet(L$4,$H36,$I$4)</f>
-        <v>0.435</v>
-      </c>
-      <c r="O36" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O36" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P36" t="str">
         <f>_xll.qlMakeOIS(,E36,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00832#0001</v>
       </c>
-      <c r="Q36" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P36,InterestRatesTrigger)</f>
-        <v>4.3499999999999693E-3</v>
-      </c>
-      <c r="R36" s="31">
-        <f t="shared" si="5"/>
-        <v>-3.0357660829594124E-17</v>
-      </c>
-      <c r="S36" s="31">
-        <f t="shared" si="6"/>
-        <v>-3.0357660829594124E-17</v>
-      </c>
-      <c r="T36" s="31">
-        <f t="shared" si="7"/>
-        <v>-3.0357660829594124E-17</v>
+      <c r="Q36" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P36,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R36" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S36" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T36" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="32">
         <v>5</v>
       </c>
-      <c r="B37" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A37)</f>
-        <v>6.0699999999999999E-3</v>
-      </c>
-      <c r="C37" s="33">
-        <f>_xll.qlQuoteValue(D37,Model!$E$11:$E$29)</f>
-        <v>6.0699999999999999E-3</v>
+      <c r="B37" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A37)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C37" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D37,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D37" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON5Y_Quote</v>
       </c>
       <c r="E37" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>101</v>
@@ -5812,13 +5702,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS5Y</v>
       </c>
-      <c r="I37" s="35">
-        <f t="shared" si="2"/>
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="J37" s="35">
-        <f t="shared" si="2"/>
-        <v>0.60699999999999998</v>
+      <c r="I37" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J37" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K37" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H37,$I$4:$J$4,$I37:$J37,"SCOPE:SERVER"),"--")</f>
@@ -5830,59 +5720,59 @@
       </c>
       <c r="M37" s="35">
         <f>_xll.RtGet(K$4,$H37,$I$4)</f>
-        <v>0.60699999999999998</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="N37" s="35">
         <f>_xll.RtGet(L$4,$H37,$I$4)</f>
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="O37" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="O37" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P37" t="str">
         <f>_xll.qlMakeOIS(,E37,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00830#0001</v>
       </c>
-      <c r="Q37" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P37,InterestRatesTrigger)</f>
-        <v>6.0699999999998091E-3</v>
-      </c>
-      <c r="R37" s="31">
-        <f t="shared" si="5"/>
-        <v>-1.9081958235744878E-16</v>
-      </c>
-      <c r="S37" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.9081958235744878E-16</v>
-      </c>
-      <c r="T37" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.9081958235744878E-16</v>
+      <c r="Q37" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P37,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R37" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S37" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T37" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="32">
         <v>6</v>
       </c>
-      <c r="B38" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A38)</f>
-        <v>7.8899999999999994E-3</v>
-      </c>
-      <c r="C38" s="33">
-        <f>_xll.qlQuoteValue(D38,Model!$E$11:$E$29)</f>
-        <v>7.8899999999999994E-3</v>
+      <c r="B38" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A38)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C38" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D38,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D38" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON6Y_Quote</v>
       </c>
       <c r="E38" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>102</v>
@@ -5891,13 +5781,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS6Y</v>
       </c>
-      <c r="I38" s="35">
-        <f t="shared" ref="I38:J66" si="8">ROUND(IF($F38,$C38,$B38),5)*100</f>
-        <v>0.78899999999999992</v>
-      </c>
-      <c r="J38" s="35">
-        <f t="shared" si="8"/>
-        <v>0.78899999999999992</v>
+      <c r="I38" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J38" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K38" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H38,$I$4:$J$4,$I38:$J38,"SCOPE:SERVER"),"--")</f>
@@ -5909,59 +5799,59 @@
       </c>
       <c r="M38" s="35">
         <f>_xll.RtGet(K$4,$H38,$I$4)</f>
-        <v>0.78900000000000003</v>
+        <v>0.309</v>
       </c>
       <c r="N38" s="35">
         <f>_xll.RtGet(L$4,$H38,$I$4)</f>
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="O38" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.309</v>
+      </c>
+      <c r="O38" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P38" t="str">
         <f>_xll.qlMakeOIS(,E38,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0082b#0001</v>
       </c>
-      <c r="Q38" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P38,InterestRatesTrigger)</f>
-        <v>7.8899999999998607E-3</v>
-      </c>
-      <c r="R38" s="31">
-        <f t="shared" si="5"/>
-        <v>-1.3877787807814457E-16</v>
-      </c>
-      <c r="S38" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.3877787807814457E-16</v>
-      </c>
-      <c r="T38" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.3877787807814457E-16</v>
+      <c r="Q38" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P38,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R38" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S38" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T38" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="32">
         <v>7</v>
       </c>
-      <c r="B39" s="33">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A39)</f>
-        <v>9.6799999999999994E-3</v>
-      </c>
-      <c r="C39" s="33">
-        <f>_xll.qlQuoteValue(D39,Model!$E$11:$E$29)</f>
-        <v>9.6799999999999994E-3</v>
+      <c r="B39" s="33" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A39)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C39" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(D39,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D39" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON7Y_Quote</v>
       </c>
       <c r="E39" s="34" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>103</v>
@@ -5970,13 +5860,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS7Y</v>
       </c>
-      <c r="I39" s="35">
-        <f t="shared" si="8"/>
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="J39" s="35">
-        <f t="shared" si="8"/>
-        <v>0.96799999999999997</v>
+      <c r="I39" s="35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J39" s="35" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K39" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H39,$I$4:$J$4,$I39:$J39,"SCOPE:SERVER"),"--")</f>
@@ -5988,59 +5878,59 @@
       </c>
       <c r="M39" s="35">
         <f>_xll.RtGet(K$4,$H39,$I$4)</f>
-        <v>0.96799999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="N39" s="35">
         <f>_xll.RtGet(L$4,$H39,$I$4)</f>
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="O39" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.46</v>
+      </c>
+      <c r="O39" s="35" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P39" t="str">
         <f>_xll.qlMakeOIS(,E39,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00814#0001</v>
       </c>
-      <c r="Q39" s="36">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P39,InterestRatesTrigger)</f>
-        <v>9.6799999999998797E-3</v>
-      </c>
-      <c r="R39" s="31">
-        <f t="shared" si="5"/>
-        <v>-1.1969591984239969E-16</v>
-      </c>
-      <c r="S39" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.1969591984239969E-16</v>
-      </c>
-      <c r="T39" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.1969591984239969E-16</v>
+      <c r="Q39" s="36" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P39,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R39" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S39" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T39" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
         <v>8</v>
       </c>
-      <c r="B40" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A40)</f>
-        <v>1.1379999999999999E-2</v>
-      </c>
-      <c r="C40" s="1">
-        <f>_xll.qlQuoteValue(D40,Model!$E$11:$E$29)</f>
-        <v>1.1379999999999999E-2</v>
+      <c r="B40" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A40)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C40" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D40,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON8Y_Quote</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>104</v>
@@ -6049,13 +5939,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS8Y</v>
       </c>
-      <c r="I40" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="J40" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1379999999999999</v>
+      <c r="I40" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J40" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K40" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H40,$I$4:$J$4,$I40:$J40,"SCOPE:SERVER"),"--")</f>
@@ -6067,59 +5957,59 @@
       </c>
       <c r="M40" s="5">
         <f>_xll.RtGet(K$4,$H40,$I$4)</f>
-        <v>1.1379999999999999</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="N40" s="5">
         <f>_xll.RtGet(L$4,$H40,$I$4)</f>
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="O40" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P40" t="str">
         <f>_xll.qlMakeOIS(,E40,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00833#0001</v>
       </c>
-      <c r="Q40" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P40,InterestRatesTrigger)</f>
-        <v>1.1379999999999875E-2</v>
-      </c>
-      <c r="R40" s="31">
-        <f t="shared" si="5"/>
-        <v>-1.2490009027033011E-16</v>
-      </c>
-      <c r="S40" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.2490009027033011E-16</v>
-      </c>
-      <c r="T40" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.2490009027033011E-16</v>
+      <c r="Q40" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P40,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R40" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S40" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T40" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>9</v>
       </c>
-      <c r="B41" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A41)</f>
-        <v>1.295E-2</v>
-      </c>
-      <c r="C41" s="1">
-        <f>_xll.qlQuoteValue(D41,Model!$E$11:$E$29)</f>
-        <v>1.295E-2</v>
+      <c r="B41" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A41)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C41" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D41,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON9Y_Quote</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>105</v>
@@ -6128,13 +6018,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS9Y</v>
       </c>
-      <c r="I41" s="5">
-        <f t="shared" si="8"/>
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="J41" s="5">
-        <f t="shared" si="8"/>
-        <v>1.2949999999999999</v>
+      <c r="I41" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J41" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K41" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H41,$I$4:$J$4,$I41:$J41,"SCOPE:SERVER"),"--")</f>
@@ -6146,59 +6036,59 @@
       </c>
       <c r="M41" s="5">
         <f>_xll.RtGet(K$4,$H41,$I$4)</f>
-        <v>1.2949999999999999</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="N41" s="5">
         <f>_xll.RtGet(L$4,$H41,$I$4)</f>
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="O41" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P41" t="str">
         <f>_xll.qlMakeOIS(,E41,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0082a#0001</v>
       </c>
-      <c r="Q41" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P41,InterestRatesTrigger)</f>
-        <v>1.2950000000000015E-2</v>
-      </c>
-      <c r="R41" s="31">
-        <f t="shared" si="5"/>
-        <v>1.5612511283791264E-17</v>
-      </c>
-      <c r="S41" s="31">
-        <f t="shared" si="6"/>
-        <v>1.5612511283791264E-17</v>
-      </c>
-      <c r="T41" s="31">
-        <f t="shared" si="7"/>
-        <v>1.5612511283791264E-17</v>
+      <c r="Q41" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P41,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R41" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S41" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T41" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>10</v>
       </c>
-      <c r="B42" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A42)</f>
-        <v>1.4380000000000002E-2</v>
-      </c>
-      <c r="C42" s="1">
-        <f>_xll.qlQuoteValue(D42,Model!$E$11:$E$29)</f>
-        <v>1.4380000000000002E-2</v>
+      <c r="B42" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A42)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C42" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D42,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON10Y_Quote</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>106</v>
@@ -6207,13 +6097,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS10Y</v>
       </c>
-      <c r="I42" s="5">
-        <f t="shared" si="8"/>
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" si="8"/>
-        <v>1.4379999999999999</v>
+      <c r="I42" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J42" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K42" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H42,$I$4:$J$4,$I42:$J42,"SCOPE:SERVER"),"--")</f>
@@ -6225,59 +6115,59 @@
       </c>
       <c r="M42" s="5">
         <f>_xll.RtGet(K$4,$H42,$I$4)</f>
-        <v>1.4379999999999999</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="N42" s="5">
         <f>_xll.RtGet(L$4,$H42,$I$4)</f>
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O42" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P42" t="str">
         <f>_xll.qlMakeOIS(,E42,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00813#0001</v>
       </c>
-      <c r="Q42" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P42,InterestRatesTrigger)</f>
-        <v>1.4380000000000025E-2</v>
-      </c>
-      <c r="R42" s="31">
-        <f t="shared" si="5"/>
-        <v>2.2551405187698492E-17</v>
-      </c>
-      <c r="S42" s="31">
-        <f t="shared" si="6"/>
-        <v>2.2551405187698492E-17</v>
-      </c>
-      <c r="T42" s="31">
-        <f t="shared" si="7"/>
-        <v>2.6020852139652106E-17</v>
+      <c r="Q42" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P42,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R42" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S42" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T42" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>11</v>
       </c>
-      <c r="B43" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A43)</f>
-        <v>1.5670000000000003E-2</v>
-      </c>
-      <c r="C43" s="1">
-        <f>_xll.qlQuoteValue(D43,Model!$E$11:$E$29)</f>
-        <v>1.5670000000000003E-2</v>
+      <c r="B43" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A43)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C43" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D43,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON11Y_Quote</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>107</v>
@@ -6286,13 +6176,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS11Y</v>
       </c>
-      <c r="I43" s="5">
-        <f t="shared" si="8"/>
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="J43" s="5">
-        <f t="shared" si="8"/>
-        <v>1.5669999999999999</v>
+      <c r="I43" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J43" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K43" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H43,$I$4:$J$4,$I43:$J43,"SCOPE:SERVER"),"--")</f>
@@ -6304,59 +6194,59 @@
       </c>
       <c r="M43" s="5">
         <f>_xll.RtGet(K$4,$H43,$I$4)</f>
-        <v>1.5669999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="N43" s="5">
         <f>_xll.RtGet(L$4,$H43,$I$4)</f>
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="O43" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="O43" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P43" t="str">
         <f>_xll.qlMakeOIS(,E43,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00820#0001</v>
       </c>
-      <c r="Q43" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P43,InterestRatesTrigger)</f>
-        <v>1.5669999999999972E-2</v>
-      </c>
-      <c r="R43" s="31">
-        <f t="shared" si="5"/>
-        <v>-3.1225022567582528E-17</v>
-      </c>
-      <c r="S43" s="31">
-        <f t="shared" si="6"/>
-        <v>-3.1225022567582528E-17</v>
-      </c>
-      <c r="T43" s="31">
-        <f t="shared" si="7"/>
-        <v>-2.7755575615628914E-17</v>
+      <c r="Q43" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P43,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R43" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S43" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T43" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
         <v>12</v>
       </c>
-      <c r="B44" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A44)</f>
-        <v>1.6810000000000002E-2</v>
-      </c>
-      <c r="C44" s="1">
-        <f>_xll.qlQuoteValue(D44,Model!$E$11:$E$29)</f>
-        <v>1.6810000000000002E-2</v>
+      <c r="B44" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A44)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C44" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D44,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON12Y_Quote</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>108</v>
@@ -6365,13 +6255,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS12Y</v>
       </c>
-      <c r="I44" s="5">
-        <f t="shared" si="8"/>
-        <v>1.6809999999999998</v>
-      </c>
-      <c r="J44" s="5">
-        <f t="shared" si="8"/>
-        <v>1.6809999999999998</v>
+      <c r="I44" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J44" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K44" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H44,$I$4:$J$4,$I44:$J44,"SCOPE:SERVER"),"--")</f>
@@ -6383,58 +6273,58 @@
       </c>
       <c r="M44" s="5">
         <f>_xll.RtGet(K$4,$H44,$I$4)</f>
-        <v>1.681</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="N44" s="5">
         <f>_xll.RtGet(L$4,$H44,$I$4)</f>
-        <v>1.681</v>
-      </c>
-      <c r="O44" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="O44" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P44" t="str">
         <f>_xll.qlMakeOIS(,E44,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0082d#0001</v>
       </c>
-      <c r="Q44" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P44,InterestRatesTrigger)</f>
-        <v>1.6810000000000071E-2</v>
-      </c>
-      <c r="R44" s="31">
-        <f t="shared" si="5"/>
-        <v>6.9388939039072284E-17</v>
-      </c>
-      <c r="S44" s="31">
-        <f t="shared" si="6"/>
-        <v>6.9388939039072284E-17</v>
-      </c>
-      <c r="T44" s="31">
-        <f t="shared" si="7"/>
-        <v>7.2858385991025898E-17</v>
+      <c r="Q44" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P44,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R44" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S44" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T44" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
         <v>13</v>
       </c>
-      <c r="B45" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A45)</f>
-        <v>1.7809005353901071E-2</v>
+      <c r="B45" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A45)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C45" s="1" t="e">
-        <f>_xll.qlQuoteValue(D45,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D45,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON13Y_Quote</v>
       </c>
       <c r="E45" t="s">
         <v>60</v>
       </c>
       <c r="F45" s="1" t="b">
-        <f t="shared" ref="F45:F66" si="9">NOT(ISERROR(C45))</f>
+        <f t="shared" ref="F45:F66" ca="1" si="9">NOT(ISERROR(C45))</f>
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6444,13 +6334,13 @@
         <f t="shared" ref="H45:H66" si="10">Currency&amp;H$4&amp;$E45</f>
         <v>EUROISDDS13Y</v>
       </c>
-      <c r="I45" s="5">
-        <f t="shared" si="8"/>
-        <v>1.7809999999999999</v>
-      </c>
-      <c r="J45" s="5">
-        <f t="shared" si="8"/>
-        <v>1.7809999999999999</v>
+      <c r="I45" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J45" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K45" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H45,$I$4:$J$4,$I45:$J45,"SCOPE:SERVER"),"--")</f>
@@ -6462,58 +6352,58 @@
       </c>
       <c r="M45" s="5">
         <f>_xll.RtGet(K$4,$H45,$I$4)</f>
-        <v>1.7809999999999999</v>
+        <v>1.1970000000000001</v>
       </c>
       <c r="N45" s="5">
         <f>_xll.RtGet(L$4,$H45,$I$4)</f>
-        <v>1.7809999999999999</v>
-      </c>
-      <c r="O45" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="O45" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P45" t="str">
         <f>_xll.qlMakeOIS(,E45,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00824#0001</v>
       </c>
-      <c r="Q45" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P45,InterestRatesTrigger)</f>
-        <v>1.7815729158945769E-2</v>
+      <c r="Q45" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P45,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R45" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S45" s="31">
-        <f t="shared" si="6"/>
-        <v>6.7238050446977171E-6</v>
-      </c>
-      <c r="T45" s="31">
-        <f t="shared" si="7"/>
-        <v>5.7291589457691972E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S45" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T45" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>14</v>
       </c>
-      <c r="B46" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A46)</f>
-        <v>1.8674033113873671E-2</v>
+      <c r="B46" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A46)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C46" s="1" t="e">
-        <f>_xll.qlQuoteValue(D46,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D46,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON14Y_Quote</v>
       </c>
       <c r="E46" t="s">
         <v>61</v>
       </c>
       <c r="F46" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -6523,13 +6413,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS14Y</v>
       </c>
-      <c r="I46" s="5">
-        <f t="shared" si="8"/>
-        <v>1.867</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="8"/>
-        <v>1.867</v>
+      <c r="I46" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J46" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K46" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H46,$I$4:$J$4,$I46:$J46,"SCOPE:SERVER"),"--")</f>
@@ -6541,59 +6431,59 @@
       </c>
       <c r="M46" s="5">
         <f>_xll.RtGet(K$4,$H46,$I$4)</f>
-        <v>1.867</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="N46" s="5">
         <f>_xll.RtGet(L$4,$H46,$I$4)</f>
-        <v>1.867</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="O46" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P46" t="str">
         <f>_xll.qlMakeOIS(,E46,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00828#0001</v>
       </c>
-      <c r="Q46" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P46,InterestRatesTrigger)</f>
-        <v>1.8678075216833387E-2</v>
+      <c r="Q46" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P46,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R46" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S46" s="31">
-        <f t="shared" si="6"/>
-        <v>4.0421029597163816E-6</v>
-      </c>
-      <c r="T46" s="31">
-        <f t="shared" si="7"/>
-        <v>8.0752168333877994E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S46" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T46" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <v>15</v>
       </c>
-      <c r="B47" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A47)</f>
-        <v>1.9409999999999997E-2</v>
-      </c>
-      <c r="C47" s="1">
-        <f>_xll.qlQuoteValue(D47,Model!$E$11:$E$29)</f>
-        <v>1.9409999999999997E-2</v>
+      <c r="B47" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A47)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C47" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D47,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EUREON15Y_Quote</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="1" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>109</v>
@@ -6602,13 +6492,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS15Y</v>
       </c>
-      <c r="I47" s="5">
-        <f t="shared" si="8"/>
-        <v>1.9410000000000001</v>
-      </c>
-      <c r="J47" s="5">
-        <f t="shared" si="8"/>
-        <v>1.9410000000000001</v>
+      <c r="I47" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J47" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K47" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H47,$I$4:$J$4,$I47:$J47,"SCOPE:SERVER"),"--")</f>
@@ -6620,48 +6510,48 @@
       </c>
       <c r="M47" s="5">
         <f>_xll.RtGet(K$4,$H47,$I$4)</f>
-        <v>1.9410000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="N47" s="5">
         <f>_xll.RtGet(L$4,$H47,$I$4)</f>
-        <v>1.9410000000000001</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.35</v>
+      </c>
+      <c r="O47" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P47" t="str">
         <f>_xll.qlMakeOIS(,E47,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0081a#0001</v>
       </c>
-      <c r="Q47" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P47,InterestRatesTrigger)</f>
-        <v>1.9409999999997523E-2</v>
-      </c>
-      <c r="R47" s="31">
-        <f t="shared" si="5"/>
-        <v>-2.4737156767429269E-15</v>
-      </c>
-      <c r="S47" s="31">
-        <f t="shared" si="6"/>
-        <v>-2.4737156767429269E-15</v>
-      </c>
-      <c r="T47" s="31">
-        <f t="shared" si="7"/>
-        <v>-2.4771851236948805E-15</v>
+      <c r="Q47" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P47,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R47" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S47" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T47" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>16</v>
       </c>
-      <c r="B48" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A48)</f>
-        <v>2.0023694680155742E-2</v>
+      <c r="B48" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A48)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C48" s="1" t="e">
-        <f>_xll.qlQuoteValue(D48,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D48,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" ref="D48:D66" si="11">Currency&amp;D$4&amp;$E48&amp;D$3</f>
@@ -6671,7 +6561,7 @@
         <v>62</v>
       </c>
       <c r="F48" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -6681,13 +6571,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS16Y</v>
       </c>
-      <c r="I48" s="5">
-        <f t="shared" si="8"/>
-        <v>2.0019999999999998</v>
-      </c>
-      <c r="J48" s="5">
-        <f t="shared" si="8"/>
-        <v>2.0019999999999998</v>
+      <c r="I48" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J48" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K48" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H48,$I$4:$J$4,$I48:$J48,"SCOPE:SERVER"),"--")</f>
@@ -6699,48 +6589,48 @@
       </c>
       <c r="M48" s="5">
         <f>_xll.RtGet(K$4,$H48,$I$4)</f>
-        <v>2.0019999999999998</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="N48" s="5">
         <f>_xll.RtGet(L$4,$H48,$I$4)</f>
-        <v>2.0019999999999998</v>
-      </c>
-      <c r="O48" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="O48" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P48" t="str">
         <f>_xll.qlMakeOIS(,E48,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00810#0001</v>
       </c>
-      <c r="Q48" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P48,InterestRatesTrigger)</f>
-        <v>2.0015653973576984E-2</v>
+      <c r="Q48" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P48,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R48" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S48" s="31">
-        <f t="shared" si="6"/>
-        <v>-8.0407065787581333E-6</v>
-      </c>
-      <c r="T48" s="31">
-        <f t="shared" si="7"/>
-        <v>-4.3460264230119061E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S48" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T48" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>17</v>
       </c>
-      <c r="B49" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A49)</f>
-        <v>2.0529393613390519E-2</v>
+      <c r="B49" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A49)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C49" s="1" t="e">
-        <f>_xll.qlQuoteValue(D49,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D49,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="11"/>
@@ -6750,7 +6640,7 @@
         <v>63</v>
       </c>
       <c r="F49" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -6760,13 +6650,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS17Y</v>
       </c>
-      <c r="I49" s="5">
-        <f t="shared" si="8"/>
-        <v>2.0529999999999999</v>
-      </c>
-      <c r="J49" s="5">
-        <f t="shared" si="8"/>
-        <v>2.0529999999999999</v>
+      <c r="I49" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J49" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K49" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H49,$I$4:$J$4,$I49:$J49,"SCOPE:SERVER"),"--")</f>
@@ -6778,48 +6668,48 @@
       </c>
       <c r="M49" s="5">
         <f>_xll.RtGet(K$4,$H49,$I$4)</f>
-        <v>2.0529999999999999</v>
+        <v>1.466</v>
       </c>
       <c r="N49" s="5">
         <f>_xll.RtGet(L$4,$H49,$I$4)</f>
-        <v>2.0529999999999999</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.466</v>
+      </c>
+      <c r="O49" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P49" t="str">
         <f>_xll.qlMakeOIS(,E49,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00838#0001</v>
       </c>
-      <c r="Q49" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P49,InterestRatesTrigger)</f>
-        <v>2.0515833374660356E-2</v>
+      <c r="Q49" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P49,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R49" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S49" s="31">
-        <f t="shared" si="6"/>
-        <v>-1.3560238730163376E-5</v>
-      </c>
-      <c r="T49" s="31">
-        <f t="shared" si="7"/>
-        <v>-1.4166625339644134E-5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S49" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T49" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>18</v>
       </c>
-      <c r="B50" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A50)</f>
-        <v>2.0943245206547424E-2</v>
+      <c r="B50" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A50)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C50" s="1" t="e">
-        <f>_xll.qlQuoteValue(D50,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D50,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="11"/>
@@ -6829,7 +6719,7 @@
         <v>64</v>
       </c>
       <c r="F50" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -6839,13 +6729,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS18Y</v>
       </c>
-      <c r="I50" s="5">
-        <f t="shared" si="8"/>
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="J50" s="5">
-        <f t="shared" si="8"/>
-        <v>2.0939999999999999</v>
+      <c r="I50" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J50" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K50" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H50,$I$4:$J$4,$I50:$J50,"SCOPE:SERVER"),"--")</f>
@@ -6857,48 +6747,48 @@
       </c>
       <c r="M50" s="5">
         <f>_xll.RtGet(K$4,$H50,$I$4)</f>
-        <v>2.0939999999999999</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="N50" s="5">
         <f>_xll.RtGet(L$4,$H50,$I$4)</f>
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="O50" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="O50" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P50" t="str">
         <f>_xll.qlMakeOIS(,E50,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00831#0001</v>
       </c>
-      <c r="Q50" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P50,InterestRatesTrigger)</f>
-        <v>2.0933289908350486E-2</v>
+      <c r="Q50" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P50,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R50" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S50" s="31">
-        <f t="shared" si="6"/>
-        <v>-9.9552981969383558E-6</v>
-      </c>
-      <c r="T50" s="31">
-        <f t="shared" si="7"/>
-        <v>-6.7100916495144158E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S50" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T50" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>19</v>
       </c>
-      <c r="B51" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A51)</f>
-        <v>2.1281397866469553E-2</v>
+      <c r="B51" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A51)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C51" s="1" t="e">
-        <f>_xll.qlQuoteValue(D51,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D51,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="11"/>
@@ -6908,7 +6798,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -6918,13 +6808,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS19Y</v>
       </c>
-      <c r="I51" s="5">
-        <f t="shared" si="8"/>
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="J51" s="5">
-        <f t="shared" si="8"/>
-        <v>2.1280000000000001</v>
+      <c r="I51" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J51" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K51" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H51,$I$4:$J$4,$I51:$J51,"SCOPE:SERVER"),"--")</f>
@@ -6936,48 +6826,48 @@
       </c>
       <c r="M51" s="5">
         <f>_xll.RtGet(K$4,$H51,$I$4)</f>
-        <v>2.1280000000000001</v>
+        <v>1.554</v>
       </c>
       <c r="N51" s="5">
         <f>_xll.RtGet(L$4,$H51,$I$4)</f>
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="O51" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.554</v>
+      </c>
+      <c r="O51" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P51" t="str">
         <f>_xll.qlMakeOIS(,E51,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0080f#0001</v>
       </c>
-      <c r="Q51" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P51,InterestRatesTrigger)</f>
-        <v>2.1275418697936085E-2</v>
+      <c r="Q51" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P51,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R51" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S51" s="31">
-        <f t="shared" si="6"/>
-        <v>-5.9791685334681377E-6</v>
-      </c>
-      <c r="T51" s="31">
-        <f t="shared" si="7"/>
-        <v>-4.5813020639155766E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S51" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T51" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>20</v>
       </c>
-      <c r="B52" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A52)</f>
-        <v>2.1559999999999996E-2</v>
-      </c>
-      <c r="C52" s="1">
-        <f>_xll.qlQuoteValue(D52,Model!$E$11:$E$29)</f>
-        <v>2.1559999999999996E-2</v>
+      <c r="B52" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A52)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C52" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D52,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="11"/>
@@ -6987,8 +6877,8 @@
         <v>16</v>
       </c>
       <c r="F52" s="1" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>110</v>
@@ -6997,13 +6887,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS20Y</v>
       </c>
-      <c r="I52" s="5">
-        <f t="shared" si="8"/>
-        <v>2.1560000000000001</v>
-      </c>
-      <c r="J52" s="5">
-        <f t="shared" si="8"/>
-        <v>2.1560000000000001</v>
+      <c r="I52" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J52" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K52" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H52,$I$4:$J$4,$I52:$J52,"SCOPE:SERVER"),"--")</f>
@@ -7015,48 +6905,48 @@
       </c>
       <c r="M52" s="5">
         <f>_xll.RtGet(K$4,$H52,$I$4)</f>
-        <v>2.1560000000000001</v>
+        <v>1.589</v>
       </c>
       <c r="N52" s="5">
         <f>_xll.RtGet(L$4,$H52,$I$4)</f>
-        <v>2.1560000000000001</v>
-      </c>
-      <c r="O52" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.589</v>
+      </c>
+      <c r="O52" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P52" t="str">
         <f>_xll.qlMakeOIS(,E52,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0082c#0001</v>
       </c>
-      <c r="Q52" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P52,InterestRatesTrigger)</f>
-        <v>2.1559999999992627E-2</v>
-      </c>
-      <c r="R52" s="31">
-        <f t="shared" si="5"/>
-        <v>-7.3691053259494765E-15</v>
-      </c>
-      <c r="S52" s="31">
-        <f t="shared" si="6"/>
-        <v>-7.3691053259494765E-15</v>
-      </c>
-      <c r="T52" s="31">
-        <f t="shared" si="7"/>
-        <v>-7.3760442198533838E-15</v>
+      <c r="Q52" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P52,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R52" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S52" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T52" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
         <v>21</v>
       </c>
-      <c r="B53" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A53)</f>
-        <v>2.1793320437891568E-2</v>
+      <c r="B53" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A53)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C53" s="1" t="e">
-        <f>_xll.qlQuoteValue(D53,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D53,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="11"/>
@@ -7066,7 +6956,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -7076,13 +6966,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS21Y</v>
       </c>
-      <c r="I53" s="5">
-        <f t="shared" si="8"/>
-        <v>2.1789999999999998</v>
-      </c>
-      <c r="J53" s="5">
-        <f t="shared" si="8"/>
-        <v>2.1789999999999998</v>
+      <c r="I53" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J53" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K53" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H53,$I$4:$J$4,$I53:$J53,"SCOPE:SERVER"),"--")</f>
@@ -7094,48 +6984,48 @@
       </c>
       <c r="M53" s="5">
         <f>_xll.RtGet(K$4,$H53,$I$4)</f>
-        <v>2.1789999999999998</v>
+        <v>1.62</v>
       </c>
       <c r="N53" s="5">
         <f>_xll.RtGet(L$4,$H53,$I$4)</f>
-        <v>2.1789999999999998</v>
-      </c>
-      <c r="O53" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.62</v>
+      </c>
+      <c r="O53" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P53" t="str">
         <f>_xll.qlMakeOIS(,E53,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00812#0001</v>
       </c>
-      <c r="Q53" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P53,InterestRatesTrigger)</f>
-        <v>2.1795019566403614E-2</v>
+      <c r="Q53" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P53,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R53" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S53" s="31">
-        <f t="shared" si="6"/>
-        <v>1.6991285120455946E-6</v>
-      </c>
-      <c r="T53" s="31">
-        <f t="shared" si="7"/>
-        <v>5.0195664036169207E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S53" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T53" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>22</v>
       </c>
-      <c r="B54" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A54)</f>
-        <v>2.1988109706535957E-2</v>
+      <c r="B54" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A54)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C54" s="1" t="e">
-        <f>_xll.qlQuoteValue(D54,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D54,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="11"/>
@@ -7145,7 +7035,7 @@
         <v>67</v>
       </c>
       <c r="F54" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -7155,13 +7045,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS22Y</v>
       </c>
-      <c r="I54" s="5">
-        <f t="shared" si="8"/>
-        <v>2.1989999999999998</v>
-      </c>
-      <c r="J54" s="5">
-        <f t="shared" si="8"/>
-        <v>2.1989999999999998</v>
+      <c r="I54" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J54" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K54" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H54,$I$4:$J$4,$I54:$J54,"SCOPE:SERVER"),"--")</f>
@@ -7173,48 +7063,48 @@
       </c>
       <c r="M54" s="5">
         <f>_xll.RtGet(K$4,$H54,$I$4)</f>
-        <v>2.1989999999999998</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="N54" s="5">
         <f>_xll.RtGet(L$4,$H54,$I$4)</f>
-        <v>2.1989999999999998</v>
-      </c>
-      <c r="O54" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="O54" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P54" t="str">
         <f>_xll.qlMakeOIS(,E54,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00823#0001</v>
       </c>
-      <c r="Q54" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P54,InterestRatesTrigger)</f>
-        <v>2.1990351598946786E-2</v>
+      <c r="Q54" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P54,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R54" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S54" s="31">
-        <f t="shared" si="6"/>
-        <v>2.2418924108293103E-6</v>
-      </c>
-      <c r="T54" s="31">
-        <f t="shared" si="7"/>
-        <v>3.5159894678712944E-7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S54" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T54" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>23</v>
       </c>
-      <c r="B55" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A55)</f>
-        <v>2.2149238756234556E-2</v>
+      <c r="B55" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A55)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C55" s="1" t="e">
-        <f>_xll.qlQuoteValue(D55,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D55,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="11"/>
@@ -7224,7 +7114,7 @@
         <v>68</v>
       </c>
       <c r="F55" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -7234,13 +7124,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS23Y</v>
       </c>
-      <c r="I55" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2149999999999999</v>
-      </c>
-      <c r="J55" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2149999999999999</v>
+      <c r="I55" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J55" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K55" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H55,$I$4:$J$4,$I55:$J55,"SCOPE:SERVER"),"--")</f>
@@ -7252,48 +7142,48 @@
       </c>
       <c r="M55" s="5">
         <f>_xll.RtGet(K$4,$H55,$I$4)</f>
-        <v>2.2149999999999999</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="N55" s="5">
         <f>_xll.RtGet(L$4,$H55,$I$4)</f>
-        <v>2.2149999999999999</v>
-      </c>
-      <c r="O55" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="O55" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P55" t="str">
         <f>_xll.qlMakeOIS(,E55,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0081f#0001</v>
       </c>
-      <c r="Q55" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P55,InterestRatesTrigger)</f>
-        <v>2.2150752152011299E-2</v>
+      <c r="Q55" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P55,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R55" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S55" s="31">
-        <f t="shared" si="6"/>
-        <v>1.5133957767428374E-6</v>
-      </c>
-      <c r="T55" s="31">
-        <f t="shared" si="7"/>
-        <v>7.5215201129907872E-7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S55" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T55" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>24</v>
       </c>
-      <c r="B56" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A56)</f>
-        <v>2.2281578537288772E-2</v>
+      <c r="B56" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A56)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C56" s="1" t="e">
-        <f>_xll.qlQuoteValue(D56,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D56,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="11"/>
@@ -7303,7 +7193,7 @@
         <v>69</v>
       </c>
       <c r="F56" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -7313,13 +7203,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS24Y</v>
       </c>
-      <c r="I56" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2280000000000002</v>
-      </c>
-      <c r="J56" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2280000000000002</v>
+      <c r="I56" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J56" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K56" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H56,$I$4:$J$4,$I56:$J56,"SCOPE:SERVER"),"--")</f>
@@ -7331,48 +7221,48 @@
       </c>
       <c r="M56" s="5">
         <f>_xll.RtGet(K$4,$H56,$I$4)</f>
-        <v>2.2280000000000002</v>
+        <v>1.69</v>
       </c>
       <c r="N56" s="5">
         <f>_xll.RtGet(L$4,$H56,$I$4)</f>
-        <v>2.2280000000000002</v>
-      </c>
-      <c r="O56" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.69</v>
+      </c>
+      <c r="O56" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P56" t="str">
         <f>_xll.qlMakeOIS(,E56,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0081c#0001</v>
       </c>
-      <c r="Q56" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P56,InterestRatesTrigger)</f>
-        <v>2.2282970437992204E-2</v>
+      <c r="Q56" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P56,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R56" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S56" s="31">
-        <f t="shared" si="6"/>
-        <v>1.3919007034318698E-6</v>
-      </c>
-      <c r="T56" s="31">
-        <f t="shared" si="7"/>
-        <v>2.9704379922029789E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S56" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T56" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>25</v>
       </c>
-      <c r="B57" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A57)</f>
-        <v>2.239E-2</v>
-      </c>
-      <c r="C57" s="1">
-        <f>_xll.qlQuoteValue(D57,Model!$E$11:$E$29)</f>
-        <v>2.239E-2</v>
+      <c r="B57" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A57)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C57" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D57,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="11"/>
@@ -7382,8 +7272,8 @@
         <v>17</v>
       </c>
       <c r="F57" s="1" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>111</v>
@@ -7392,13 +7282,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS25Y</v>
       </c>
-      <c r="I57" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2389999999999999</v>
-      </c>
-      <c r="J57" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2389999999999999</v>
+      <c r="I57" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J57" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K57" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H57,$I$4:$J$4,$I57:$J57,"SCOPE:SERVER"),"--")</f>
@@ -7410,48 +7300,48 @@
       </c>
       <c r="M57" s="5">
         <f>_xll.RtGet(K$4,$H57,$I$4)</f>
-        <v>2.2389999999999999</v>
+        <v>1.708</v>
       </c>
       <c r="N57" s="5">
         <f>_xll.RtGet(L$4,$H57,$I$4)</f>
-        <v>2.2389999999999999</v>
-      </c>
-      <c r="O57" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.708</v>
+      </c>
+      <c r="O57" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P57" t="str">
         <f>_xll.qlMakeOIS(,E57,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00839#0001</v>
       </c>
-      <c r="Q57" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P57,InterestRatesTrigger)</f>
-        <v>2.2390000000037536E-2</v>
-      </c>
-      <c r="R57" s="31">
-        <f t="shared" si="5"/>
-        <v>3.7535946573186152E-14</v>
-      </c>
-      <c r="S57" s="31">
-        <f t="shared" si="6"/>
-        <v>3.7535946573186152E-14</v>
-      </c>
-      <c r="T57" s="31">
-        <f t="shared" si="7"/>
-        <v>3.7535946573186152E-14</v>
+      <c r="Q57" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P57,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R57" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S57" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T57" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="22">
         <v>26</v>
       </c>
-      <c r="B58" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A58)</f>
-        <v>2.2479263568277962E-2</v>
+      <c r="B58" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A58)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C58" s="1" t="e">
-        <f>_xll.qlQuoteValue(D58,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D58,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="11"/>
@@ -7461,7 +7351,7 @@
         <v>70</v>
       </c>
       <c r="F58" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -7471,13 +7361,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS26Y</v>
       </c>
-      <c r="I58" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="J58" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2480000000000002</v>
+      <c r="I58" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J58" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K58" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H58,$I$4:$J$4,$I58:$J58,"SCOPE:SERVER"),"--")</f>
@@ -7489,48 +7379,48 @@
       </c>
       <c r="M58" s="5">
         <f>_xll.RtGet(K$4,$H58,$I$4)</f>
-        <v>2.2480000000000002</v>
+        <v>1.724</v>
       </c>
       <c r="N58" s="5">
         <f>_xll.RtGet(L$4,$H58,$I$4)</f>
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="O58" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.724</v>
+      </c>
+      <c r="O58" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P58" t="str">
         <f>_xll.qlMakeOIS(,E58,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00829#0001</v>
       </c>
-      <c r="Q58" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P58,InterestRatesTrigger)</f>
-        <v>2.2476758821379478E-2</v>
+      <c r="Q58" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P58,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R58" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S58" s="31">
-        <f t="shared" si="6"/>
-        <v>-2.5047468984844279E-6</v>
-      </c>
-      <c r="T58" s="31">
-        <f t="shared" si="7"/>
-        <v>-3.2411786205256699E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S58" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T58" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>27</v>
       </c>
-      <c r="B59" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A59)</f>
-        <v>2.2553687560465639E-2</v>
+      <c r="B59" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A59)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C59" s="1" t="e">
-        <f>_xll.qlQuoteValue(D59,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D59,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="11"/>
@@ -7540,7 +7430,7 @@
         <v>71</v>
       </c>
       <c r="F59" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -7550,13 +7440,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS27Y</v>
       </c>
-      <c r="I59" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="J59" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2549999999999999</v>
+      <c r="I59" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J59" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K59" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H59,$I$4:$J$4,$I59:$J59,"SCOPE:SERVER"),"--")</f>
@@ -7568,48 +7458,48 @@
       </c>
       <c r="M59" s="5">
         <f>_xll.RtGet(K$4,$H59,$I$4)</f>
-        <v>2.2549999999999999</v>
+        <v>1.738</v>
       </c>
       <c r="N59" s="5">
         <f>_xll.RtGet(L$4,$H59,$I$4)</f>
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="O59" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.738</v>
+      </c>
+      <c r="O59" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P59" t="str">
         <f>_xll.qlMakeOIS(,E59,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00821#0001</v>
       </c>
-      <c r="Q59" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P59,InterestRatesTrigger)</f>
-        <v>2.2549424617068801E-2</v>
+      <c r="Q59" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P59,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R59" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S59" s="31">
-        <f t="shared" si="6"/>
-        <v>-4.2629433968377484E-6</v>
-      </c>
-      <c r="T59" s="31">
-        <f t="shared" si="7"/>
-        <v>-5.7538293119982487E-7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S59" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T59" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
         <v>28</v>
       </c>
-      <c r="B60" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A60)</f>
-        <v>2.2617479768514338E-2</v>
+      <c r="B60" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C60" s="1" t="e">
-        <f>_xll.qlQuoteValue(D60,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D60,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="11"/>
@@ -7619,7 +7509,7 @@
         <v>72</v>
       </c>
       <c r="F60" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -7629,13 +7519,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS28Y</v>
       </c>
-      <c r="I60" s="5">
-        <f t="shared" si="8"/>
-        <v>2.262</v>
-      </c>
-      <c r="J60" s="5">
-        <f t="shared" si="8"/>
-        <v>2.262</v>
+      <c r="I60" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J60" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K60" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H60,$I$4:$J$4,$I60:$J60,"SCOPE:SERVER"),"--")</f>
@@ -7647,48 +7537,48 @@
       </c>
       <c r="M60" s="5">
         <f>_xll.RtGet(K$4,$H60,$I$4)</f>
-        <v>2.262</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="N60" s="5">
         <f>_xll.RtGet(L$4,$H60,$I$4)</f>
-        <v>2.262</v>
-      </c>
-      <c r="O60" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="O60" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P60" t="str">
         <f>_xll.qlMakeOIS(,E60,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00819#0001</v>
       </c>
-      <c r="Q60" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P60,InterestRatesTrigger)</f>
-        <v>2.2612962115178579E-2</v>
+      <c r="Q60" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P60,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R60" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S60" s="31">
-        <f t="shared" si="6"/>
-        <v>-4.5176533357595139E-6</v>
-      </c>
-      <c r="T60" s="31">
-        <f t="shared" si="7"/>
-        <v>-7.0378848214223966E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S60" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T60" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="22">
         <v>29</v>
       </c>
-      <c r="B61" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A61)</f>
-        <v>2.2674847984375357E-2</v>
+      <c r="B61" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A61)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C61" s="1" t="e">
-        <f>_xll.qlQuoteValue(D61,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D61,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="11"/>
@@ -7698,7 +7588,7 @@
         <v>73</v>
       </c>
       <c r="F61" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -7708,13 +7598,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS29Y</v>
       </c>
-      <c r="I61" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="J61" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2669999999999999</v>
+      <c r="I61" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J61" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K61" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H61,$I$4:$J$4,$I61:$J61,"SCOPE:SERVER"),"--")</f>
@@ -7726,48 +7616,48 @@
       </c>
       <c r="M61" s="5">
         <f>_xll.RtGet(K$4,$H61,$I$4)</f>
-        <v>2.2669999999999999</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="N61" s="5">
         <f>_xll.RtGet(L$4,$H61,$I$4)</f>
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="O61" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="O61" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P61" t="str">
         <f>_xll.qlMakeOIS(,E61,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00811#0001</v>
       </c>
-      <c r="Q61" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P61,InterestRatesTrigger)</f>
-        <v>2.2671791614204313E-2</v>
+      <c r="Q61" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P61,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R61" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S61" s="31">
-        <f t="shared" si="6"/>
-        <v>-3.0563701710444036E-6</v>
-      </c>
-      <c r="T61" s="31">
-        <f t="shared" si="7"/>
-        <v>1.7916142043133965E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S61" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T61" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>30</v>
       </c>
-      <c r="B62" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A62)</f>
-        <v>2.2729999999999997E-2</v>
-      </c>
-      <c r="C62" s="1">
-        <f>_xll.qlQuoteValue(D62,Model!$E$11:$E$29)</f>
-        <v>2.2729999999999997E-2</v>
+      <c r="B62" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A62)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C62" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D62,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="11"/>
@@ -7777,8 +7667,8 @@
         <v>18</v>
       </c>
       <c r="F62" s="1" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>112</v>
@@ -7787,13 +7677,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS30Y</v>
       </c>
-      <c r="I62" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="J62" s="5">
-        <f t="shared" si="8"/>
-        <v>2.2730000000000001</v>
+      <c r="I62" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J62" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K62" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H62,$I$4:$J$4,$I62:$J62,"SCOPE:SERVER"),"--")</f>
@@ -7805,48 +7695,48 @@
       </c>
       <c r="M62" s="5">
         <f>_xll.RtGet(K$4,$H62,$I$4)</f>
-        <v>2.2730000000000001</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="N62" s="5">
         <f>_xll.RtGet(L$4,$H62,$I$4)</f>
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="O62" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="O62" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P62" t="str">
         <f>_xll.qlMakeOIS(,E62,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00835#0001</v>
       </c>
-      <c r="Q62" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P62,InterestRatesTrigger)</f>
-        <v>2.272999999995225E-2</v>
-      </c>
-      <c r="R62" s="31">
-        <f t="shared" si="5"/>
-        <v>-4.7746528952785638E-14</v>
-      </c>
-      <c r="S62" s="31">
-        <f t="shared" si="6"/>
-        <v>-4.7746528952785638E-14</v>
-      </c>
-      <c r="T62" s="31">
-        <f t="shared" si="7"/>
-        <v>-4.7749998399737592E-14</v>
+      <c r="Q62" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P62,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R62" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S62" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T62" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="22">
         <v>35</v>
       </c>
-      <c r="B63" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A63)</f>
-        <v>2.3019121871306596E-2</v>
+      <c r="B63" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A63)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C63" s="1" t="e">
-        <f>_xll.qlQuoteValue(D63,Model!$E$11:$E$29)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlQuoteValue(D63,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="11"/>
@@ -7856,7 +7746,7 @@
         <v>22</v>
       </c>
       <c r="F63" s="1" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -7866,13 +7756,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS35Y</v>
       </c>
-      <c r="I63" s="5">
-        <f t="shared" si="8"/>
-        <v>2.302</v>
-      </c>
-      <c r="J63" s="5">
-        <f t="shared" si="8"/>
-        <v>2.302</v>
+      <c r="I63" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J63" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K63" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H63,$I$4:$J$4,$I63:$J63,"SCOPE:SERVER"),"--")</f>
@@ -7884,48 +7774,48 @@
       </c>
       <c r="M63" s="5">
         <f>_xll.RtGet(K$4,$H63,$I$4)</f>
-        <v>2.302</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="N63" s="5">
         <f>_xll.RtGet(L$4,$H63,$I$4)</f>
-        <v>2.302</v>
-      </c>
-      <c r="O63" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="O63" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P63" t="str">
         <f>_xll.qlMakeOIS(,E63,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_0083b#0001</v>
       </c>
-      <c r="Q63" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P63,InterestRatesTrigger)</f>
-        <v>2.3028973648478009E-2</v>
+      <c r="Q63" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P63,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R63" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S63" s="31">
-        <f t="shared" si="6"/>
-        <v>9.8517771714122515E-6</v>
-      </c>
-      <c r="T63" s="31">
-        <f t="shared" si="7"/>
-        <v>8.9736484780097991E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S63" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T63" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="22">
         <v>40</v>
       </c>
-      <c r="B64" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A64)</f>
-        <v>2.3280000000000002E-2</v>
-      </c>
-      <c r="C64" s="1">
-        <f>_xll.qlQuoteValue(D64,Model!$E$11:$E$29)</f>
-        <v>2.3280000000000002E-2</v>
+      <c r="B64" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A64)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C64" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D64,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="11"/>
@@ -7935,8 +7825,8 @@
         <v>23</v>
       </c>
       <c r="F64" s="1" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>140</v>
@@ -7945,13 +7835,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS40Y</v>
       </c>
-      <c r="I64" s="5">
-        <f t="shared" si="8"/>
-        <v>2.3279999999999998</v>
-      </c>
-      <c r="J64" s="5">
-        <f t="shared" si="8"/>
-        <v>2.3279999999999998</v>
+      <c r="I64" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J64" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K64" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H64,$I$4:$J$4,$I64:$J64,"SCOPE:SERVER"),"--")</f>
@@ -7963,48 +7853,48 @@
       </c>
       <c r="M64" s="5">
         <f>_xll.RtGet(K$4,$H64,$I$4)</f>
-        <v>2.3279999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="N64" s="5">
         <f>_xll.RtGet(L$4,$H64,$I$4)</f>
-        <v>2.3279999999999998</v>
-      </c>
-      <c r="O64" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.87</v>
+      </c>
+      <c r="O64" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P64" t="str">
         <f>_xll.qlMakeOIS(,E64,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00827#0001</v>
       </c>
-      <c r="Q64" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P64,InterestRatesTrigger)</f>
-        <v>2.328000000002579E-2</v>
-      </c>
-      <c r="R64" s="31">
-        <f t="shared" si="5"/>
-        <v>2.5788399193871214E-14</v>
-      </c>
-      <c r="S64" s="31">
-        <f t="shared" si="6"/>
-        <v>2.5788399193871214E-14</v>
-      </c>
-      <c r="T64" s="31">
-        <f t="shared" si="7"/>
-        <v>2.5791868640823168E-14</v>
+      <c r="Q64" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P64,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R64" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S64" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T64" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A65)</f>
-        <v>2.3579999999999997E-2</v>
-      </c>
-      <c r="C65" s="1">
-        <f>_xll.qlQuoteValue(D65,Model!$E$11:$E$29)</f>
-        <v>2.3579999999999997E-2</v>
+      <c r="B65" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A65)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C65" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D65,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="11"/>
@@ -8014,8 +7904,8 @@
         <v>24</v>
       </c>
       <c r="F65" s="1" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>141</v>
@@ -8024,13 +7914,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS50Y</v>
       </c>
-      <c r="I65" s="5">
-        <f t="shared" si="8"/>
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="J65" s="5">
-        <f t="shared" si="8"/>
-        <v>2.3580000000000001</v>
+      <c r="I65" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J65" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K65" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H65,$I$4:$J$4,$I65:$J65,"SCOPE:SERVER"),"--")</f>
@@ -8042,48 +7932,48 @@
       </c>
       <c r="M65" s="5">
         <f>_xll.RtGet(K$4,$H65,$I$4)</f>
-        <v>2.3580000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="N65" s="5">
         <f>_xll.RtGet(L$4,$H65,$I$4)</f>
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="O65" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.91</v>
+      </c>
+      <c r="O65" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P65" t="str">
         <f>_xll.qlMakeOIS(,E65,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00836#0001</v>
       </c>
-      <c r="Q65" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P65,InterestRatesTrigger)</f>
-        <v>2.3580000000018902E-2</v>
-      </c>
-      <c r="R65" s="31">
-        <f t="shared" si="5"/>
-        <v>1.8905016441195244E-14</v>
-      </c>
-      <c r="S65" s="31">
-        <f t="shared" si="6"/>
-        <v>1.8905016441195244E-14</v>
-      </c>
-      <c r="T65" s="31">
-        <f t="shared" si="7"/>
-        <v>1.890154699424329E-14</v>
+      <c r="Q65" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P65,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R65" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S65" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T65" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
         <v>60</v>
       </c>
-      <c r="B66" s="1">
-        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A66)</f>
-        <v>2.3810000000000001E-2</v>
-      </c>
-      <c r="C66" s="1">
-        <f>_xll.qlQuoteValue(D66,Model!$E$11:$E$29)</f>
-        <v>2.3810000000000001E-2</v>
+      <c r="B66" s="1" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A66)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C66" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D66,Model!$E$11:$E$29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="11"/>
@@ -8093,8 +7983,8 @@
         <v>25</v>
       </c>
       <c r="F66" s="1" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>142</v>
@@ -8103,13 +7993,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS60Y</v>
       </c>
-      <c r="I66" s="5">
-        <f t="shared" si="8"/>
-        <v>2.3810000000000002</v>
-      </c>
-      <c r="J66" s="5">
-        <f t="shared" si="8"/>
-        <v>2.3810000000000002</v>
+      <c r="I66" s="5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J66" s="5" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="K66" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H66,$I$4:$J$4,$I66:$J66,"SCOPE:SERVER"),"--")</f>
@@ -8121,35 +8011,35 @@
       </c>
       <c r="M66" s="5">
         <f>_xll.RtGet(K$4,$H66,$I$4)</f>
-        <v>2.3809999999999998</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="N66" s="5">
         <f>_xll.RtGet(L$4,$H66,$I$4)</f>
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="O66" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="O66" s="5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P66" t="str">
         <f>_xll.qlMakeOIS(,E66,"eonia",,"0D",,,,EvaluationDate)</f>
         <v>obj_00825#0001</v>
       </c>
-      <c r="Q66" s="31">
-        <f>_xll.qlOvernightIndexedSwapFairRate(P66,InterestRatesTrigger)</f>
-        <v>2.3810000000000005E-2</v>
-      </c>
-      <c r="R66" s="31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="31">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="Q66" s="31" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P66,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R66" s="31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="S66" s="31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T66" s="31" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/QuantLibXL/Data2/XLS/EUR_MxContributorOIS.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_MxContributorOIS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="144">
   <si>
     <t>basis</t>
   </si>
@@ -825,585 +825,583 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.3000000000000002E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS15M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M25" s="3"/>
       </tp>
       <tp>
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS14M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M24" s="3"/>
       </tp>
       <tp>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS17M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M27" s="3"/>
       </tp>
       <tp>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS16M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M26" s="3"/>
       </tp>
       <tp>
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.1E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS11M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M21" s="3"/>
       </tp>
       <tp>
-        <v>-7.3999999999999996E-2</v>
+        <v>-2.8000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS10M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M20" s="3"/>
       </tp>
       <tp>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS13M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M23" s="3"/>
       </tp>
       <tp>
-        <v>-7.0999999999999994E-2</v>
+        <v>-3.1E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS19M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M29" s="3"/>
       </tp>
       <tp>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.4000000000000002E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS18M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M28" s="3"/>
       </tp>
       <tp>
-        <v>-6.9000000000000006E-2</v>
+        <v>-3.1E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS21M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M31" s="3"/>
       </tp>
       <tp>
-        <v>-7.0000000000000007E-2</v>
+        <v>-3.1E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS20M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M30" s="3"/>
       </tp>
       <tp>
-        <v>-6.5000000000000002E-2</v>
+        <v>-2.8000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS23M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M33" s="3"/>
       </tp>
       <tp>
-        <v>-6.7000000000000004E-2</v>
+        <v>-2.9000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS22M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M32" s="3"/>
       </tp>
       <tp>
-        <v>1.87</v>
+        <v>1.667</v>
         <stp/>
         <stp>_x000C_EUROISDDS40Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M64" s="3"/>
       </tp>
       <tp>
-        <v>1.91</v>
+        <v>1.696</v>
         <stp/>
         <stp>_x000C_EUROISDDS50Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M65" s="3"/>
       </tp>
       <tp>
-        <v>1.9330000000000001</v>
+        <v>1.72</v>
         <stp/>
         <stp>_x000C_EUROISDDS60Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M66" s="3"/>
       </tp>
       <tp>
-        <v>1.35</v>
+        <v>1.2050000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS15Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M47" s="3"/>
       </tp>
       <tp>
-        <v>1.2789999999999999</v>
+        <v>1.1379999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS14Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M46" s="3"/>
       </tp>
       <tp>
-        <v>1.466</v>
+        <v>1.3149999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS17Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M49" s="3"/>
       </tp>
       <tp>
-        <v>1.4119999999999999</v>
+        <v>1.264</v>
         <stp/>
         <stp>_x000C_EUROISDDS16Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M48" s="3"/>
       </tp>
       <tp>
-        <v>1.0029999999999999</v>
+        <v>0.88200000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS11Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M43" s="3"/>
       </tp>
       <tp>
-        <v>0.88600000000000001</v>
+        <v>0.77800000000000002</v>
         <stp/>
         <stp>_x000C_EUROISDDS10Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M42" s="3"/>
       </tp>
       <tp>
-        <v>1.1970000000000001</v>
+        <v>1.0620000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS13Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M45" s="3"/>
       </tp>
       <tp>
-        <v>1.1060000000000001</v>
+        <v>0.97699999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS12Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M44" s="3"/>
       </tp>
       <tp>
-        <v>1.554</v>
+        <v>1.399</v>
         <stp/>
         <stp>_x000C_EUROISDDS19Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M51" s="3"/>
       </tp>
       <tp>
-        <v>1.5129999999999999</v>
+        <v>1.36</v>
         <stp/>
         <stp>_x000C_EUROISDDS18Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M50" s="3"/>
       </tp>
       <tp>
-        <v>1.708</v>
+        <v>1.5389999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS25Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M57" s="3"/>
       </tp>
       <tp>
-        <v>1.69</v>
+        <v>1.524</v>
         <stp/>
         <stp>_x000C_EUROISDDS24Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M56" s="3"/>
       </tp>
       <tp>
-        <v>1.738</v>
+        <v>1.5629999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS27Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M59" s="3"/>
       </tp>
       <tp>
-        <v>1.724</v>
+        <v>1.552</v>
         <stp/>
         <stp>_x000C_EUROISDDS26Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M58" s="3"/>
       </tp>
       <tp>
-        <v>1.62</v>
+        <v>1.4610000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS21Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M53" s="3"/>
       </tp>
       <tp>
-        <v>1.589</v>
+        <v>1.4319999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS20Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M52" s="3"/>
       </tp>
       <tp>
-        <v>1.6659999999999999</v>
+        <v>1.506</v>
         <stp/>
         <stp>_x000C_EUROISDDS23Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M55" s="3"/>
       </tp>
       <tp>
-        <v>1.6419999999999999</v>
+        <v>1.4850000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS22Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M54" s="3"/>
       </tp>
       <tp>
-        <v>1.7629999999999999</v>
+        <v>1.5820000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS29Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M61" s="3"/>
       </tp>
       <tp>
-        <v>1.7509999999999999</v>
+        <v>1.573</v>
         <stp/>
         <stp>_x000C_EUROISDDS28Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M60" s="3"/>
       </tp>
       <tp>
-        <v>1.8280000000000001</v>
+        <v>1.633</v>
         <stp/>
         <stp>_x000C_EUROISDDS35Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M63" s="3"/>
       </tp>
       <tp>
-        <v>1.7749999999999999</v>
+        <v>1.591</v>
         <stp/>
         <stp>_x000C_EUROISDDS30Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M62" s="3"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>1.5129999999999999</v>
+      <tp>
+        <v>1.36</v>
         <stp/>
         <stp>_x000C_EUROISDDS18Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N50" s="3"/>
       </tp>
       <tp>
-        <v>1.554</v>
+        <v>1.399</v>
         <stp/>
         <stp>_x000C_EUROISDDS19Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N51" s="3"/>
       </tp>
       <tp>
-        <v>1.2789999999999999</v>
+        <v>1.1379999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS14Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N46" s="3"/>
       </tp>
       <tp>
-        <v>1.35</v>
+        <v>1.2050000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS15Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N47" s="3"/>
       </tp>
       <tp>
-        <v>1.4119999999999999</v>
+        <v>1.264</v>
         <stp/>
         <stp>_x000C_EUROISDDS16Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N48" s="3"/>
       </tp>
       <tp>
-        <v>1.466</v>
+        <v>1.3149999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS17Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N49" s="3"/>
       </tp>
       <tp>
-        <v>0.88600000000000001</v>
+        <v>0.77800000000000002</v>
         <stp/>
         <stp>_x000C_EUROISDDS10Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N42" s="3"/>
       </tp>
       <tp>
-        <v>1.0029999999999999</v>
+        <v>0.88200000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS11Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N43" s="3"/>
       </tp>
       <tp>
-        <v>1.1060000000000001</v>
+        <v>0.97699999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS12Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N44" s="3"/>
       </tp>
       <tp>
-        <v>1.1970000000000001</v>
+        <v>1.0620000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS13Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N45" s="3"/>
       </tp>
       <tp>
-        <v>1.8280000000000001</v>
+        <v>1.6339999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS35Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N63" s="3"/>
       </tp>
       <tp>
-        <v>1.7749999999999999</v>
+        <v>1.591</v>
         <stp/>
         <stp>_x000C_EUROISDDS30Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N62" s="3"/>
       </tp>
       <tp>
-        <v>1.7509999999999999</v>
+        <v>1.573</v>
         <stp/>
         <stp>_x000C_EUROISDDS28Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N60" s="3"/>
       </tp>
       <tp>
-        <v>1.7629999999999999</v>
+        <v>1.5820000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS29Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N61" s="3"/>
       </tp>
       <tp>
-        <v>1.69</v>
+        <v>1.524</v>
         <stp/>
         <stp>_x000C_EUROISDDS24Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N56" s="3"/>
       </tp>
       <tp>
-        <v>1.708</v>
+        <v>1.5389999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS25Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N57" s="3"/>
       </tp>
       <tp>
-        <v>1.724</v>
+        <v>1.552</v>
         <stp/>
         <stp>_x000C_EUROISDDS26Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N58" s="3"/>
       </tp>
       <tp>
-        <v>1.738</v>
+        <v>1.5629999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS27Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N59" s="3"/>
       </tp>
       <tp>
-        <v>1.589</v>
+        <v>1.4319999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS20Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N52" s="3"/>
       </tp>
       <tp>
-        <v>1.62</v>
+        <v>1.4610000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS21Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N53" s="3"/>
       </tp>
       <tp>
-        <v>1.6419999999999999</v>
+        <v>1.4850000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS22Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N54" s="3"/>
       </tp>
       <tp>
-        <v>1.6659999999999999</v>
+        <v>1.506</v>
         <stp/>
         <stp>_x000C_EUROISDDS23Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N55" s="3"/>
       </tp>
       <tp>
-        <v>1.91</v>
+        <v>1.694</v>
         <stp/>
         <stp>_x000C_EUROISDDS50Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N65" s="3"/>
       </tp>
       <tp>
-        <v>1.87</v>
+        <v>1.667</v>
         <stp/>
         <stp>_x000C_EUROISDDS40Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N64" s="3"/>
       </tp>
       <tp>
-        <v>1.9330000000000001</v>
+        <v>1.72</v>
         <stp/>
         <stp>_x000C_EUROISDDS60Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N66" s="3"/>
       </tp>
       <tp>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.4000000000000002E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS18M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N28" s="3"/>
       </tp>
       <tp>
-        <v>-7.0999999999999994E-2</v>
+        <v>-3.1E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS19M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N29" s="3"/>
       </tp>
       <tp>
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS14M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N24" s="3"/>
       </tp>
       <tp>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.3000000000000002E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS15M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N25" s="3"/>
       </tp>
       <tp>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS16M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N26" s="3"/>
       </tp>
       <tp>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS17M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N27" s="3"/>
       </tp>
       <tp>
-        <v>-7.3999999999999996E-2</v>
+        <v>-2.8000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS10M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N20" s="3"/>
       </tp>
       <tp>
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.1E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS11M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N21" s="3"/>
       </tp>
       <tp>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS13M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N23" s="3"/>
       </tp>
       <tp>
-        <v>-7.0000000000000007E-2</v>
+        <v>-3.1E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS20M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N30" s="3"/>
       </tp>
       <tp>
-        <v>-6.9000000000000006E-2</v>
+        <v>-3.1E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS21M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N31" s="3"/>
       </tp>
       <tp>
-        <v>-6.7000000000000004E-2</v>
+        <v>-2.9000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS22M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N32" s="3"/>
       </tp>
       <tp>
-        <v>-6.5000000000000002E-2</v>
+        <v>-2.8000000000000001E-2</v>
         <stp/>
         <stp>_x000C_EUROISDDS23M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N33" s="3"/>
       </tp>
       <tp>
-        <v>0.61099999999999999</v>
+        <v>0.53300000000000003</v>
         <stp/>
         <stp>_x000B_EUROISDDS8Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N40" s="3"/>
       </tp>
       <tp>
-        <v>-7.0999999999999994E-2</v>
+        <v>-2.4E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS8M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N18" s="3"/>
       </tp>
       <tp>
-        <v>0.75600000000000001</v>
+        <v>0.65900000000000003</v>
         <stp/>
         <stp>_x000B_EUROISDDS9Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N41" s="3"/>
       </tp>
       <tp>
-        <v>-7.2999999999999995E-2</v>
+        <v>-2.5999999999999999E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS9M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N19" s="3"/>
       </tp>
       <tp>
-        <v>-3.6999999999999998E-2</v>
+        <v>6.9999999999999993E-3</v>
         <stp/>
         <stp>_x000B_EUROISDDS2W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N9" s="3"/>
       </tp>
       <tp>
-        <v>-6.3E-2</v>
+        <v>-2.7E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS2Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N34" s="3"/>
       </tp>
       <tp>
-        <v>-6.6000000000000003E-2</v>
+        <v>-6.0000000000000001E-3</v>
         <stp/>
         <stp>_x000B_EUROISDDS2M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N12" s="3"/>
       </tp>
       <tp>
-        <v>-0.04</v>
+        <v>1E-3</v>
         <stp/>
         <stp>_x000B_EUROISDDS3W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N10" s="3"/>
       </tp>
       <tp>
-        <v>-1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N35" s="3"/>
       </tp>
       <tp>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.1000000000000001E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N13" s="3"/>
       </tp>
       <tp>
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.01</v>
         <stp/>
         <stp>_x000B_EUROISDDS1W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N8" s="3"/>
       </tp>
       <tp>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS1Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N22" s="3"/>
       </tp>
       <tp>
-        <v>-5.5E-2</v>
+        <v>-4.0000000000000001E-3</v>
         <stp/>
         <stp>_x000B_EUROISDDS1M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N11" s="3"/>
       </tp>
       <tp>
-        <v>0.309</v>
+        <v>0.27600000000000002</v>
         <stp/>
         <stp>_x000B_EUROISDDS6Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N38" s="3"/>
       </tp>
       <tp>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.6E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS6M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N16" s="3"/>
       </tp>
       <tp>
-        <v>0.46</v>
+        <v>0.40200000000000002</v>
         <stp/>
         <stp>_x000B_EUROISDDS7Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N39" s="3"/>
       </tp>
       <tp>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.02</v>
         <stp/>
         <stp>_x000B_EUROISDDS7M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N17" s="3"/>
       </tp>
       <tp>
-        <v>6.8000000000000005E-2</v>
+        <v>7.6999999999999999E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N36" s="3"/>
       </tp>
       <tp>
-        <v>-6.7000000000000004E-2</v>
+        <v>-1.7000000000000001E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N14" s="3"/>
       </tp>
       <tp>
-        <v>0.17599999999999999</v>
+        <v>0.16600000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS5Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N37" s="3"/>
       </tp>
       <tp>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.4E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS5M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N15" s="3"/>
@@ -1445,127 +1443,127 @@
         <tr r="M6" s="3"/>
       </tp>
       <tp>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.1000000000000001E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M13" s="3"/>
       </tp>
       <tp>
-        <v>-0.04</v>
+        <v>1E-3</v>
         <stp/>
         <stp>_x000B_EUROISDDS3W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M10" s="3"/>
       </tp>
       <tp>
-        <v>-1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M35" s="3"/>
       </tp>
       <tp>
-        <v>-6.6000000000000003E-2</v>
+        <v>-6.0000000000000001E-3</v>
         <stp/>
         <stp>_x000B_EUROISDDS2M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M12" s="3"/>
       </tp>
       <tp>
-        <v>-3.6999999999999998E-2</v>
+        <v>6.9999999999999993E-3</v>
         <stp/>
         <stp>_x000B_EUROISDDS2W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M9" s="3"/>
       </tp>
       <tp>
-        <v>-6.3E-2</v>
+        <v>-2.7E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS2Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M34" s="3"/>
       </tp>
       <tp>
-        <v>-5.5E-2</v>
+        <v>-4.0000000000000001E-3</v>
         <stp/>
         <stp>_x000B_EUROISDDS1M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M11" s="3"/>
       </tp>
       <tp>
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.01</v>
         <stp/>
         <stp>_x000B_EUROISDDS1W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M8" s="3"/>
       </tp>
       <tp>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS1Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M22" s="3"/>
       </tp>
       <tp>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.02</v>
         <stp/>
         <stp>_x000B_EUROISDDS7M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M17" s="3"/>
       </tp>
       <tp>
-        <v>0.46</v>
+        <v>0.40200000000000002</v>
         <stp/>
         <stp>_x000B_EUROISDDS7Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M39" s="3"/>
       </tp>
       <tp>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.6E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS6M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M16" s="3"/>
       </tp>
       <tp>
-        <v>0.309</v>
+        <v>0.27600000000000002</v>
         <stp/>
         <stp>_x000B_EUROISDDS6Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M38" s="3"/>
       </tp>
       <tp>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.4E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS5M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M15" s="3"/>
       </tp>
       <tp>
-        <v>0.17599999999999999</v>
+        <v>0.16600000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS5Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M37" s="3"/>
       </tp>
       <tp>
-        <v>-6.7000000000000004E-2</v>
+        <v>-1.7000000000000001E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M14" s="3"/>
       </tp>
       <tp>
-        <v>6.8000000000000005E-2</v>
+        <v>7.6999999999999999E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M36" s="3"/>
       </tp>
       <tp>
-        <v>-7.2999999999999995E-2</v>
+        <v>-2.5999999999999999E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS9M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M19" s="3"/>
       </tp>
       <tp>
-        <v>0.75600000000000001</v>
+        <v>0.65900000000000003</v>
         <stp/>
         <stp>_x000B_EUROISDDS9Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M41" s="3"/>
       </tp>
       <tp>
-        <v>-7.0999999999999994E-2</v>
+        <v>-2.4E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS8M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M18" s="3"/>
       </tp>
       <tp>
-        <v>0.61099999999999999</v>
+        <v>0.53300000000000003</v>
         <stp/>
         <stp>_x000B_EUROISDDS8Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M40" s="3"/>
@@ -1633,65 +1631,74 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$F$11:$F$29</c:f>
+              <c:f>Model!$F$11:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1699,10 +1706,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$G$11:$G$29</c:f>
+              <c:f>Model!$G$11:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1758,6 +1765,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1793,65 +1809,74 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$F$11:$F$29</c:f>
+              <c:f>Model!$F$11:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1859,10 +1884,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$I$11:$I$29</c:f>
+              <c:f>Model!$I$11:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1918,6 +1943,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1933,11 +1967,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472730240"/>
-        <c:axId val="472775680"/>
+        <c:axId val="153928064"/>
+        <c:axId val="153929984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472730240"/>
+        <c:axId val="153928064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1973,12 +2007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472775680"/>
+        <c:crossAx val="153929984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472775680"/>
+        <c:axId val="153929984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.01"/>
@@ -2025,7 +2059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472730240"/>
+        <c:crossAx val="153928064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2093,7 +2127,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2139,11 +2173,11 @@
       <sheetName val="Swap3M"/>
       <sheetName val="ON"/>
       <sheetName val="Swap6M"/>
+      <sheetName val="ForwardSwap6M"/>
       <sheetName val="1M (3)"/>
       <sheetName val="3M (4)"/>
       <sheetName val="6M (3)"/>
       <sheetName val="1Y (3)"/>
-      <sheetName val="EUR_Market"/>
     </sheetNames>
     <definedNames>
       <definedName name="TriggerCounter" refersTo="='General Settings'!$D$6"/>
@@ -2152,7 +2186,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>114</v>
+            <v>1807</v>
           </cell>
         </row>
       </sheetData>
@@ -2176,7 +2210,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2624,7 +2658,7 @@
       </c>
       <c r="D16" s="38">
         <f>[1]!TriggerCounter</f>
-        <v>114</v>
+        <v>1807</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -2655,9 +2689,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2698,7 +2734,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="3" t="e">
-        <f ca="1">_xll.qlCubicInterpolation(,F11:F29,E11:E29,F1,F2)</f>
+        <f ca="1">_xll.qlCubicInterpolation(,F11:F32,E11:E32,F1,F2)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2708,7 +2744,7 @@
         <v>138</v>
       </c>
       <c r="F4" t="e">
-        <f ca="1">_xll.qlAbcdInterpolation(,$F11:$F29,$G11:$G29,G33,G34,G35,G36,,,,FALSE)</f>
+        <f ca="1">_xll.qlAbcdInterpolation(,$F11:$F32,$G11:$G32,G36,G37,G38,G39,,,,FALSE)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2730,7 +2766,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="I7" s="1" t="e">
-        <f ca="1">(H26-G26)*0</f>
+        <f ca="1">(H29-G29)*0</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2802,13 +2838,13 @@
         <v>#NAME?</v>
       </c>
       <c r="I11" s="4" t="e">
-        <f t="shared" ref="I11:I29" ca="1" si="0">H11-$I$7</f>
+        <f t="shared" ref="I11:I32" ca="1" si="0">H11-$I$7</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2825,10 +2861,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F12" s="21">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G12" s="4" t="e">
-        <f t="shared" ref="G12:G21" ca="1" si="1">C12-E12</f>
+        <f t="shared" ref="G12:G14" ca="1" si="1">C12-E12</f>
         <v>#NAME?</v>
       </c>
       <c r="H12" s="4" t="e">
@@ -2836,13 +2872,13 @@
         <v>#NAME?</v>
       </c>
       <c r="I12" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="I12:I14" ca="1" si="2">H12-$I$7</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -2859,7 +2895,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F13" s="21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G13" s="4" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2870,13 +2906,13 @@
         <v>#NAME?</v>
       </c>
       <c r="I13" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2893,7 +2929,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F14" s="21">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="G14" s="4" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -2904,13 +2940,13 @@
         <v>#NAME?</v>
       </c>
       <c r="I14" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -2927,10 +2963,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F15" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="G15:G24" ca="1" si="3">C15-E15</f>
         <v>#NAME?</v>
       </c>
       <c r="H15" s="4" t="e">
@@ -2944,7 +2980,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2961,10 +2997,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F16" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H16" s="4" t="e">
@@ -2978,7 +3014,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2995,10 +3031,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F17" s="21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H17" s="4" t="e">
@@ -3012,7 +3048,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -3029,10 +3065,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F18" s="21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H18" s="4" t="e">
@@ -3046,7 +3082,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -3063,10 +3099,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F19" s="21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H19" s="4" t="e">
@@ -3080,7 +3116,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -3097,10 +3133,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F20" s="21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G20" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H20" s="4" t="e">
@@ -3114,7 +3150,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -3131,10 +3167,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F21" s="21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G21" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H21" s="4" t="e">
@@ -3148,7 +3184,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -3165,10 +3201,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F22" s="21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G22" s="4" t="e">
-        <f t="shared" ref="G22:G29" ca="1" si="2">C22-E22</f>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H22" s="4" t="e">
@@ -3182,7 +3218,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -3199,10 +3235,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F23" s="21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G23" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H23" s="4" t="e">
@@ -3216,7 +3252,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -3233,10 +3269,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F24" s="21">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G24" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="H24" s="4" t="e">
@@ -3250,7 +3286,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -3267,10 +3303,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F25" s="21">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G25" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="G25:G32" ca="1" si="4">C25-E25</f>
         <v>#NAME?</v>
       </c>
       <c r="H25" s="4" t="e">
@@ -3284,7 +3320,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -3301,10 +3337,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F26" s="21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G26" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#NAME?</v>
       </c>
       <c r="H26" s="4" t="e">
@@ -3317,9 +3353,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="str">
-        <f>ROUND(F27,0)&amp;"Y"</f>
-        <v>40Y</v>
+      <c r="A27" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -3336,10 +3371,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F27" s="21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#NAME?</v>
       </c>
       <c r="H27" s="4" t="e">
@@ -3352,9 +3387,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="str">
-        <f>ROUND(F28,0)&amp;"Y"</f>
-        <v>50Y</v>
+      <c r="A28" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -3371,10 +3405,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F28" s="21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#NAME?</v>
       </c>
       <c r="H28" s="4" t="e">
@@ -3387,9 +3421,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="str">
-        <f>ROUND(F29,0)&amp;"Y"</f>
-        <v>60Y</v>
+      <c r="A29" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -3406,10 +3439,10 @@
         <v>#NAME?</v>
       </c>
       <c r="F29" s="21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G29" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#NAME?</v>
       </c>
       <c r="H29" s="4" t="e">
@@ -3421,59 +3454,164 @@
         <v>#NAME?</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="str">
+        <f>ROUND(F30,0)&amp;"Y"</f>
+        <v>40Y</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B30&amp;$A30&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D30&amp;$A30&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F30" s="21">
+        <v>40</v>
+      </c>
+      <c r="G30" s="4" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H30" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F30,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I30" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="str">
+        <f>ROUND(F31,0)&amp;"Y"</f>
+        <v>50Y</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B31&amp;$A31&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D31&amp;$A31&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F31" s="21">
+        <v>50</v>
+      </c>
+      <c r="G31" s="4" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H31" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F31,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I31" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
+      <c r="A32" s="28" t="str">
+        <f>ROUND(F32,0)&amp;"Y"</f>
+        <v>60Y</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(B32&amp;$A32&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="e">
+        <f ca="1">_xll.qlQuoteValue(D32&amp;$A32&amp;$C$3,InterestRatesTrigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F32" s="21">
+        <v>60</v>
+      </c>
+      <c r="G32" s="4" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H32" s="4" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F32,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I32" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
         <v>130</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G35" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="2" t="e">
-        <f ca="1">_xll.qlAbcdInterpolationA(BasisExtrapolator)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G33" s="27">
-        <v>-1.1556684301587655E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="2" t="e">
-        <f ca="1">_xll.qlAbcdInterpolationB(BasisExtrapolator)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G34" s="27">
-        <v>2.5355454308524164E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="2" t="e">
-        <f ca="1">_xll.qlAbcdInterpolationC(BasisExtrapolator)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G35" s="27">
-        <v>0.35804596119753157</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="2" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationA(BasisExtrapolator)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G36" s="27">
+        <v>-1.1556684301587655E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="2" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationB(BasisExtrapolator)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G37" s="27">
+        <v>2.5355454308524164E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="2" t="e">
+        <f ca="1">_xll.qlAbcdInterpolationC(BasisExtrapolator)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G38" s="27">
+        <v>0.35804596119753157</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="2" t="e">
+      <c r="F39" s="2" t="e">
         <f ca="1">_xll.qlAbcdInterpolationD(BasisExtrapolator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G39" s="27">
         <v>1.155670694872052E-3</v>
       </c>
     </row>
@@ -3583,7 +3721,7 @@
         <v>#N/A</v>
       </c>
       <c r="C5" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D5,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D5,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D5" s="24" t="str">
@@ -3639,7 +3777,7 @@
         <v>#N/A</v>
       </c>
       <c r="C6" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D6,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D6,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D6" s="24" t="str">
@@ -3695,7 +3833,7 @@
         <v>#N/A</v>
       </c>
       <c r="C7" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D7,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D7,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D7" s="24" t="str">
@@ -3748,7 +3886,7 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D8,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D8,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D8" t="str">
@@ -3787,21 +3925,21 @@
       </c>
       <c r="M8" s="5">
         <f>_xll.RtGet(K$4,$H8,$I$4)</f>
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="N8" s="5">
         <f>_xll.RtGet(L$4,$H8,$I$4)</f>
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.4001000000000003E-2</v>
+        <v>-1.0000999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D9,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D9,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D9" t="str">
@@ -3840,21 +3978,21 @@
       </c>
       <c r="M9" s="5">
         <f>_xll.RtGet(K$4,$H9,$I$4)</f>
-        <v>-3.6999999999999998E-2</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="N9" s="5">
         <f>_xll.RtGet(L$4,$H9,$I$4)</f>
-        <v>-3.6999999999999998E-2</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.7000999999999999E-2</v>
+        <v>6.9989999999999991E-3</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D10,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D10,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D10" t="str">
@@ -3893,21 +4031,21 @@
       </c>
       <c r="M10" s="5">
         <f>_xll.RtGet(K$4,$H10,$I$4)</f>
-        <v>-0.04</v>
+        <v>1E-3</v>
       </c>
       <c r="N10" s="5">
         <f>_xll.RtGet(L$4,$H10,$I$4)</f>
-        <v>-0.04</v>
+        <v>1E-3</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.0001000000000002E-2</v>
+        <v>9.990000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D11,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D11,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D11" t="str">
@@ -3946,21 +4084,21 @@
       </c>
       <c r="M11" s="5">
         <f>_xll.RtGet(K$4,$H11,$I$4)</f>
-        <v>-5.5E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="N11" s="5">
         <f>_xll.RtGet(L$4,$H11,$I$4)</f>
-        <v>-5.5E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.5001000000000001E-2</v>
+        <v>-4.0010000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D12,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D12,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D12" t="str">
@@ -3999,21 +4137,21 @@
       </c>
       <c r="M12" s="5">
         <f>_xll.RtGet(K$4,$H12,$I$4)</f>
-        <v>-6.6000000000000003E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="N12" s="5">
         <f>_xll.RtGet(L$4,$H12,$I$4)</f>
-        <v>-6.6000000000000003E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.6001000000000004E-2</v>
+        <v>-6.0010000000000003E-3</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D13,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D13,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D13" t="str">
@@ -4052,21 +4190,21 @@
       </c>
       <c r="M13" s="5">
         <f>_xll.RtGet(K$4,$H13,$I$4)</f>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.1000000000000001E-2</v>
       </c>
       <c r="N13" s="5">
         <f>_xll.RtGet(L$4,$H13,$I$4)</f>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.1000000000000001E-2</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.8001000000000006E-2</v>
+        <v>-1.1001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D14,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D14,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D14" t="str">
@@ -4105,21 +4243,21 @@
       </c>
       <c r="M14" s="5">
         <f>_xll.RtGet(K$4,$H14,$I$4)</f>
-        <v>-6.7000000000000004E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="N14" s="5">
         <f>_xll.RtGet(L$4,$H14,$I$4)</f>
-        <v>-6.7000000000000004E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.7001000000000005E-2</v>
+        <v>-1.7001000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D15,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D15,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D15" t="str">
@@ -4158,21 +4296,21 @@
       </c>
       <c r="M15" s="5">
         <f>_xll.RtGet(K$4,$H15,$I$4)</f>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="N15" s="5">
         <f>_xll.RtGet(L$4,$H15,$I$4)</f>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.8001000000000006E-2</v>
+        <v>-1.4001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D16,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D16,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D16" t="str">
@@ -4211,21 +4349,21 @@
       </c>
       <c r="M16" s="5">
         <f>_xll.RtGet(K$4,$H16,$I$4)</f>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="N16" s="5">
         <f>_xll.RtGet(L$4,$H16,$I$4)</f>
-        <v>-6.8000000000000005E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.8001000000000006E-2</v>
+        <v>-1.6001000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D17,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D17,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D17" t="str">
@@ -4264,21 +4402,21 @@
       </c>
       <c r="M17" s="5">
         <f>_xll.RtGet(K$4,$H17,$I$4)</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="N17" s="5">
         <f>_xll.RtGet(L$4,$H17,$I$4)</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.0001000000000008E-2</v>
+        <v>-2.0001000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D18,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D18,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D18" t="str">
@@ -4317,21 +4455,21 @@
       </c>
       <c r="M18" s="5">
         <f>_xll.RtGet(K$4,$H18,$I$4)</f>
-        <v>-7.0999999999999994E-2</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="N18" s="5">
         <f>_xll.RtGet(L$4,$H18,$I$4)</f>
-        <v>-7.0999999999999994E-2</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.1000999999999995E-2</v>
+        <v>-2.4001000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D19,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D19,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D19" t="str">
@@ -4370,21 +4508,21 @@
       </c>
       <c r="M19" s="5">
         <f>_xll.RtGet(K$4,$H19,$I$4)</f>
-        <v>-7.2999999999999995E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="N19" s="5">
         <f>_xll.RtGet(L$4,$H19,$I$4)</f>
-        <v>-7.2999999999999995E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.3000999999999996E-2</v>
+        <v>-2.6001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D20,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D20,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D20" t="str">
@@ -4423,21 +4561,21 @@
       </c>
       <c r="M20" s="5">
         <f>_xll.RtGet(K$4,$H20,$I$4)</f>
-        <v>-7.3999999999999996E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="N20" s="5">
         <f>_xll.RtGet(L$4,$H20,$I$4)</f>
-        <v>-7.3999999999999996E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.4000999999999997E-2</v>
+        <v>-2.8001000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D21,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D21,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D21" t="str">
@@ -4476,15 +4614,15 @@
       </c>
       <c r="M21" s="5">
         <f>_xll.RtGet(K$4,$H21,$I$4)</f>
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="N21" s="5">
         <f>_xll.RtGet(L$4,$H21,$I$4)</f>
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.4000999999999997E-2</v>
+        <v>-3.1001000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -4496,7 +4634,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C22" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D22,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D22,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D22" t="str">
@@ -4535,11 +4673,11 @@
       </c>
       <c r="M22" s="5">
         <f>_xll.RtGet(K$4,$H22,$I$4)</f>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="N22" s="5">
         <f>_xll.RtGet(L$4,$H22,$I$4)</f>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="O22" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4575,7 +4713,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C23" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D23,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D23,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D23" t="str">
@@ -4614,11 +4752,11 @@
       </c>
       <c r="M23" s="5">
         <f>_xll.RtGet(K$4,$H23,$I$4)</f>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="N23" s="5">
         <f>_xll.RtGet(L$4,$H23,$I$4)</f>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="O23" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4654,7 +4792,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C24" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D24,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D24,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D24" t="str">
@@ -4693,11 +4831,11 @@
       </c>
       <c r="M24" s="5">
         <f>_xll.RtGet(K$4,$H24,$I$4)</f>
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="N24" s="5">
         <f>_xll.RtGet(L$4,$H24,$I$4)</f>
-        <v>-7.3999999999999996E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="O24" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4733,7 +4871,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C25" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D25,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D25,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D25" s="34" t="str">
@@ -4772,11 +4910,11 @@
       </c>
       <c r="M25" s="35">
         <f>_xll.RtGet(K$4,$H25,$I$4)</f>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="N25" s="35">
         <f>_xll.RtGet(L$4,$H25,$I$4)</f>
-        <v>-7.4999999999999997E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="O25" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4812,7 +4950,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C26" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D26,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D26,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D26" t="str">
@@ -4851,11 +4989,11 @@
       </c>
       <c r="M26" s="5">
         <f>_xll.RtGet(K$4,$H26,$I$4)</f>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="N26" s="5">
         <f>_xll.RtGet(L$4,$H26,$I$4)</f>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="O26" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4891,7 +5029,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C27" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D27,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D27,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D27" t="str">
@@ -4930,11 +5068,11 @@
       </c>
       <c r="M27" s="5">
         <f>_xll.RtGet(K$4,$H27,$I$4)</f>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="N27" s="5">
         <f>_xll.RtGet(L$4,$H27,$I$4)</f>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="O27" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4970,7 +5108,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C28" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D28,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D28,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D28" s="34" t="str">
@@ -5009,11 +5147,11 @@
       </c>
       <c r="M28" s="35">
         <f>_xll.RtGet(K$4,$H28,$I$4)</f>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="N28" s="35">
         <f>_xll.RtGet(L$4,$H28,$I$4)</f>
-        <v>-7.2999999999999995E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="O28" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5049,7 +5187,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C29" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D29,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D29,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D29" t="str">
@@ -5088,11 +5226,11 @@
       </c>
       <c r="M29" s="5">
         <f>_xll.RtGet(K$4,$H29,$I$4)</f>
-        <v>-7.0999999999999994E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="N29" s="5">
         <f>_xll.RtGet(L$4,$H29,$I$4)</f>
-        <v>-7.0999999999999994E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="O29" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5128,7 +5266,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C30" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D30,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D30,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D30" t="str">
@@ -5167,11 +5305,11 @@
       </c>
       <c r="M30" s="5">
         <f>_xll.RtGet(K$4,$H30,$I$4)</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="N30" s="5">
         <f>_xll.RtGet(L$4,$H30,$I$4)</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="O30" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5207,7 +5345,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C31" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D31,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D31,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D31" s="34" t="str">
@@ -5246,11 +5384,11 @@
       </c>
       <c r="M31" s="35">
         <f>_xll.RtGet(K$4,$H31,$I$4)</f>
-        <v>-6.9000000000000006E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="N31" s="35">
         <f>_xll.RtGet(L$4,$H31,$I$4)</f>
-        <v>-6.9000000000000006E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="O31" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5286,7 +5424,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C32" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D32,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D32,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D32" t="str">
@@ -5325,11 +5463,11 @@
       </c>
       <c r="M32" s="5">
         <f>_xll.RtGet(K$4,$H32,$I$4)</f>
-        <v>-6.7000000000000004E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="N32" s="5">
         <f>_xll.RtGet(L$4,$H32,$I$4)</f>
-        <v>-6.7000000000000004E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="O32" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5365,7 +5503,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C33" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D33,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D33,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D33" t="str">
@@ -5404,11 +5542,11 @@
       </c>
       <c r="M33" s="5">
         <f>_xll.RtGet(K$4,$H33,$I$4)</f>
-        <v>-6.5000000000000002E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="N33" s="5">
         <f>_xll.RtGet(L$4,$H33,$I$4)</f>
-        <v>-6.5000000000000002E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="O33" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5444,7 +5582,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C34" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D34,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D34,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D34" s="34" t="str">
@@ -5483,11 +5621,11 @@
       </c>
       <c r="M34" s="35">
         <f>_xll.RtGet(K$4,$H34,$I$4)</f>
-        <v>-6.3E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="N34" s="35">
         <f>_xll.RtGet(L$4,$H34,$I$4)</f>
-        <v>-6.3E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="O34" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5523,7 +5661,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C35" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D35,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D35,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D35" s="34" t="str">
@@ -5562,11 +5700,11 @@
       </c>
       <c r="M35" s="35">
         <f>_xll.RtGet(K$4,$H35,$I$4)</f>
-        <v>-1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="N35" s="35">
         <f>_xll.RtGet(L$4,$H35,$I$4)</f>
-        <v>-1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O35" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5602,7 +5740,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C36" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D36,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D36,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D36" s="34" t="str">
@@ -5641,11 +5779,11 @@
       </c>
       <c r="M36" s="35">
         <f>_xll.RtGet(K$4,$H36,$I$4)</f>
-        <v>6.8000000000000005E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="N36" s="35">
         <f>_xll.RtGet(L$4,$H36,$I$4)</f>
-        <v>6.8000000000000005E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="O36" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5681,7 +5819,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C37" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D37,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D37,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D37" s="34" t="str">
@@ -5720,11 +5858,11 @@
       </c>
       <c r="M37" s="35">
         <f>_xll.RtGet(K$4,$H37,$I$4)</f>
-        <v>0.17599999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="N37" s="35">
         <f>_xll.RtGet(L$4,$H37,$I$4)</f>
-        <v>0.17599999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="O37" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5760,7 +5898,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C38" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D38,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D38,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D38" s="34" t="str">
@@ -5799,11 +5937,11 @@
       </c>
       <c r="M38" s="35">
         <f>_xll.RtGet(K$4,$H38,$I$4)</f>
-        <v>0.309</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="N38" s="35">
         <f>_xll.RtGet(L$4,$H38,$I$4)</f>
-        <v>0.309</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="O38" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5839,7 +5977,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C39" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D39,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D39,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D39" s="34" t="str">
@@ -5878,11 +6016,11 @@
       </c>
       <c r="M39" s="35">
         <f>_xll.RtGet(K$4,$H39,$I$4)</f>
-        <v>0.46</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="N39" s="35">
         <f>_xll.RtGet(L$4,$H39,$I$4)</f>
-        <v>0.46</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="O39" s="35" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5918,7 +6056,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C40" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D40,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D40,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D40" t="str">
@@ -5957,11 +6095,11 @@
       </c>
       <c r="M40" s="5">
         <f>_xll.RtGet(K$4,$H40,$I$4)</f>
-        <v>0.61099999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="N40" s="5">
         <f>_xll.RtGet(L$4,$H40,$I$4)</f>
-        <v>0.61099999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="O40" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5997,7 +6135,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C41" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D41,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D41,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D41" t="str">
@@ -6036,11 +6174,11 @@
       </c>
       <c r="M41" s="5">
         <f>_xll.RtGet(K$4,$H41,$I$4)</f>
-        <v>0.75600000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="N41" s="5">
         <f>_xll.RtGet(L$4,$H41,$I$4)</f>
-        <v>0.75600000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="O41" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6076,7 +6214,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C42" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D42,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D42,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D42" t="str">
@@ -6115,11 +6253,11 @@
       </c>
       <c r="M42" s="5">
         <f>_xll.RtGet(K$4,$H42,$I$4)</f>
-        <v>0.88600000000000001</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="N42" s="5">
         <f>_xll.RtGet(L$4,$H42,$I$4)</f>
-        <v>0.88600000000000001</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="O42" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6155,7 +6293,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C43" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D43,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D43,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D43" t="str">
@@ -6194,11 +6332,11 @@
       </c>
       <c r="M43" s="5">
         <f>_xll.RtGet(K$4,$H43,$I$4)</f>
-        <v>1.0029999999999999</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="N43" s="5">
         <f>_xll.RtGet(L$4,$H43,$I$4)</f>
-        <v>1.0029999999999999</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="O43" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6234,7 +6372,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C44" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D44,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D44,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D44" t="str">
@@ -6273,11 +6411,11 @@
       </c>
       <c r="M44" s="5">
         <f>_xll.RtGet(K$4,$H44,$I$4)</f>
-        <v>1.1060000000000001</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="N44" s="5">
         <f>_xll.RtGet(L$4,$H44,$I$4)</f>
-        <v>1.1060000000000001</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="O44" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6313,7 +6451,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C45" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D45,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D45,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D45" t="str">
@@ -6352,11 +6490,11 @@
       </c>
       <c r="M45" s="5">
         <f>_xll.RtGet(K$4,$H45,$I$4)</f>
-        <v>1.1970000000000001</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="N45" s="5">
         <f>_xll.RtGet(L$4,$H45,$I$4)</f>
-        <v>1.1970000000000001</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="O45" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6392,7 +6530,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C46" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D46,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D46,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D46" t="str">
@@ -6431,11 +6569,11 @@
       </c>
       <c r="M46" s="5">
         <f>_xll.RtGet(K$4,$H46,$I$4)</f>
-        <v>1.2789999999999999</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="N46" s="5">
         <f>_xll.RtGet(L$4,$H46,$I$4)</f>
-        <v>1.2789999999999999</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="O46" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6471,7 +6609,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C47" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D47,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D47,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D47" t="str">
@@ -6510,11 +6648,11 @@
       </c>
       <c r="M47" s="5">
         <f>_xll.RtGet(K$4,$H47,$I$4)</f>
-        <v>1.35</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="N47" s="5">
         <f>_xll.RtGet(L$4,$H47,$I$4)</f>
-        <v>1.35</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="O47" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6550,7 +6688,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C48" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D48,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D48,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D48" t="str">
@@ -6589,11 +6727,11 @@
       </c>
       <c r="M48" s="5">
         <f>_xll.RtGet(K$4,$H48,$I$4)</f>
-        <v>1.4119999999999999</v>
+        <v>1.264</v>
       </c>
       <c r="N48" s="5">
         <f>_xll.RtGet(L$4,$H48,$I$4)</f>
-        <v>1.4119999999999999</v>
+        <v>1.264</v>
       </c>
       <c r="O48" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6629,7 +6767,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C49" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D49,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D49,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D49" t="str">
@@ -6668,11 +6806,11 @@
       </c>
       <c r="M49" s="5">
         <f>_xll.RtGet(K$4,$H49,$I$4)</f>
-        <v>1.466</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="N49" s="5">
         <f>_xll.RtGet(L$4,$H49,$I$4)</f>
-        <v>1.466</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="O49" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6708,7 +6846,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C50" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D50,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D50,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D50" t="str">
@@ -6747,11 +6885,11 @@
       </c>
       <c r="M50" s="5">
         <f>_xll.RtGet(K$4,$H50,$I$4)</f>
-        <v>1.5129999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="N50" s="5">
         <f>_xll.RtGet(L$4,$H50,$I$4)</f>
-        <v>1.5129999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="O50" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6787,7 +6925,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C51" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D51,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D51,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D51" t="str">
@@ -6826,11 +6964,11 @@
       </c>
       <c r="M51" s="5">
         <f>_xll.RtGet(K$4,$H51,$I$4)</f>
-        <v>1.554</v>
+        <v>1.399</v>
       </c>
       <c r="N51" s="5">
         <f>_xll.RtGet(L$4,$H51,$I$4)</f>
-        <v>1.554</v>
+        <v>1.399</v>
       </c>
       <c r="O51" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6866,7 +7004,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C52" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D52,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D52,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D52" t="str">
@@ -6905,11 +7043,11 @@
       </c>
       <c r="M52" s="5">
         <f>_xll.RtGet(K$4,$H52,$I$4)</f>
-        <v>1.589</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="N52" s="5">
         <f>_xll.RtGet(L$4,$H52,$I$4)</f>
-        <v>1.589</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="O52" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -6945,7 +7083,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C53" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D53,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D53,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D53" t="str">
@@ -6984,11 +7122,11 @@
       </c>
       <c r="M53" s="5">
         <f>_xll.RtGet(K$4,$H53,$I$4)</f>
-        <v>1.62</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="N53" s="5">
         <f>_xll.RtGet(L$4,$H53,$I$4)</f>
-        <v>1.62</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="O53" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7024,7 +7162,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C54" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D54,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D54,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D54" t="str">
@@ -7063,11 +7201,11 @@
       </c>
       <c r="M54" s="5">
         <f>_xll.RtGet(K$4,$H54,$I$4)</f>
-        <v>1.6419999999999999</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="N54" s="5">
         <f>_xll.RtGet(L$4,$H54,$I$4)</f>
-        <v>1.6419999999999999</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="O54" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7103,7 +7241,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C55" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D55,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D55,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D55" t="str">
@@ -7142,11 +7280,11 @@
       </c>
       <c r="M55" s="5">
         <f>_xll.RtGet(K$4,$H55,$I$4)</f>
-        <v>1.6659999999999999</v>
+        <v>1.506</v>
       </c>
       <c r="N55" s="5">
         <f>_xll.RtGet(L$4,$H55,$I$4)</f>
-        <v>1.6659999999999999</v>
+        <v>1.506</v>
       </c>
       <c r="O55" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7182,7 +7320,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C56" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D56,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D56,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D56" t="str">
@@ -7221,11 +7359,11 @@
       </c>
       <c r="M56" s="5">
         <f>_xll.RtGet(K$4,$H56,$I$4)</f>
-        <v>1.69</v>
+        <v>1.524</v>
       </c>
       <c r="N56" s="5">
         <f>_xll.RtGet(L$4,$H56,$I$4)</f>
-        <v>1.69</v>
+        <v>1.524</v>
       </c>
       <c r="O56" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7261,7 +7399,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C57" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D57,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D57,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D57" t="str">
@@ -7300,11 +7438,11 @@
       </c>
       <c r="M57" s="5">
         <f>_xll.RtGet(K$4,$H57,$I$4)</f>
-        <v>1.708</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="N57" s="5">
         <f>_xll.RtGet(L$4,$H57,$I$4)</f>
-        <v>1.708</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="O57" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7340,7 +7478,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C58" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D58,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D58,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D58" t="str">
@@ -7379,11 +7517,11 @@
       </c>
       <c r="M58" s="5">
         <f>_xll.RtGet(K$4,$H58,$I$4)</f>
-        <v>1.724</v>
+        <v>1.552</v>
       </c>
       <c r="N58" s="5">
         <f>_xll.RtGet(L$4,$H58,$I$4)</f>
-        <v>1.724</v>
+        <v>1.552</v>
       </c>
       <c r="O58" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7419,7 +7557,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C59" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D59,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D59,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D59" t="str">
@@ -7458,11 +7596,11 @@
       </c>
       <c r="M59" s="5">
         <f>_xll.RtGet(K$4,$H59,$I$4)</f>
-        <v>1.738</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="N59" s="5">
         <f>_xll.RtGet(L$4,$H59,$I$4)</f>
-        <v>1.738</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="O59" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7498,7 +7636,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C60" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D60,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D60,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D60" t="str">
@@ -7537,11 +7675,11 @@
       </c>
       <c r="M60" s="5">
         <f>_xll.RtGet(K$4,$H60,$I$4)</f>
-        <v>1.7509999999999999</v>
+        <v>1.573</v>
       </c>
       <c r="N60" s="5">
         <f>_xll.RtGet(L$4,$H60,$I$4)</f>
-        <v>1.7509999999999999</v>
+        <v>1.573</v>
       </c>
       <c r="O60" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7577,7 +7715,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C61" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D61,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D61,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D61" t="str">
@@ -7616,11 +7754,11 @@
       </c>
       <c r="M61" s="5">
         <f>_xll.RtGet(K$4,$H61,$I$4)</f>
-        <v>1.7629999999999999</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="N61" s="5">
         <f>_xll.RtGet(L$4,$H61,$I$4)</f>
-        <v>1.7629999999999999</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="O61" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7656,7 +7794,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C62" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D62,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D62,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D62" t="str">
@@ -7695,11 +7833,11 @@
       </c>
       <c r="M62" s="5">
         <f>_xll.RtGet(K$4,$H62,$I$4)</f>
-        <v>1.7749999999999999</v>
+        <v>1.591</v>
       </c>
       <c r="N62" s="5">
         <f>_xll.RtGet(L$4,$H62,$I$4)</f>
-        <v>1.7749999999999999</v>
+        <v>1.591</v>
       </c>
       <c r="O62" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7735,7 +7873,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C63" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D63,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D63,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D63" t="str">
@@ -7774,11 +7912,11 @@
       </c>
       <c r="M63" s="5">
         <f>_xll.RtGet(K$4,$H63,$I$4)</f>
-        <v>1.8280000000000001</v>
+        <v>1.633</v>
       </c>
       <c r="N63" s="5">
         <f>_xll.RtGet(L$4,$H63,$I$4)</f>
-        <v>1.8280000000000001</v>
+        <v>1.6339999999999999</v>
       </c>
       <c r="O63" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7814,7 +7952,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C64" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D64,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D64,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D64" t="str">
@@ -7853,11 +7991,11 @@
       </c>
       <c r="M64" s="5">
         <f>_xll.RtGet(K$4,$H64,$I$4)</f>
-        <v>1.87</v>
+        <v>1.667</v>
       </c>
       <c r="N64" s="5">
         <f>_xll.RtGet(L$4,$H64,$I$4)</f>
-        <v>1.87</v>
+        <v>1.667</v>
       </c>
       <c r="O64" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7893,7 +8031,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C65" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D65,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D65,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D65" t="str">
@@ -7932,11 +8070,11 @@
       </c>
       <c r="M65" s="5">
         <f>_xll.RtGet(K$4,$H65,$I$4)</f>
-        <v>1.91</v>
+        <v>1.696</v>
       </c>
       <c r="N65" s="5">
         <f>_xll.RtGet(L$4,$H65,$I$4)</f>
-        <v>1.91</v>
+        <v>1.694</v>
       </c>
       <c r="O65" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7972,7 +8110,7 @@
         <v>#NAME?</v>
       </c>
       <c r="C66" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D66,Model!$E$11:$E$29)</f>
+        <f ca="1">_xll.qlQuoteValue(D66,Model!$E$11:$E$32)</f>
         <v>#NAME?</v>
       </c>
       <c r="D66" t="str">
@@ -8011,11 +8149,11 @@
       </c>
       <c r="M66" s="5">
         <f>_xll.RtGet(K$4,$H66,$I$4)</f>
-        <v>1.9330000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="N66" s="5">
         <f>_xll.RtGet(L$4,$H66,$I$4)</f>
-        <v>1.9330000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="O66" s="5" t="e">
         <f t="shared" ca="1" si="4"/>
